--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABSEN EKINERJA\02. ABSEN APRIL 20 22 - -\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABSEN EKINERJA\02. ABSEN MEI 20 22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F34150-03AA-48D0-8846-2396095CBFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B613296-8D15-47AA-9BEE-398D771C05DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="244">
   <si>
     <t>NIP</t>
   </si>
@@ -762,16 +762,13 @@
   </si>
   <si>
     <t>SDN GELUMBANG JUAI</t>
-  </si>
-  <si>
-    <t>Pensiun TMT 1 Mei 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,16 +838,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -873,6 +862,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -951,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1019,14 +1020,49 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4577,10 +4613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="D51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4625,2434 +4661,2396 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="32">
+        <v>5</v>
+      </c>
+      <c r="C2" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="32">
+        <v>18</v>
+      </c>
+      <c r="E2" s="32">
+        <v>18</v>
+      </c>
+      <c r="F2" s="32">
+        <v>0</v>
+      </c>
+      <c r="G2" s="33">
+        <v>1</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="32">
+        <v>5</v>
+      </c>
+      <c r="C3" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D3" s="32">
+        <v>18</v>
+      </c>
+      <c r="E3" s="32">
+        <v>18</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0</v>
+      </c>
+      <c r="G3" s="33">
+        <v>2</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="32">
+        <v>5</v>
+      </c>
+      <c r="C4" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="32">
+        <v>18</v>
+      </c>
+      <c r="E4" s="32">
+        <v>18</v>
+      </c>
+      <c r="F4" s="32">
+        <v>0</v>
+      </c>
+      <c r="G4" s="33">
+        <v>3</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="32">
+        <v>5</v>
+      </c>
+      <c r="C5" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="32">
+        <v>18</v>
+      </c>
+      <c r="E5" s="32">
+        <v>18</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0</v>
+      </c>
+      <c r="G5" s="33">
         <v>4</v>
       </c>
-      <c r="C2" s="11">
+      <c r="H5" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="32">
+        <v>5</v>
+      </c>
+      <c r="C6" s="32">
         <v>2022</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D6" s="32">
+        <v>18</v>
+      </c>
+      <c r="E6" s="32">
+        <v>18</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0</v>
+      </c>
+      <c r="G6" s="33">
+        <v>5</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="32">
+        <v>5</v>
+      </c>
+      <c r="C7" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="32">
+        <v>18</v>
+      </c>
+      <c r="E7" s="32">
+        <v>18</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0</v>
+      </c>
+      <c r="G7" s="33">
+        <v>6</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="32">
+        <v>5</v>
+      </c>
+      <c r="C8" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="32">
+        <v>18</v>
+      </c>
+      <c r="E8" s="32">
+        <v>18</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0</v>
+      </c>
+      <c r="G8" s="33">
+        <v>7</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="32">
+        <v>5</v>
+      </c>
+      <c r="C9" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="32">
+        <v>18</v>
+      </c>
+      <c r="E9" s="32">
+        <v>18</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0</v>
+      </c>
+      <c r="G9" s="33">
+        <v>8</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="38"/>
+    </row>
+    <row r="10" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="32">
+        <v>5</v>
+      </c>
+      <c r="C10" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="32">
+        <v>18</v>
+      </c>
+      <c r="E10" s="32">
+        <v>18</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0</v>
+      </c>
+      <c r="G10" s="33">
+        <v>9</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="32">
+        <v>5</v>
+      </c>
+      <c r="C11" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="32">
+        <v>18</v>
+      </c>
+      <c r="E11" s="32">
+        <v>18</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0</v>
+      </c>
+      <c r="G11" s="33">
+        <v>10</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="32">
+        <v>5</v>
+      </c>
+      <c r="C12" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D12" s="32">
+        <v>18</v>
+      </c>
+      <c r="E12" s="32">
+        <v>18</v>
+      </c>
+      <c r="F12" s="32">
+        <v>0</v>
+      </c>
+      <c r="G12" s="33">
+        <v>11</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="32">
+        <v>5</v>
+      </c>
+      <c r="C13" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="32">
+        <v>18</v>
+      </c>
+      <c r="E13" s="32">
+        <v>18</v>
+      </c>
+      <c r="F13" s="32">
+        <v>0</v>
+      </c>
+      <c r="G13" s="33">
+        <v>12</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="32">
+        <v>5</v>
+      </c>
+      <c r="C14" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="32">
+        <v>18</v>
+      </c>
+      <c r="E14" s="32">
+        <v>18</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0</v>
+      </c>
+      <c r="G14" s="33">
+        <v>13</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="32">
+        <v>5</v>
+      </c>
+      <c r="C15" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="32">
+        <v>18</v>
+      </c>
+      <c r="E15" s="32">
+        <v>18</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33">
+        <v>14</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="32">
+        <v>5</v>
+      </c>
+      <c r="C16" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="32">
+        <v>18</v>
+      </c>
+      <c r="E16" s="32">
+        <v>18</v>
+      </c>
+      <c r="F16" s="32">
+        <v>0</v>
+      </c>
+      <c r="G16" s="33">
+        <v>15</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="32">
+        <v>5</v>
+      </c>
+      <c r="C17" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="32">
+        <v>18</v>
+      </c>
+      <c r="E17" s="32">
+        <v>18</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0</v>
+      </c>
+      <c r="G17" s="33">
+        <v>16</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="32">
+        <v>5</v>
+      </c>
+      <c r="C18" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="32">
+        <v>18</v>
+      </c>
+      <c r="E18" s="32">
+        <v>18</v>
+      </c>
+      <c r="F18" s="32">
+        <v>0</v>
+      </c>
+      <c r="G18" s="33">
+        <v>17</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="32">
+        <v>5</v>
+      </c>
+      <c r="C19" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="32">
+        <v>18</v>
+      </c>
+      <c r="E19" s="32">
+        <v>18</v>
+      </c>
+      <c r="F19" s="32">
+        <v>0</v>
+      </c>
+      <c r="G19" s="33">
+        <v>18</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="32">
+        <v>5</v>
+      </c>
+      <c r="C20" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="32">
+        <v>18</v>
+      </c>
+      <c r="E20" s="32">
+        <v>18</v>
+      </c>
+      <c r="F20" s="32">
+        <v>0</v>
+      </c>
+      <c r="G20" s="33">
+        <v>19</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="32">
+        <v>5</v>
+      </c>
+      <c r="C21" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D21" s="32">
+        <v>18</v>
+      </c>
+      <c r="E21" s="32">
+        <v>18</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0</v>
+      </c>
+      <c r="G21" s="33">
+        <v>20</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="32">
+        <v>5</v>
+      </c>
+      <c r="C22" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D22" s="32">
+        <v>18</v>
+      </c>
+      <c r="E22" s="32">
+        <v>18</v>
+      </c>
+      <c r="F22" s="32">
+        <v>0</v>
+      </c>
+      <c r="G22" s="33">
+        <v>21</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" s="32">
+        <v>5</v>
+      </c>
+      <c r="C23" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D23" s="32">
+        <v>18</v>
+      </c>
+      <c r="E23" s="32">
+        <v>18</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0</v>
+      </c>
+      <c r="G23" s="33">
+        <v>22</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="32">
+        <v>5</v>
+      </c>
+      <c r="C24" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="32">
+        <v>18</v>
+      </c>
+      <c r="E24" s="32">
+        <v>18</v>
+      </c>
+      <c r="F24" s="32">
+        <v>0</v>
+      </c>
+      <c r="G24" s="33">
         <v>23</v>
       </c>
-      <c r="E2" s="11">
-        <v>23</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12">
-        <v>1</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="H24" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" s="37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="32">
+        <v>5</v>
+      </c>
+      <c r="C25" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D25" s="32">
+        <v>18</v>
+      </c>
+      <c r="E25" s="32">
+        <v>18</v>
+      </c>
+      <c r="F25" s="32">
+        <v>0</v>
+      </c>
+      <c r="G25" s="33">
+        <v>24</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="32">
+        <v>5</v>
+      </c>
+      <c r="C26" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D26" s="32">
+        <v>18</v>
+      </c>
+      <c r="E26" s="32">
+        <v>18</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0</v>
+      </c>
+      <c r="G26" s="33">
+        <v>25</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="32">
+        <v>5</v>
+      </c>
+      <c r="C27" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D27" s="32">
+        <v>18</v>
+      </c>
+      <c r="E27" s="32">
+        <v>18</v>
+      </c>
+      <c r="F27" s="32">
+        <v>0</v>
+      </c>
+      <c r="G27" s="33">
+        <v>26</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="32">
+        <v>5</v>
+      </c>
+      <c r="C28" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D28" s="32">
+        <v>18</v>
+      </c>
+      <c r="E28" s="32">
+        <v>18</v>
+      </c>
+      <c r="F28" s="32">
+        <v>0</v>
+      </c>
+      <c r="G28" s="33">
+        <v>27</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="J28" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="32">
+        <v>5</v>
+      </c>
+      <c r="C29" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D29" s="32">
+        <v>18</v>
+      </c>
+      <c r="E29" s="32">
+        <v>18</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0</v>
+      </c>
+      <c r="G29" s="33">
+        <v>28</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="32">
+        <v>5</v>
+      </c>
+      <c r="C30" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D30" s="32">
+        <v>18</v>
+      </c>
+      <c r="E30" s="32">
+        <v>18</v>
+      </c>
+      <c r="F30" s="32">
+        <v>0</v>
+      </c>
+      <c r="G30" s="33">
+        <v>29</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="32">
+        <v>5</v>
+      </c>
+      <c r="C31" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D31" s="32">
+        <v>18</v>
+      </c>
+      <c r="E31" s="32">
+        <v>18</v>
+      </c>
+      <c r="F31" s="32">
+        <v>0</v>
+      </c>
+      <c r="G31" s="33">
+        <v>30</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D32" s="32">
+        <v>18</v>
+      </c>
+      <c r="E32" s="32">
+        <v>18</v>
+      </c>
+      <c r="F32" s="32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="33">
+        <v>31</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="32">
+        <v>5</v>
+      </c>
+      <c r="C33" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D33" s="32">
+        <v>18</v>
+      </c>
+      <c r="E33" s="32">
+        <v>18</v>
+      </c>
+      <c r="F33" s="32">
+        <v>0</v>
+      </c>
+      <c r="G33" s="33">
+        <v>32</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="K33" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="32">
+        <v>5</v>
+      </c>
+      <c r="C34" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D34" s="32">
+        <v>18</v>
+      </c>
+      <c r="E34" s="32">
+        <v>18</v>
+      </c>
+      <c r="F34" s="32">
+        <v>0</v>
+      </c>
+      <c r="G34" s="33">
+        <v>33</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="32">
+        <v>5</v>
+      </c>
+      <c r="C35" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D35" s="32">
+        <v>18</v>
+      </c>
+      <c r="E35" s="32">
+        <v>18</v>
+      </c>
+      <c r="F35" s="32">
+        <v>0</v>
+      </c>
+      <c r="G35" s="33">
+        <v>34</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="32">
+        <v>5</v>
+      </c>
+      <c r="C36" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D36" s="32">
+        <v>18</v>
+      </c>
+      <c r="E36" s="32">
+        <v>18</v>
+      </c>
+      <c r="F36" s="32">
+        <v>0</v>
+      </c>
+      <c r="G36" s="33">
+        <v>35</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="32">
+        <v>5</v>
+      </c>
+      <c r="C37" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D37" s="32">
+        <v>18</v>
+      </c>
+      <c r="E37" s="32">
+        <v>18</v>
+      </c>
+      <c r="F37" s="32">
+        <v>0</v>
+      </c>
+      <c r="G37" s="33">
+        <v>36</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" s="32">
+        <v>5</v>
+      </c>
+      <c r="C38" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D38" s="32">
+        <v>18</v>
+      </c>
+      <c r="E38" s="32">
+        <v>18</v>
+      </c>
+      <c r="F38" s="32">
+        <v>0</v>
+      </c>
+      <c r="G38" s="33">
+        <v>37</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="32">
+        <v>5</v>
+      </c>
+      <c r="C39" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D39" s="32">
+        <v>18</v>
+      </c>
+      <c r="E39" s="32">
+        <v>18</v>
+      </c>
+      <c r="F39" s="32">
+        <v>0</v>
+      </c>
+      <c r="G39" s="33">
+        <v>38</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" s="32">
+        <v>5</v>
+      </c>
+      <c r="C40" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D40" s="32">
+        <v>18</v>
+      </c>
+      <c r="E40" s="32">
+        <v>18</v>
+      </c>
+      <c r="F40" s="32">
+        <v>0</v>
+      </c>
+      <c r="G40" s="33">
+        <v>39</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="K40" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="32">
+        <v>5</v>
+      </c>
+      <c r="C41" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D41" s="32">
+        <v>18</v>
+      </c>
+      <c r="E41" s="32">
+        <v>18</v>
+      </c>
+      <c r="F41" s="32">
+        <v>0</v>
+      </c>
+      <c r="G41" s="33">
+        <v>40</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="32">
+        <v>5</v>
+      </c>
+      <c r="C42" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D42" s="32">
+        <v>18</v>
+      </c>
+      <c r="E42" s="32">
+        <v>18</v>
+      </c>
+      <c r="F42" s="32">
+        <v>0</v>
+      </c>
+      <c r="G42" s="33">
+        <v>41</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K42" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="32">
+        <v>5</v>
+      </c>
+      <c r="C43" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D43" s="32">
+        <v>18</v>
+      </c>
+      <c r="E43" s="32">
+        <v>18</v>
+      </c>
+      <c r="F43" s="32">
+        <v>0</v>
+      </c>
+      <c r="G43" s="33">
+        <v>42</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="32">
+        <v>5</v>
+      </c>
+      <c r="C44" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D44" s="32">
+        <v>18</v>
+      </c>
+      <c r="E44" s="32">
+        <v>18</v>
+      </c>
+      <c r="F44" s="32">
+        <v>0</v>
+      </c>
+      <c r="G44" s="33">
+        <v>43</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J44" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="32">
+        <v>5</v>
+      </c>
+      <c r="C45" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D45" s="32">
+        <v>18</v>
+      </c>
+      <c r="E45" s="32">
+        <v>18</v>
+      </c>
+      <c r="F45" s="32">
+        <v>0</v>
+      </c>
+      <c r="G45" s="33">
+        <v>44</v>
+      </c>
+      <c r="H45" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="32">
+        <v>5</v>
+      </c>
+      <c r="C46" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D46" s="32">
+        <v>18</v>
+      </c>
+      <c r="E46" s="32">
+        <v>18</v>
+      </c>
+      <c r="F46" s="32">
+        <v>0</v>
+      </c>
+      <c r="G46" s="33">
         <v>45</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="11">
-        <v>4</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="H46" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="32">
+        <v>5</v>
+      </c>
+      <c r="C47" s="32">
         <v>2022</v>
       </c>
-      <c r="D3" s="11">
-        <v>23</v>
-      </c>
-      <c r="E3" s="11">
-        <v>23</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>2</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="11">
-        <v>4</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="D47" s="32">
+        <v>18</v>
+      </c>
+      <c r="E47" s="32">
+        <v>18</v>
+      </c>
+      <c r="F47" s="32">
+        <v>0</v>
+      </c>
+      <c r="G47" s="33">
+        <v>46</v>
+      </c>
+      <c r="H47" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="K47" s="35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" s="32">
+        <v>5</v>
+      </c>
+      <c r="C48" s="32">
         <v>2022</v>
       </c>
-      <c r="D4" s="11">
-        <v>23</v>
-      </c>
-      <c r="E4" s="11">
-        <v>23</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>3</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="D48" s="32">
+        <v>18</v>
+      </c>
+      <c r="E48" s="32">
+        <v>18</v>
+      </c>
+      <c r="F48" s="32">
+        <v>0</v>
+      </c>
+      <c r="G48" s="33">
+        <v>47</v>
+      </c>
+      <c r="H48" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="K48" s="35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="32">
+        <v>5</v>
+      </c>
+      <c r="C49" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D49" s="32">
+        <v>18</v>
+      </c>
+      <c r="E49" s="32">
+        <v>18</v>
+      </c>
+      <c r="F49" s="32">
+        <v>0</v>
+      </c>
+      <c r="G49" s="33">
+        <v>48</v>
+      </c>
+      <c r="H49" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="I49" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="L49" s="35"/>
+      <c r="M49" s="38"/>
+    </row>
+    <row r="50" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="32">
+        <v>5</v>
+      </c>
+      <c r="C50" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D50" s="32">
+        <v>18</v>
+      </c>
+      <c r="E50" s="32">
+        <v>18</v>
+      </c>
+      <c r="F50" s="32">
+        <v>0</v>
+      </c>
+      <c r="G50" s="33">
+        <v>49</v>
+      </c>
+      <c r="H50" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B51" s="32">
+        <v>5</v>
+      </c>
+      <c r="C51" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D51" s="32">
+        <v>18</v>
+      </c>
+      <c r="E51" s="32">
+        <v>18</v>
+      </c>
+      <c r="F51" s="32">
+        <v>0</v>
+      </c>
+      <c r="G51" s="33">
+        <v>50</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I51" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" s="32">
+        <v>5</v>
+      </c>
+      <c r="C52" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D52" s="32">
+        <v>18</v>
+      </c>
+      <c r="E52" s="32">
+        <v>18</v>
+      </c>
+      <c r="F52" s="32">
+        <v>0</v>
+      </c>
+      <c r="G52" s="33">
+        <v>51</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="K52" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" s="32">
+        <v>5</v>
+      </c>
+      <c r="C53" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D53" s="32">
+        <v>18</v>
+      </c>
+      <c r="E53" s="32">
+        <v>18</v>
+      </c>
+      <c r="F53" s="32">
+        <v>0</v>
+      </c>
+      <c r="G53" s="33">
+        <v>52</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="I53" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="K53" s="35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" s="32">
+        <v>5</v>
+      </c>
+      <c r="C54" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D54" s="32">
+        <v>18</v>
+      </c>
+      <c r="E54" s="32">
+        <v>18</v>
+      </c>
+      <c r="F54" s="32">
+        <v>0</v>
+      </c>
+      <c r="G54" s="33">
+        <v>53</v>
+      </c>
+      <c r="H54" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="I54" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J54" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="K54" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="L54" s="47"/>
+    </row>
+    <row r="55" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="32">
+        <v>5</v>
+      </c>
+      <c r="C55" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D55" s="32">
+        <v>18</v>
+      </c>
+      <c r="E55" s="32">
+        <v>18</v>
+      </c>
+      <c r="F55" s="32">
+        <v>0</v>
+      </c>
+      <c r="G55" s="33">
+        <v>54</v>
+      </c>
+      <c r="H55" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J55" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="L55" s="47"/>
+    </row>
+    <row r="56" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56" s="32">
+        <v>5</v>
+      </c>
+      <c r="C56" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D56" s="32">
+        <v>18</v>
+      </c>
+      <c r="E56" s="32">
+        <v>18</v>
+      </c>
+      <c r="F56" s="32">
+        <v>0</v>
+      </c>
+      <c r="G56" s="33">
+        <v>55</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J56" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" s="35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" s="32">
+        <v>5</v>
+      </c>
+      <c r="C57" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D57" s="32">
+        <v>18</v>
+      </c>
+      <c r="E57" s="32">
+        <v>18</v>
+      </c>
+      <c r="F57" s="32">
+        <v>0</v>
+      </c>
+      <c r="G57" s="33">
+        <v>56</v>
+      </c>
+      <c r="H57" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="I57" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="K57" s="35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B58" s="32">
+        <v>5</v>
+      </c>
+      <c r="C58" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D58" s="32">
+        <v>18</v>
+      </c>
+      <c r="E58" s="32">
+        <v>18</v>
+      </c>
+      <c r="F58" s="32">
+        <v>0</v>
+      </c>
+      <c r="G58" s="33">
+        <v>57</v>
+      </c>
+      <c r="H58" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J58" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="K58" s="35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" s="32">
+        <v>5</v>
+      </c>
+      <c r="C59" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D59" s="32">
+        <v>18</v>
+      </c>
+      <c r="E59" s="32">
+        <v>18</v>
+      </c>
+      <c r="F59" s="32">
+        <v>0</v>
+      </c>
+      <c r="G59" s="33">
+        <v>58</v>
+      </c>
+      <c r="H59" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J59" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K59" s="35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" s="32">
+        <v>5</v>
+      </c>
+      <c r="C60" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D60" s="32">
+        <v>18</v>
+      </c>
+      <c r="E60" s="32">
+        <v>18</v>
+      </c>
+      <c r="F60" s="32">
+        <v>0</v>
+      </c>
+      <c r="G60" s="33">
+        <v>59</v>
+      </c>
+      <c r="H60" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="I60" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="J60" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="K60" s="35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" s="32">
+        <v>5</v>
+      </c>
+      <c r="C61" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D61" s="32">
+        <v>18</v>
+      </c>
+      <c r="E61" s="32">
+        <v>18</v>
+      </c>
+      <c r="F61" s="32">
+        <v>0</v>
+      </c>
+      <c r="G61" s="33">
+        <v>60</v>
+      </c>
+      <c r="H61" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="I61" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J61" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="32">
+        <v>5</v>
+      </c>
+      <c r="C62" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D62" s="32">
+        <v>18</v>
+      </c>
+      <c r="E62" s="32">
+        <v>18</v>
+      </c>
+      <c r="F62" s="32">
+        <v>0</v>
+      </c>
+      <c r="G62" s="33">
+        <v>61</v>
+      </c>
+      <c r="H62" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="I62" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J62" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="K62" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B63" s="32">
+        <v>5</v>
+      </c>
+      <c r="C63" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D63" s="32">
+        <v>18</v>
+      </c>
+      <c r="E63" s="32">
+        <v>18</v>
+      </c>
+      <c r="F63" s="32">
+        <v>0</v>
+      </c>
+      <c r="G63" s="33">
+        <v>62</v>
+      </c>
+      <c r="H63" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I63" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J63" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="K63" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="32">
+        <v>5</v>
+      </c>
+      <c r="C64" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D64" s="32">
+        <v>18</v>
+      </c>
+      <c r="E64" s="32">
+        <v>18</v>
+      </c>
+      <c r="F64" s="32">
+        <v>0</v>
+      </c>
+      <c r="G64" s="33">
+        <v>63</v>
+      </c>
+      <c r="H64" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I64" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J64" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="K64" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="32">
+        <v>5</v>
+      </c>
+      <c r="C65" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D65" s="32">
+        <v>18</v>
+      </c>
+      <c r="E65" s="32">
+        <v>18</v>
+      </c>
+      <c r="F65" s="32">
+        <v>0</v>
+      </c>
+      <c r="G65" s="33">
+        <v>64</v>
+      </c>
+      <c r="H65" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I65" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J65" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65" s="37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="32">
+        <v>5</v>
+      </c>
+      <c r="C66" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D66" s="32">
+        <v>18</v>
+      </c>
+      <c r="E66" s="32">
+        <v>18</v>
+      </c>
+      <c r="F66" s="32">
+        <v>0</v>
+      </c>
+      <c r="G66" s="33">
+        <v>65</v>
+      </c>
+      <c r="H66" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I66" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J66" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="32">
+        <v>5</v>
+      </c>
+      <c r="C67" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D67" s="32">
+        <v>18</v>
+      </c>
+      <c r="E67" s="32">
+        <v>18</v>
+      </c>
+      <c r="F67" s="32">
+        <v>0</v>
+      </c>
+      <c r="G67" s="33">
         <v>66</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="H67" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="I67" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J67" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="K67" s="35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="32">
+        <v>5</v>
+      </c>
+      <c r="C68" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D68" s="32">
+        <v>18</v>
+      </c>
+      <c r="E68" s="32">
+        <v>18</v>
+      </c>
+      <c r="F68" s="32">
+        <v>0</v>
+      </c>
+      <c r="G68" s="33">
+        <v>67</v>
+      </c>
+      <c r="H68" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I68" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="11">
-        <v>4</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="J68" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K68" s="35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="32">
+        <v>5</v>
+      </c>
+      <c r="C69" s="32">
         <v>2022</v>
       </c>
-      <c r="D5" s="11">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>4</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="11">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D6" s="11">
-        <v>23</v>
-      </c>
-      <c r="E6" s="11">
-        <v>23</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>5</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="11">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D7" s="11">
-        <v>23</v>
-      </c>
-      <c r="E7" s="11">
-        <v>23</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>6</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="11">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D8" s="11">
-        <v>23</v>
-      </c>
-      <c r="E8" s="11">
-        <v>23</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>7</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="D69" s="32">
+        <v>18</v>
+      </c>
+      <c r="E69" s="32">
+        <v>18</v>
+      </c>
+      <c r="F69" s="32">
+        <v>0</v>
+      </c>
+      <c r="G69" s="33">
         <v>68</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="11">
-        <v>4</v>
-      </c>
-      <c r="C9" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D9" s="11">
-        <v>23</v>
-      </c>
-      <c r="E9" s="11">
-        <v>23</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>8</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="22"/>
-    </row>
-    <row r="10" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="11">
-        <v>4</v>
-      </c>
-      <c r="C10" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D10" s="11">
-        <v>23</v>
-      </c>
-      <c r="E10" s="11">
-        <v>23</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>9</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D11" s="11">
-        <v>23</v>
-      </c>
-      <c r="E11" s="11">
-        <v>23</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>10</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="11">
-        <v>4</v>
-      </c>
-      <c r="C12" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D12" s="11">
-        <v>23</v>
-      </c>
-      <c r="E12" s="11">
-        <v>23</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>11</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="11">
-        <v>4</v>
-      </c>
-      <c r="C13" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D13" s="11">
-        <v>23</v>
-      </c>
-      <c r="E13" s="11">
-        <v>23</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>12</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="11">
-        <v>4</v>
-      </c>
-      <c r="C14" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D14" s="11">
-        <v>23</v>
-      </c>
-      <c r="E14" s="11">
-        <v>23</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
-        <v>13</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="11">
-        <v>4</v>
-      </c>
-      <c r="C15" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D15" s="11">
-        <v>23</v>
-      </c>
-      <c r="E15" s="11">
-        <v>23</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>14</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="11">
-        <v>4</v>
-      </c>
-      <c r="C16" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D16" s="11">
-        <v>5</v>
-      </c>
-      <c r="E16" s="11">
-        <v>5</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
-        <v>15</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B17" s="11">
-        <v>4</v>
-      </c>
-      <c r="C17" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D17" s="11">
-        <v>23</v>
-      </c>
-      <c r="E17" s="11">
-        <v>23</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12">
-        <v>16</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="B18" s="11">
-        <v>4</v>
-      </c>
-      <c r="C18" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D18" s="11">
-        <v>23</v>
-      </c>
-      <c r="E18" s="11">
-        <v>23</v>
-      </c>
-      <c r="F18" s="31">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12">
-        <v>17</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" s="11">
-        <v>4</v>
-      </c>
-      <c r="C19" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D19" s="11">
-        <v>8</v>
-      </c>
-      <c r="E19" s="11">
-        <v>8</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>18</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="11">
-        <v>4</v>
-      </c>
-      <c r="C20" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D20" s="11">
-        <v>5</v>
-      </c>
-      <c r="E20" s="11">
-        <v>5</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12">
-        <v>19</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" s="11">
-        <v>4</v>
-      </c>
-      <c r="C21" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D21" s="11">
-        <v>23</v>
-      </c>
-      <c r="E21" s="11">
-        <v>23</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="12">
-        <v>20</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B22" s="11">
-        <v>4</v>
-      </c>
-      <c r="C22" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D22" s="11">
-        <v>5</v>
-      </c>
-      <c r="E22" s="11">
-        <v>5</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12">
-        <v>21</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B23" s="11">
-        <v>4</v>
-      </c>
-      <c r="C23" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D23" s="11">
-        <v>23</v>
-      </c>
-      <c r="E23" s="11">
-        <v>23</v>
-      </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="12">
-        <v>22</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" s="11">
-        <v>4</v>
-      </c>
-      <c r="C24" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D24" s="11">
-        <v>23</v>
-      </c>
-      <c r="E24" s="11">
-        <v>23</v>
-      </c>
-      <c r="F24" s="11">
-        <v>0</v>
-      </c>
-      <c r="G24" s="12">
-        <v>23</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B25" s="11">
-        <v>4</v>
-      </c>
-      <c r="C25" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D25" s="11">
-        <v>23</v>
-      </c>
-      <c r="E25" s="11">
-        <v>23</v>
-      </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="12">
-        <v>24</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B26" s="11">
-        <v>4</v>
-      </c>
-      <c r="C26" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D26" s="11">
-        <v>24</v>
-      </c>
-      <c r="E26" s="11">
-        <v>24</v>
-      </c>
-      <c r="F26" s="11">
-        <v>0</v>
-      </c>
-      <c r="G26" s="12">
-        <v>25</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" s="11">
-        <v>4</v>
-      </c>
-      <c r="C27" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D27" s="11">
-        <v>23</v>
-      </c>
-      <c r="E27" s="11">
-        <v>23</v>
-      </c>
-      <c r="F27" s="11">
-        <v>0</v>
-      </c>
-      <c r="G27" s="12">
-        <v>26</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" s="11">
-        <v>4</v>
-      </c>
-      <c r="C28" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D28" s="11">
-        <v>23</v>
-      </c>
-      <c r="E28" s="11">
-        <v>23</v>
-      </c>
-      <c r="F28" s="11">
-        <v>0</v>
-      </c>
-      <c r="G28" s="12">
-        <v>27</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" s="11">
-        <v>4</v>
-      </c>
-      <c r="C29" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D29" s="11">
-        <v>23</v>
-      </c>
-      <c r="E29" s="11">
-        <v>23</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="12">
-        <v>28</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B30" s="11">
-        <v>4</v>
-      </c>
-      <c r="C30" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D30" s="11">
-        <v>23</v>
-      </c>
-      <c r="E30" s="11">
-        <v>23</v>
-      </c>
-      <c r="F30" s="11">
-        <v>0</v>
-      </c>
-      <c r="G30" s="12">
-        <v>29</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31" s="11">
-        <v>4</v>
-      </c>
-      <c r="C31" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D31" s="11">
-        <v>23</v>
-      </c>
-      <c r="E31" s="11">
-        <v>23</v>
-      </c>
-      <c r="F31" s="11">
-        <v>0</v>
-      </c>
-      <c r="G31" s="12">
-        <v>30</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" s="11">
-        <v>4</v>
-      </c>
-      <c r="C32" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D32" s="11">
-        <v>23</v>
-      </c>
-      <c r="E32" s="11">
-        <v>23</v>
-      </c>
-      <c r="F32" s="11">
-        <v>0</v>
-      </c>
-      <c r="G32" s="12">
+      <c r="H69" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="I69" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J69" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="11">
-        <v>4</v>
-      </c>
-      <c r="C33" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D33" s="11">
-        <v>23</v>
-      </c>
-      <c r="E33" s="11">
-        <v>23</v>
-      </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="12">
-        <v>32</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34" s="11">
-        <v>4</v>
-      </c>
-      <c r="C34" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D34" s="11">
-        <v>5</v>
-      </c>
-      <c r="E34" s="11">
-        <v>5</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0</v>
-      </c>
-      <c r="G34" s="12">
-        <v>33</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B35" s="11">
-        <v>4</v>
-      </c>
-      <c r="C35" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D35" s="11">
-        <v>2</v>
-      </c>
-      <c r="E35" s="11">
-        <v>2</v>
-      </c>
-      <c r="F35" s="11">
-        <v>0</v>
-      </c>
-      <c r="G35" s="12">
-        <v>34</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B36" s="11">
-        <v>4</v>
-      </c>
-      <c r="C36" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D36" s="11">
-        <v>23</v>
-      </c>
-      <c r="E36" s="11">
-        <v>23</v>
-      </c>
-      <c r="F36" s="11">
-        <v>0</v>
-      </c>
-      <c r="G36" s="12">
-        <v>35</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B37" s="11">
-        <v>4</v>
-      </c>
-      <c r="C37" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D37" s="11">
-        <v>23</v>
-      </c>
-      <c r="E37" s="11">
-        <v>23</v>
-      </c>
-      <c r="F37" s="11">
-        <v>0</v>
-      </c>
-      <c r="G37" s="12">
-        <v>36</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K37" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B38" s="11">
-        <v>4</v>
-      </c>
-      <c r="C38" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D38" s="11">
-        <v>23</v>
-      </c>
-      <c r="E38" s="11">
-        <v>23</v>
-      </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="12">
-        <v>37</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K38" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B39" s="11">
-        <v>4</v>
-      </c>
-      <c r="C39" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D39" s="11">
-        <v>23</v>
-      </c>
-      <c r="E39" s="11">
-        <v>23</v>
-      </c>
-      <c r="F39" s="11">
-        <v>0</v>
-      </c>
-      <c r="G39" s="12">
-        <v>38</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K39" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B40" s="11">
-        <v>4</v>
-      </c>
-      <c r="C40" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D40" s="11">
-        <v>23</v>
-      </c>
-      <c r="E40" s="11">
-        <v>23</v>
-      </c>
-      <c r="F40" s="11">
-        <v>0</v>
-      </c>
-      <c r="G40" s="12">
-        <v>39</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K40" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B41" s="11">
-        <v>4</v>
-      </c>
-      <c r="C41" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D41" s="11">
-        <v>23</v>
-      </c>
-      <c r="E41" s="11">
-        <v>23</v>
-      </c>
-      <c r="F41" s="11">
-        <v>0</v>
-      </c>
-      <c r="G41" s="12">
-        <v>40</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="K41" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B42" s="11">
-        <v>4</v>
-      </c>
-      <c r="C42" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D42" s="11">
-        <v>23</v>
-      </c>
-      <c r="E42" s="11">
-        <v>23</v>
-      </c>
-      <c r="F42" s="11">
-        <v>0</v>
-      </c>
-      <c r="G42" s="12">
-        <v>41</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K42" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B43" s="11">
-        <v>4</v>
-      </c>
-      <c r="C43" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D43" s="11">
-        <v>23</v>
-      </c>
-      <c r="E43" s="11">
-        <v>23</v>
-      </c>
-      <c r="F43" s="11">
-        <v>0</v>
-      </c>
-      <c r="G43" s="12">
-        <v>42</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B44" s="11">
-        <v>4</v>
-      </c>
-      <c r="C44" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D44" s="11">
-        <v>23</v>
-      </c>
-      <c r="E44" s="11">
-        <v>23</v>
-      </c>
-      <c r="F44" s="11">
-        <v>0</v>
-      </c>
-      <c r="G44" s="12">
-        <v>43</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="11">
-        <v>4</v>
-      </c>
-      <c r="C45" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D45" s="11">
-        <v>23</v>
-      </c>
-      <c r="E45" s="11">
-        <v>23</v>
-      </c>
-      <c r="F45" s="11">
-        <v>0</v>
-      </c>
-      <c r="G45" s="12">
-        <v>44</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B46" s="11">
-        <v>4</v>
-      </c>
-      <c r="C46" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D46" s="11">
-        <v>23</v>
-      </c>
-      <c r="E46" s="11">
-        <v>23</v>
-      </c>
-      <c r="F46" s="11">
-        <v>0</v>
-      </c>
-      <c r="G46" s="12">
-        <v>45</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B47" s="11">
-        <v>4</v>
-      </c>
-      <c r="C47" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D47" s="11">
-        <v>23</v>
-      </c>
-      <c r="E47" s="11">
-        <v>23</v>
-      </c>
-      <c r="F47" s="11">
-        <v>0</v>
-      </c>
-      <c r="G47" s="12">
-        <v>46</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48" s="11">
-        <v>4</v>
-      </c>
-      <c r="C48" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D48" s="11">
-        <v>23</v>
-      </c>
-      <c r="E48" s="11">
-        <v>23</v>
-      </c>
-      <c r="F48" s="11">
-        <v>0</v>
-      </c>
-      <c r="G48" s="12">
-        <v>47</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B49" s="11">
-        <v>4</v>
-      </c>
-      <c r="C49" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D49" s="11">
-        <v>5</v>
-      </c>
-      <c r="E49" s="11">
-        <v>5</v>
-      </c>
-      <c r="F49" s="11">
-        <v>0</v>
-      </c>
-      <c r="G49" s="12">
-        <v>48</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B50" s="11">
-        <v>4</v>
-      </c>
-      <c r="C50" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D50" s="11">
-        <v>23</v>
-      </c>
-      <c r="E50" s="11">
-        <v>23</v>
-      </c>
-      <c r="F50" s="11">
-        <v>0</v>
-      </c>
-      <c r="G50" s="12">
-        <v>49</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="K50" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="L50" s="14"/>
-      <c r="M50" s="22"/>
-    </row>
-    <row r="51" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B51" s="11">
-        <v>4</v>
-      </c>
-      <c r="C51" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D51" s="11">
-        <v>23</v>
-      </c>
-      <c r="E51" s="11">
-        <v>23</v>
-      </c>
-      <c r="F51" s="11">
-        <v>0</v>
-      </c>
-      <c r="G51" s="12">
-        <v>50</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B52" s="11">
-        <v>4</v>
-      </c>
-      <c r="C52" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D52" s="11">
-        <v>5</v>
-      </c>
-      <c r="E52" s="11">
-        <v>5</v>
-      </c>
-      <c r="F52" s="11">
-        <v>0</v>
-      </c>
-      <c r="G52" s="12">
-        <v>51</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K52" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B53" s="11">
-        <v>4</v>
-      </c>
-      <c r="C53" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D53" s="11">
-        <v>5</v>
-      </c>
-      <c r="E53" s="11">
-        <v>5</v>
-      </c>
-      <c r="F53" s="11">
-        <v>0</v>
-      </c>
-      <c r="G53" s="12">
-        <v>52</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J53" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K53" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="B54" s="11">
-        <v>4</v>
-      </c>
-      <c r="C54" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D54" s="11">
-        <v>23</v>
-      </c>
-      <c r="E54" s="11">
-        <v>23</v>
-      </c>
-      <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="12">
-        <v>53</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K54" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B55" s="11">
-        <v>4</v>
-      </c>
-      <c r="C55" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D55" s="11">
-        <v>23</v>
-      </c>
-      <c r="E55" s="11">
-        <v>23</v>
-      </c>
-      <c r="F55" s="11">
-        <v>0</v>
-      </c>
-      <c r="G55" s="12">
-        <v>54</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="K55" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="L55" s="17"/>
-    </row>
-    <row r="56" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B56" s="11">
-        <v>4</v>
-      </c>
-      <c r="C56" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D56" s="11">
-        <v>23</v>
-      </c>
-      <c r="E56" s="11">
-        <v>18</v>
-      </c>
-      <c r="F56" s="11">
-        <v>0</v>
-      </c>
-      <c r="G56" s="12">
-        <v>55</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="L56" s="17"/>
-    </row>
-    <row r="57" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B57" s="11">
-        <v>4</v>
-      </c>
-      <c r="C57" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D57" s="11">
-        <v>23</v>
-      </c>
-      <c r="E57" s="11">
-        <v>23</v>
-      </c>
-      <c r="F57" s="11">
-        <v>0</v>
-      </c>
-      <c r="G57" s="12">
-        <v>56</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K57" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="B58" s="11">
-        <v>4</v>
-      </c>
-      <c r="C58" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D58" s="11">
-        <v>23</v>
-      </c>
-      <c r="E58" s="11">
-        <v>23</v>
-      </c>
-      <c r="F58" s="11">
-        <v>0</v>
-      </c>
-      <c r="G58" s="12">
-        <v>57</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J58" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="K58" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B59" s="11">
-        <v>4</v>
-      </c>
-      <c r="C59" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D59" s="11">
-        <v>22</v>
-      </c>
-      <c r="E59" s="11">
-        <v>22</v>
-      </c>
-      <c r="F59" s="11">
-        <v>0</v>
-      </c>
-      <c r="G59" s="12">
-        <v>58</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="K59" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B60" s="11">
-        <v>4</v>
-      </c>
-      <c r="C60" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D60" s="11">
-        <v>23</v>
-      </c>
-      <c r="E60" s="11">
-        <v>23</v>
-      </c>
-      <c r="F60" s="11">
-        <v>0</v>
-      </c>
-      <c r="G60" s="12">
-        <v>59</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J60" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K60" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B61" s="11">
-        <v>4</v>
-      </c>
-      <c r="C61" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D61" s="11">
-        <v>23</v>
-      </c>
-      <c r="E61" s="11">
-        <v>23</v>
-      </c>
-      <c r="F61" s="11">
-        <v>0</v>
-      </c>
-      <c r="G61" s="12">
-        <v>60</v>
-      </c>
-      <c r="H61" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="I61" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="J61" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="K61" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B62" s="11">
-        <v>4</v>
-      </c>
-      <c r="C62" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D62" s="11">
-        <v>23</v>
-      </c>
-      <c r="E62" s="11">
-        <v>23</v>
-      </c>
-      <c r="F62" s="11">
-        <v>0</v>
-      </c>
-      <c r="G62" s="12">
-        <v>61</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J62" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B63" s="11">
-        <v>4</v>
-      </c>
-      <c r="C63" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D63" s="11">
-        <v>23</v>
-      </c>
-      <c r="E63" s="11">
-        <v>23</v>
-      </c>
-      <c r="F63" s="11">
-        <v>0</v>
-      </c>
-      <c r="G63" s="12">
-        <v>62</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="K63" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B64" s="11">
-        <v>4</v>
-      </c>
-      <c r="C64" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D64" s="11">
-        <v>23</v>
-      </c>
-      <c r="E64" s="11">
-        <v>23</v>
-      </c>
-      <c r="F64" s="11">
-        <v>0</v>
-      </c>
-      <c r="G64" s="12">
-        <v>63</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J64" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K64" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B65" s="11">
-        <v>4</v>
-      </c>
-      <c r="C65" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D65" s="11">
-        <v>23</v>
-      </c>
-      <c r="E65" s="11">
-        <v>23</v>
-      </c>
-      <c r="F65" s="11">
-        <v>0</v>
-      </c>
-      <c r="G65" s="12">
-        <v>64</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J65" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K65" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B66" s="11">
-        <v>4</v>
-      </c>
-      <c r="C66" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D66" s="11">
-        <v>23</v>
-      </c>
-      <c r="E66" s="11">
-        <v>23</v>
-      </c>
-      <c r="F66" s="11">
-        <v>0</v>
-      </c>
-      <c r="G66" s="12">
-        <v>65</v>
-      </c>
-      <c r="H66" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K66" s="16" t="s">
+      <c r="K69" s="35" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B67" s="11">
-        <v>4</v>
-      </c>
-      <c r="C67" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D67" s="11">
-        <v>23</v>
-      </c>
-      <c r="E67" s="11">
-        <v>23</v>
-      </c>
-      <c r="F67" s="11">
-        <v>0</v>
-      </c>
-      <c r="G67" s="12">
-        <v>66</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J67" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K67" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B68" s="11">
-        <v>4</v>
-      </c>
-      <c r="C68" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D68" s="11">
-        <v>23</v>
-      </c>
-      <c r="E68" s="11">
-        <v>23</v>
-      </c>
-      <c r="F68" s="11">
-        <v>0</v>
-      </c>
-      <c r="G68" s="12">
-        <v>67</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J68" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K68" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B69" s="11">
-        <v>4</v>
-      </c>
-      <c r="C69" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D69" s="11">
-        <v>23</v>
-      </c>
-      <c r="E69" s="11">
-        <v>23</v>
-      </c>
-      <c r="F69" s="11">
-        <v>0</v>
-      </c>
-      <c r="G69" s="12">
-        <v>68</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J69" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K69" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B70" s="11">
-        <v>4</v>
-      </c>
-      <c r="C70" s="11">
-        <v>2022</v>
-      </c>
-      <c r="D70" s="11">
-        <v>6</v>
-      </c>
-      <c r="E70" s="11">
-        <v>6</v>
-      </c>
-      <c r="F70" s="11">
-        <v>0</v>
-      </c>
-      <c r="G70" s="12">
-        <v>69</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J70" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K70" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R70">
-    <sortCondition ref="K2:K70"/>
-    <sortCondition ref="J2:J70"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
+    <sortCondition ref="K2:K69"/>
+    <sortCondition ref="J2:J69"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABSEN EKINERJA\07. ABSEN JULI 20 22 -\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABSEN EKINERJA\08. ABSEN Agustus 20 22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95719F4-A6C4-4C7B-9C67-CE40FDAB2B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E751C93E-A1AB-49AD-8C3D-F5D375AB9C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nov (4)" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Juli" sheetId="1" r:id="rId2"/>
-    <sheet name="Juli (2)" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="agustus" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="243">
   <si>
     <t>NIP</t>
   </si>
@@ -761,12 +760,6 @@
   </si>
   <si>
     <t>YUDIANNOR</t>
-  </si>
-  <si>
-    <t>SDN GELUMBANG JUAI</t>
-  </si>
-  <si>
-    <t>DAFTAR YANG BELUM MENYAMPAIKAN ABSENSI TPP BULAN JULI 2022</t>
   </si>
 </sst>
 </file>
@@ -851,7 +844,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,14 +871,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -964,7 +951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1026,37 +1013,27 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4558,11 +4535,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4570,14 +4545,9 @@
     <col min="2" max="3" width="9.7265625" customWidth="1"/>
     <col min="4" max="5" width="12.26953125" customWidth="1"/>
     <col min="6" max="6" width="21.26953125" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" customWidth="1"/>
-    <col min="9" max="9" width="24.453125" customWidth="1"/>
-    <col min="10" max="10" width="27.7265625" customWidth="1"/>
-    <col min="12" max="12" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4596,2458 +4566,1424 @@
       <c r="F1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="8">
-        <v>7</v>
-      </c>
-      <c r="C2" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D2" s="8">
-        <v>24</v>
-      </c>
-      <c r="E2" s="8">
-        <v>24</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="31">
+        <v>8</v>
+      </c>
+      <c r="C2" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="31">
+        <v>26</v>
+      </c>
+      <c r="E2" s="31">
+        <v>26</v>
+      </c>
+      <c r="F2" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="8">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D3" s="8">
-        <v>25</v>
-      </c>
-      <c r="E3" s="8">
-        <v>25</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>2</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="31">
+        <v>8</v>
+      </c>
+      <c r="C3" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D3" s="31">
+        <v>26</v>
+      </c>
+      <c r="E3" s="31">
+        <v>26</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="8">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D4" s="8">
-        <v>25</v>
-      </c>
-      <c r="E4" s="8">
-        <v>25</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>3</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="B4" s="31">
+        <v>8</v>
+      </c>
+      <c r="C4" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="31">
+        <v>26</v>
+      </c>
+      <c r="E4" s="31">
+        <v>26</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="8">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D5" s="8">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8">
-        <v>11</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>4</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="31">
+        <v>8</v>
+      </c>
+      <c r="C5" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="31">
+        <v>26</v>
+      </c>
+      <c r="E5" s="31">
+        <v>26</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="8">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D6" s="8">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8">
-        <v>11</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>5</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="31">
+        <v>8</v>
+      </c>
+      <c r="C6" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D6" s="31">
+        <v>26</v>
+      </c>
+      <c r="E6" s="31">
+        <v>26</v>
+      </c>
+      <c r="F6" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="8">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D7" s="8">
-        <v>25</v>
-      </c>
-      <c r="E7" s="8">
-        <v>25</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>6</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="31">
+        <v>8</v>
+      </c>
+      <c r="C7" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="31">
+        <v>26</v>
+      </c>
+      <c r="E7" s="31">
+        <v>26</v>
+      </c>
+      <c r="F7" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D8" s="8">
-        <v>25</v>
-      </c>
-      <c r="E8" s="8">
-        <v>25</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>7</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="B8" s="31">
+        <v>8</v>
+      </c>
+      <c r="C8" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="31">
+        <v>26</v>
+      </c>
+      <c r="E8" s="31">
+        <v>26</v>
+      </c>
+      <c r="F8" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="8">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D9" s="8">
-        <v>25</v>
-      </c>
-      <c r="E9" s="8">
-        <v>25</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>8</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="B9" s="31">
+        <v>8</v>
+      </c>
+      <c r="C9" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="31">
+        <v>26</v>
+      </c>
+      <c r="E9" s="31">
+        <v>26</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="8">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D10" s="8">
-        <v>24</v>
-      </c>
-      <c r="E10" s="8">
-        <v>24</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>9</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="B10" s="31">
+        <v>8</v>
+      </c>
+      <c r="C10" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="31">
+        <v>26</v>
+      </c>
+      <c r="E10" s="31">
+        <v>26</v>
+      </c>
+      <c r="F10" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="8">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D11" s="8">
-        <v>11</v>
-      </c>
-      <c r="E11" s="8">
-        <v>11</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>10</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
+      <c r="B11" s="31">
+        <v>8</v>
+      </c>
+      <c r="C11" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="31">
+        <v>26</v>
+      </c>
+      <c r="E11" s="31">
+        <v>26</v>
+      </c>
+      <c r="F11" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="8">
-        <v>7</v>
-      </c>
-      <c r="C12" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D12" s="8">
-        <v>25</v>
-      </c>
-      <c r="E12" s="8">
-        <v>25</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>11</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="B12" s="31">
+        <v>8</v>
+      </c>
+      <c r="C12" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D12" s="31">
+        <v>26</v>
+      </c>
+      <c r="E12" s="31">
+        <v>26</v>
+      </c>
+      <c r="F12" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="8">
-        <v>7</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D13" s="8">
-        <v>25</v>
-      </c>
-      <c r="E13" s="8">
-        <v>25</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>12</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="B13" s="31">
+        <v>8</v>
+      </c>
+      <c r="C13" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="31">
+        <v>26</v>
+      </c>
+      <c r="E13" s="31">
+        <v>26</v>
+      </c>
+      <c r="F13" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="8">
-        <v>7</v>
-      </c>
-      <c r="C14" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D14" s="8">
-        <v>25</v>
-      </c>
-      <c r="E14" s="8">
-        <v>25</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>13</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="B14" s="31">
+        <v>8</v>
+      </c>
+      <c r="C14" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="31">
+        <v>26</v>
+      </c>
+      <c r="E14" s="31">
+        <v>26</v>
+      </c>
+      <c r="F14" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="8">
-        <v>7</v>
-      </c>
-      <c r="C15" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D15" s="8">
-        <v>11</v>
-      </c>
-      <c r="E15" s="8">
-        <v>11</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>14</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="B15" s="31">
+        <v>8</v>
+      </c>
+      <c r="C15" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="31">
+        <v>26</v>
+      </c>
+      <c r="E15" s="31">
+        <v>26</v>
+      </c>
+      <c r="F15" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B16" s="8">
-        <v>7</v>
-      </c>
-      <c r="C16" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D16" s="8">
-        <v>11</v>
-      </c>
-      <c r="E16" s="8">
-        <v>11</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>15</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="B16" s="31">
+        <v>8</v>
+      </c>
+      <c r="C16" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="31">
+        <v>26</v>
+      </c>
+      <c r="E16" s="31">
+        <v>26</v>
+      </c>
+      <c r="F16" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="B17" s="8">
-        <v>7</v>
-      </c>
-      <c r="C17" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D17" s="8">
-        <v>25</v>
-      </c>
-      <c r="E17" s="8">
-        <v>25</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>16</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="B17" s="31">
+        <v>8</v>
+      </c>
+      <c r="C17" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="31">
+        <v>26</v>
+      </c>
+      <c r="E17" s="31">
+        <v>26</v>
+      </c>
+      <c r="F17" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="8">
-        <v>7</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D18" s="8">
-        <v>11</v>
-      </c>
-      <c r="E18" s="8">
-        <v>11</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>17</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="B18" s="31">
+        <v>8</v>
+      </c>
+      <c r="C18" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="31">
+        <v>26</v>
+      </c>
+      <c r="E18" s="31">
+        <v>26</v>
+      </c>
+      <c r="F18" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="8">
-        <v>7</v>
-      </c>
-      <c r="C19" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D19" s="8">
-        <v>11</v>
-      </c>
-      <c r="E19" s="8">
-        <v>11</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>18</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="B19" s="31">
+        <v>8</v>
+      </c>
+      <c r="C19" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="31">
+        <v>26</v>
+      </c>
+      <c r="E19" s="31">
+        <v>26</v>
+      </c>
+      <c r="F19" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="8">
-        <v>7</v>
-      </c>
-      <c r="C20" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D20" s="8">
-        <v>11</v>
-      </c>
-      <c r="E20" s="8">
-        <v>11</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>19</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="B20" s="31">
+        <v>8</v>
+      </c>
+      <c r="C20" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="31">
+        <v>26</v>
+      </c>
+      <c r="E20" s="31">
+        <v>26</v>
+      </c>
+      <c r="F20" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="8">
-        <v>7</v>
-      </c>
-      <c r="C21" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D21" s="8">
-        <v>11</v>
-      </c>
-      <c r="E21" s="8">
-        <v>11</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>20</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="B21" s="31">
+        <v>8</v>
+      </c>
+      <c r="C21" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D21" s="31">
+        <v>26</v>
+      </c>
+      <c r="E21" s="31">
+        <v>26</v>
+      </c>
+      <c r="F21" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="8">
-        <v>7</v>
-      </c>
-      <c r="C22" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D22" s="8">
-        <v>25</v>
-      </c>
-      <c r="E22" s="8">
-        <v>25</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>21</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="B22" s="31">
+        <v>8</v>
+      </c>
+      <c r="C22" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D22" s="31">
+        <v>26</v>
+      </c>
+      <c r="E22" s="31">
+        <v>26</v>
+      </c>
+      <c r="F22" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="B23" s="8">
-        <v>7</v>
-      </c>
-      <c r="C23" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D23" s="8">
-        <v>25</v>
-      </c>
-      <c r="E23" s="8">
-        <v>25</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>22</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+      <c r="B23" s="31">
+        <v>8</v>
+      </c>
+      <c r="C23" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D23" s="31">
+        <v>26</v>
+      </c>
+      <c r="E23" s="31">
+        <v>26</v>
+      </c>
+      <c r="F23" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="B24" s="8">
-        <v>7</v>
-      </c>
-      <c r="C24" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D24" s="8">
-        <v>24</v>
-      </c>
-      <c r="E24" s="8">
-        <v>24</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>23</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+      <c r="B24" s="31">
+        <v>8</v>
+      </c>
+      <c r="C24" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="31">
+        <v>26</v>
+      </c>
+      <c r="E24" s="31">
+        <v>26</v>
+      </c>
+      <c r="F24" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="8">
-        <v>7</v>
-      </c>
-      <c r="C25" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D25" s="8">
-        <v>25</v>
-      </c>
-      <c r="E25" s="8">
-        <v>25</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
-        <v>24</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="B25" s="31">
+        <v>8</v>
+      </c>
+      <c r="C25" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D25" s="31">
+        <v>26</v>
+      </c>
+      <c r="E25" s="31">
+        <v>26</v>
+      </c>
+      <c r="F25" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="8">
-        <v>7</v>
-      </c>
-      <c r="C26" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D26" s="8">
-        <v>25</v>
-      </c>
-      <c r="E26" s="8">
-        <v>25</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
-        <v>25</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="25" t="s">
+      <c r="B26" s="31">
+        <v>8</v>
+      </c>
+      <c r="C26" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D26" s="31">
+        <v>26</v>
+      </c>
+      <c r="E26" s="31">
+        <v>26</v>
+      </c>
+      <c r="F26" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="8">
-        <v>7</v>
-      </c>
-      <c r="C27" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D27" s="8">
-        <v>25</v>
-      </c>
-      <c r="E27" s="8">
-        <v>25</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
-        <v>26</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="25" t="s">
+      <c r="B27" s="31">
+        <v>8</v>
+      </c>
+      <c r="C27" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D27" s="31">
+        <v>26</v>
+      </c>
+      <c r="E27" s="31">
+        <v>26</v>
+      </c>
+      <c r="F27" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="8">
-        <v>7</v>
-      </c>
-      <c r="C28" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D28" s="8">
-        <v>25</v>
-      </c>
-      <c r="E28" s="8">
-        <v>25</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
-        <v>27</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="25" t="s">
+      <c r="B28" s="31">
+        <v>8</v>
+      </c>
+      <c r="C28" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D28" s="31">
+        <v>26</v>
+      </c>
+      <c r="E28" s="31">
+        <v>26</v>
+      </c>
+      <c r="F28" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="8">
-        <v>7</v>
-      </c>
-      <c r="C29" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D29" s="8">
-        <v>25</v>
-      </c>
-      <c r="E29" s="8">
-        <v>25</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
-        <v>28</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+      <c r="B29" s="31">
+        <v>8</v>
+      </c>
+      <c r="C29" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D29" s="31">
+        <v>26</v>
+      </c>
+      <c r="E29" s="31">
+        <v>26</v>
+      </c>
+      <c r="F29" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="B30" s="8">
-        <v>7</v>
-      </c>
-      <c r="C30" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D30" s="8">
-        <v>24</v>
-      </c>
-      <c r="E30" s="8">
-        <v>24</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="9">
-        <v>29</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+      <c r="B30" s="31">
+        <v>8</v>
+      </c>
+      <c r="C30" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D30" s="31">
+        <v>26</v>
+      </c>
+      <c r="E30" s="31">
+        <v>26</v>
+      </c>
+      <c r="F30" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="8">
-        <v>7</v>
-      </c>
-      <c r="C31" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D31" s="8">
-        <v>24</v>
-      </c>
-      <c r="E31" s="8">
-        <v>24</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
-        <v>30</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+      <c r="B31" s="31">
+        <v>8</v>
+      </c>
+      <c r="C31" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D31" s="31">
+        <v>26</v>
+      </c>
+      <c r="E31" s="31">
+        <v>26</v>
+      </c>
+      <c r="F31" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B32" s="8">
-        <v>7</v>
-      </c>
-      <c r="C32" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D32" s="8">
-        <v>24</v>
-      </c>
-      <c r="E32" s="8">
-        <v>24</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9">
-        <v>31</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+      <c r="B32" s="31">
+        <v>8</v>
+      </c>
+      <c r="C32" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D32" s="31">
+        <v>26</v>
+      </c>
+      <c r="E32" s="31">
+        <v>26</v>
+      </c>
+      <c r="F32" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="B33" s="8">
-        <v>7</v>
-      </c>
-      <c r="C33" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D33" s="8">
-        <v>24</v>
-      </c>
-      <c r="E33" s="8">
-        <v>24</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>32</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+      <c r="B33" s="31">
+        <v>8</v>
+      </c>
+      <c r="C33" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D33" s="31">
+        <v>26</v>
+      </c>
+      <c r="E33" s="31">
+        <v>26</v>
+      </c>
+      <c r="F33" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="B34" s="8">
-        <v>7</v>
-      </c>
-      <c r="C34" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D34" s="8">
-        <v>25</v>
-      </c>
-      <c r="E34" s="8">
-        <v>25</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
-        <v>33</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+      <c r="B34" s="31">
+        <v>8</v>
+      </c>
+      <c r="C34" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D34" s="31">
+        <v>26</v>
+      </c>
+      <c r="E34" s="31">
+        <v>26</v>
+      </c>
+      <c r="F34" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="B35" s="8">
-        <v>7</v>
-      </c>
-      <c r="C35" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D35" s="8">
-        <v>11</v>
-      </c>
-      <c r="E35" s="8">
-        <v>11</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9">
-        <v>34</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+      <c r="B35" s="31">
+        <v>8</v>
+      </c>
+      <c r="C35" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D35" s="31">
+        <v>26</v>
+      </c>
+      <c r="E35" s="31">
+        <v>26</v>
+      </c>
+      <c r="F35" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="B36" s="8">
-        <v>7</v>
-      </c>
-      <c r="C36" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D36" s="8">
-        <v>25</v>
-      </c>
-      <c r="E36" s="8">
-        <v>25</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9">
-        <v>35</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="B36" s="31">
+        <v>8</v>
+      </c>
+      <c r="C36" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D36" s="31">
+        <v>26</v>
+      </c>
+      <c r="E36" s="31">
+        <v>26</v>
+      </c>
+      <c r="F36" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="B37" s="8">
-        <v>7</v>
-      </c>
-      <c r="C37" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D37" s="8">
-        <v>25</v>
-      </c>
-      <c r="E37" s="8">
-        <v>25</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9">
-        <v>36</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+      <c r="B37" s="31">
+        <v>8</v>
+      </c>
+      <c r="C37" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D37" s="31">
+        <v>26</v>
+      </c>
+      <c r="E37" s="31">
+        <v>26</v>
+      </c>
+      <c r="F37" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="B38" s="8">
-        <v>7</v>
-      </c>
-      <c r="C38" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D38" s="8">
-        <v>11</v>
-      </c>
-      <c r="E38" s="8">
-        <v>11</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
-        <v>37</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+      <c r="B38" s="31">
+        <v>8</v>
+      </c>
+      <c r="C38" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D38" s="31">
+        <v>26</v>
+      </c>
+      <c r="E38" s="31">
+        <v>26</v>
+      </c>
+      <c r="F38" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="B39" s="8">
-        <v>7</v>
-      </c>
-      <c r="C39" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D39" s="8">
-        <v>25</v>
-      </c>
-      <c r="E39" s="8">
-        <v>25</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
-        <v>38</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
+      <c r="B39" s="31">
+        <v>8</v>
+      </c>
+      <c r="C39" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D39" s="31">
+        <v>26</v>
+      </c>
+      <c r="E39" s="31">
+        <v>26</v>
+      </c>
+      <c r="F39" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="8">
-        <v>7</v>
-      </c>
-      <c r="C40" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D40" s="8">
-        <v>11</v>
-      </c>
-      <c r="E40" s="8">
-        <v>11</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9">
-        <v>39</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+      <c r="B40" s="31">
+        <v>8</v>
+      </c>
+      <c r="C40" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D40" s="31">
+        <v>26</v>
+      </c>
+      <c r="E40" s="31">
+        <v>26</v>
+      </c>
+      <c r="F40" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="B41" s="8">
-        <v>7</v>
-      </c>
-      <c r="C41" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D41" s="8">
-        <v>11</v>
-      </c>
-      <c r="E41" s="8">
-        <v>11</v>
-      </c>
-      <c r="F41" s="8">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9">
-        <v>40</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+      <c r="B41" s="31">
+        <v>8</v>
+      </c>
+      <c r="C41" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D41" s="31">
+        <v>26</v>
+      </c>
+      <c r="E41" s="31">
+        <v>26</v>
+      </c>
+      <c r="F41" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="B42" s="8">
-        <v>7</v>
-      </c>
-      <c r="C42" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D42" s="8">
-        <v>11</v>
-      </c>
-      <c r="E42" s="8">
-        <v>11</v>
-      </c>
-      <c r="F42" s="8">
-        <v>0</v>
-      </c>
-      <c r="G42" s="9">
-        <v>41</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
+      <c r="B42" s="31">
+        <v>8</v>
+      </c>
+      <c r="C42" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D42" s="31">
+        <v>26</v>
+      </c>
+      <c r="E42" s="31">
+        <v>26</v>
+      </c>
+      <c r="F42" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="B43" s="8">
-        <v>7</v>
-      </c>
-      <c r="C43" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D43" s="8">
-        <v>11</v>
-      </c>
-      <c r="E43" s="8">
-        <v>11</v>
-      </c>
-      <c r="F43" s="8">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9">
-        <v>42</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
+      <c r="B43" s="31">
+        <v>8</v>
+      </c>
+      <c r="C43" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D43" s="31">
+        <v>26</v>
+      </c>
+      <c r="E43" s="31">
+        <v>26</v>
+      </c>
+      <c r="F43" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="B44" s="8">
-        <v>7</v>
-      </c>
-      <c r="C44" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D44" s="8">
-        <v>25</v>
-      </c>
-      <c r="E44" s="8">
-        <v>25</v>
-      </c>
-      <c r="F44" s="8">
-        <v>0</v>
-      </c>
-      <c r="G44" s="9">
-        <v>43</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
+      <c r="B44" s="31">
+        <v>8</v>
+      </c>
+      <c r="C44" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D44" s="31">
+        <v>26</v>
+      </c>
+      <c r="E44" s="31">
+        <v>26</v>
+      </c>
+      <c r="F44" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="B45" s="8">
-        <v>7</v>
-      </c>
-      <c r="C45" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D45" s="8">
-        <v>25</v>
-      </c>
-      <c r="E45" s="8">
-        <v>25</v>
-      </c>
-      <c r="F45" s="8">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9">
-        <v>44</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
+      <c r="B45" s="31">
+        <v>8</v>
+      </c>
+      <c r="C45" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D45" s="31">
+        <v>26</v>
+      </c>
+      <c r="E45" s="31">
+        <v>26</v>
+      </c>
+      <c r="F45" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="B46" s="8">
-        <v>7</v>
-      </c>
-      <c r="C46" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D46" s="8">
-        <v>25</v>
-      </c>
-      <c r="E46" s="8">
-        <v>25</v>
-      </c>
-      <c r="F46" s="8">
-        <v>0</v>
-      </c>
-      <c r="G46" s="9">
-        <v>45</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
+      <c r="B46" s="31">
+        <v>8</v>
+      </c>
+      <c r="C46" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D46" s="31">
+        <v>26</v>
+      </c>
+      <c r="E46" s="31">
+        <v>26</v>
+      </c>
+      <c r="F46" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="8">
-        <v>7</v>
-      </c>
-      <c r="C47" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D47" s="8">
-        <v>11</v>
-      </c>
-      <c r="E47" s="8">
-        <v>11</v>
-      </c>
-      <c r="F47" s="8">
-        <v>0</v>
-      </c>
-      <c r="G47" s="9">
-        <v>46</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
+      <c r="B47" s="31">
+        <v>8</v>
+      </c>
+      <c r="C47" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D47" s="31">
+        <v>26</v>
+      </c>
+      <c r="E47" s="31">
+        <v>26</v>
+      </c>
+      <c r="F47" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="B48" s="8">
-        <v>7</v>
-      </c>
-      <c r="C48" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D48" s="8">
-        <v>11</v>
-      </c>
-      <c r="E48" s="8">
-        <v>11</v>
-      </c>
-      <c r="F48" s="8">
-        <v>0</v>
-      </c>
-      <c r="G48" s="9">
-        <v>47</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
+      <c r="B48" s="31">
+        <v>8</v>
+      </c>
+      <c r="C48" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D48" s="31">
+        <v>26</v>
+      </c>
+      <c r="E48" s="31">
+        <v>26</v>
+      </c>
+      <c r="F48" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="B49" s="8">
-        <v>7</v>
-      </c>
-      <c r="C49" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D49" s="8">
-        <v>25</v>
-      </c>
-      <c r="E49" s="8">
-        <v>25</v>
-      </c>
-      <c r="F49" s="8">
-        <v>0</v>
-      </c>
-      <c r="G49" s="9">
-        <v>48</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="L49" s="11"/>
-    </row>
-    <row r="50" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
+      <c r="B49" s="31">
+        <v>8</v>
+      </c>
+      <c r="C49" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D49" s="31">
+        <v>26</v>
+      </c>
+      <c r="E49" s="31">
+        <v>26</v>
+      </c>
+      <c r="F49" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="B50" s="8">
-        <v>7</v>
-      </c>
-      <c r="C50" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D50" s="8">
-        <v>24</v>
-      </c>
-      <c r="E50" s="8">
-        <v>24</v>
-      </c>
-      <c r="F50" s="8">
-        <v>0</v>
-      </c>
-      <c r="G50" s="9">
-        <v>49</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
+      <c r="B50" s="31">
+        <v>8</v>
+      </c>
+      <c r="C50" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D50" s="31">
+        <v>26</v>
+      </c>
+      <c r="E50" s="31">
+        <v>26</v>
+      </c>
+      <c r="F50" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="B51" s="8">
-        <v>7</v>
-      </c>
-      <c r="C51" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D51" s="8">
-        <v>11</v>
-      </c>
-      <c r="E51" s="8">
-        <v>11</v>
-      </c>
-      <c r="F51" s="8">
-        <v>0</v>
-      </c>
-      <c r="G51" s="9">
-        <v>50</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
+      <c r="B51" s="31">
+        <v>8</v>
+      </c>
+      <c r="C51" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D51" s="31">
+        <v>26</v>
+      </c>
+      <c r="E51" s="31">
+        <v>26</v>
+      </c>
+      <c r="F51" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="B52" s="8">
-        <v>7</v>
-      </c>
-      <c r="C52" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D52" s="8">
-        <v>11</v>
-      </c>
-      <c r="E52" s="8">
-        <v>11</v>
-      </c>
-      <c r="F52" s="8">
-        <v>0</v>
-      </c>
-      <c r="G52" s="9">
-        <v>51</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
+      <c r="B52" s="31">
+        <v>8</v>
+      </c>
+      <c r="C52" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D52" s="31">
+        <v>26</v>
+      </c>
+      <c r="E52" s="31">
+        <v>26</v>
+      </c>
+      <c r="F52" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="B53" s="8">
-        <v>7</v>
-      </c>
-      <c r="C53" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D53" s="8">
-        <v>11</v>
-      </c>
-      <c r="E53" s="8">
-        <v>11</v>
-      </c>
-      <c r="F53" s="8">
-        <v>0</v>
-      </c>
-      <c r="G53" s="9">
-        <v>52</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="7" t="s">
+      <c r="B53" s="31">
+        <v>8</v>
+      </c>
+      <c r="C53" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D53" s="31">
+        <v>26</v>
+      </c>
+      <c r="E53" s="31">
+        <v>26</v>
+      </c>
+      <c r="F53" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="B54" s="8">
-        <v>7</v>
-      </c>
-      <c r="C54" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D54" s="8">
-        <v>11</v>
-      </c>
-      <c r="E54" s="8">
-        <v>11</v>
-      </c>
-      <c r="F54" s="8">
-        <v>0</v>
-      </c>
-      <c r="G54" s="9">
-        <v>53</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="L54" s="14"/>
-    </row>
-    <row r="55" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="7" t="s">
+      <c r="B54" s="31">
+        <v>8</v>
+      </c>
+      <c r="C54" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D54" s="31">
+        <v>26</v>
+      </c>
+      <c r="E54" s="31">
+        <v>26</v>
+      </c>
+      <c r="F54" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="B55" s="8">
-        <v>7</v>
-      </c>
-      <c r="C55" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D55" s="8">
-        <v>11</v>
-      </c>
-      <c r="E55" s="8">
-        <v>11</v>
-      </c>
-      <c r="F55" s="8">
-        <v>0</v>
-      </c>
-      <c r="G55" s="9">
-        <v>54</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="L55" s="14"/>
-    </row>
-    <row r="56" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="7" t="s">
+      <c r="B55" s="31">
+        <v>8</v>
+      </c>
+      <c r="C55" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D55" s="31">
+        <v>26</v>
+      </c>
+      <c r="E55" s="31">
+        <v>26</v>
+      </c>
+      <c r="F55" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="B56" s="8">
-        <v>7</v>
-      </c>
-      <c r="C56" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D56" s="8">
-        <v>24</v>
-      </c>
-      <c r="E56" s="8">
-        <v>24</v>
-      </c>
-      <c r="F56" s="8">
-        <v>0</v>
-      </c>
-      <c r="G56" s="9">
-        <v>55</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="22" t="s">
+      <c r="B56" s="31">
+        <v>8</v>
+      </c>
+      <c r="C56" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D56" s="31">
+        <v>26</v>
+      </c>
+      <c r="E56" s="31">
+        <v>26</v>
+      </c>
+      <c r="F56" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="B57" s="8">
-        <v>7</v>
-      </c>
-      <c r="C57" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D57" s="8">
-        <v>25</v>
-      </c>
-      <c r="E57" s="8">
-        <v>25</v>
-      </c>
-      <c r="F57" s="8">
-        <v>0</v>
-      </c>
-      <c r="G57" s="9">
-        <v>56</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="7" t="s">
+      <c r="B57" s="31">
+        <v>8</v>
+      </c>
+      <c r="C57" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D57" s="31">
+        <v>26</v>
+      </c>
+      <c r="E57" s="31">
+        <v>26</v>
+      </c>
+      <c r="F57" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="B58" s="8">
-        <v>7</v>
-      </c>
-      <c r="C58" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D58" s="8">
-        <v>25</v>
-      </c>
-      <c r="E58" s="8">
-        <v>25</v>
-      </c>
-      <c r="F58" s="8">
-        <v>0</v>
-      </c>
-      <c r="G58" s="9">
-        <v>57</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="7" t="s">
+      <c r="B58" s="31">
+        <v>8</v>
+      </c>
+      <c r="C58" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D58" s="31">
+        <v>26</v>
+      </c>
+      <c r="E58" s="31">
+        <v>26</v>
+      </c>
+      <c r="F58" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="B59" s="8">
-        <v>7</v>
-      </c>
-      <c r="C59" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D59" s="8">
-        <v>11</v>
-      </c>
-      <c r="E59" s="8">
-        <v>11</v>
-      </c>
-      <c r="F59" s="8">
-        <v>0</v>
-      </c>
-      <c r="G59" s="9">
-        <v>58</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K59" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="7" t="s">
+      <c r="B59" s="31">
+        <v>8</v>
+      </c>
+      <c r="C59" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D59" s="31">
+        <v>26</v>
+      </c>
+      <c r="E59" s="31">
+        <v>26</v>
+      </c>
+      <c r="F59" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="B60" s="8">
-        <v>7</v>
-      </c>
-      <c r="C60" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D60" s="8">
-        <v>11</v>
-      </c>
-      <c r="E60" s="8">
-        <v>11</v>
-      </c>
-      <c r="F60" s="8">
-        <v>0</v>
-      </c>
-      <c r="G60" s="9">
-        <v>59</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="I60" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J60" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="7" t="s">
+      <c r="B60" s="31">
+        <v>8</v>
+      </c>
+      <c r="C60" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D60" s="31">
+        <v>26</v>
+      </c>
+      <c r="E60" s="31">
+        <v>26</v>
+      </c>
+      <c r="F60" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="B61" s="8">
-        <v>7</v>
-      </c>
-      <c r="C61" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D61" s="8">
-        <v>11</v>
-      </c>
-      <c r="E61" s="8">
-        <v>11</v>
-      </c>
-      <c r="F61" s="8">
-        <v>0</v>
-      </c>
-      <c r="G61" s="9">
-        <v>60</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J61" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="7" t="s">
+      <c r="B61" s="31">
+        <v>8</v>
+      </c>
+      <c r="C61" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D61" s="31">
+        <v>26</v>
+      </c>
+      <c r="E61" s="31">
+        <v>26</v>
+      </c>
+      <c r="F61" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="B62" s="8">
-        <v>7</v>
-      </c>
-      <c r="C62" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D62" s="8">
-        <v>11</v>
-      </c>
-      <c r="E62" s="8">
-        <v>11</v>
-      </c>
-      <c r="F62" s="8">
-        <v>0</v>
-      </c>
-      <c r="G62" s="9">
-        <v>61</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J62" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="7" t="s">
+      <c r="B62" s="31">
+        <v>8</v>
+      </c>
+      <c r="C62" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D62" s="31">
+        <v>26</v>
+      </c>
+      <c r="E62" s="31">
+        <v>26</v>
+      </c>
+      <c r="F62" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="8">
-        <v>7</v>
-      </c>
-      <c r="C63" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D63" s="8">
-        <v>24</v>
-      </c>
-      <c r="E63" s="8">
-        <v>24</v>
-      </c>
-      <c r="F63" s="8">
-        <v>0</v>
-      </c>
-      <c r="G63" s="9">
-        <v>62</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J63" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K63" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="7" t="s">
+      <c r="B63" s="31">
+        <v>8</v>
+      </c>
+      <c r="C63" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D63" s="31">
+        <v>26</v>
+      </c>
+      <c r="E63" s="31">
+        <v>26</v>
+      </c>
+      <c r="F63" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="B64" s="8">
-        <v>7</v>
-      </c>
-      <c r="C64" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D64" s="8">
-        <v>24</v>
-      </c>
-      <c r="E64" s="8">
-        <v>24</v>
-      </c>
-      <c r="F64" s="8">
-        <v>0</v>
-      </c>
-      <c r="G64" s="9">
-        <v>63</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K64" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="7" t="s">
+      <c r="B64" s="31">
+        <v>8</v>
+      </c>
+      <c r="C64" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D64" s="31">
+        <v>26</v>
+      </c>
+      <c r="E64" s="31">
+        <v>26</v>
+      </c>
+      <c r="F64" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="B65" s="8">
-        <v>7</v>
-      </c>
-      <c r="C65" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D65" s="8">
-        <v>24</v>
-      </c>
-      <c r="E65" s="8">
-        <v>24</v>
-      </c>
-      <c r="F65" s="8">
-        <v>0</v>
-      </c>
-      <c r="G65" s="9">
-        <v>64</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J65" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K65" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="7" t="s">
+      <c r="B65" s="31">
+        <v>8</v>
+      </c>
+      <c r="C65" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D65" s="31">
+        <v>26</v>
+      </c>
+      <c r="E65" s="31">
+        <v>26</v>
+      </c>
+      <c r="F65" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="B66" s="8">
-        <v>7</v>
-      </c>
-      <c r="C66" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D66" s="8">
-        <v>25</v>
-      </c>
-      <c r="E66" s="8">
-        <v>25</v>
-      </c>
-      <c r="F66" s="8">
-        <v>0</v>
-      </c>
-      <c r="G66" s="9">
-        <v>65</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J66" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="7" t="s">
+      <c r="B66" s="31">
+        <v>8</v>
+      </c>
+      <c r="C66" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D66" s="31">
+        <v>26</v>
+      </c>
+      <c r="E66" s="31">
+        <v>26</v>
+      </c>
+      <c r="F66" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B67" s="8">
-        <v>7</v>
-      </c>
-      <c r="C67" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D67" s="8">
-        <v>25</v>
-      </c>
-      <c r="E67" s="8">
-        <v>25</v>
-      </c>
-      <c r="F67" s="8">
-        <v>0</v>
-      </c>
-      <c r="G67" s="9">
-        <v>66</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J67" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K67" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="7" t="s">
+      <c r="B67" s="31">
+        <v>8</v>
+      </c>
+      <c r="C67" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D67" s="31">
+        <v>26</v>
+      </c>
+      <c r="E67" s="31">
+        <v>26</v>
+      </c>
+      <c r="F67" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B68" s="8">
-        <v>7</v>
-      </c>
-      <c r="C68" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D68" s="8">
-        <v>25</v>
-      </c>
-      <c r="E68" s="8">
-        <v>25</v>
-      </c>
-      <c r="F68" s="8">
-        <v>0</v>
-      </c>
-      <c r="G68" s="9">
-        <v>67</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J68" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="K68" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="7" t="s">
+      <c r="B68" s="31">
+        <v>8</v>
+      </c>
+      <c r="C68" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D68" s="31">
+        <v>26</v>
+      </c>
+      <c r="E68" s="31">
+        <v>26</v>
+      </c>
+      <c r="F68" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B69" s="8">
-        <v>7</v>
-      </c>
-      <c r="C69" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D69" s="8">
-        <v>11</v>
-      </c>
-      <c r="E69" s="8">
-        <v>11</v>
-      </c>
-      <c r="F69" s="8">
-        <v>0</v>
-      </c>
-      <c r="G69" s="9">
-        <v>68</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K69" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-    </row>
-    <row r="77" spans="1:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="A77" s="37"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-    </row>
-    <row r="78" spans="1:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="A78" s="38"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-    </row>
-    <row r="79" spans="1:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="A79" s="38"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-    </row>
-    <row r="80" spans="1:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="A80" s="38"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
+      <c r="B69" s="31">
+        <v>8</v>
+      </c>
+      <c r="C69" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D69" s="31">
+        <v>26</v>
+      </c>
+      <c r="E69" s="31">
+        <v>26</v>
+      </c>
+      <c r="F69" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A76" s="28"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+    </row>
+    <row r="77" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A77" s="29"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+    </row>
+    <row r="78" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A78" s="29"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+    </row>
+    <row r="79" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A79" s="29"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+    </row>
+    <row r="80" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A80" s="29"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
     </row>
     <row r="81" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A81" s="38"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
+      <c r="A81" s="29"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
     </row>
     <row r="82" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A82" s="37"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
-    <sortCondition ref="K2:K69"/>
-    <sortCondition ref="J2:J69"/>
-  </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="A76:F76"/>
-  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
@@ -7055,490 +5991,63 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0CADD8-1F8D-4423-BE8A-07ABED74AB3B}">
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.81640625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="9.7265625" customWidth="1"/>
-    <col min="4" max="5" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="21.26953125" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" customWidth="1"/>
-    <col min="9" max="9" width="24.453125" customWidth="1"/>
-    <col min="10" max="10" width="27.7265625" customWidth="1"/>
-    <col min="12" max="12" width="22.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-    </row>
-    <row r="2" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="28">
-        <v>7</v>
-      </c>
-      <c r="C2" s="28">
-        <v>2022</v>
-      </c>
-      <c r="D2" s="28">
-        <v>25</v>
-      </c>
-      <c r="E2" s="28">
-        <v>25</v>
-      </c>
-      <c r="F2" s="28">
-        <v>0</v>
-      </c>
-      <c r="G2" s="29">
-        <v>1</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="28">
-        <v>7</v>
-      </c>
-      <c r="C3" s="28">
-        <v>2022</v>
-      </c>
-      <c r="D3" s="28">
-        <v>25</v>
-      </c>
-      <c r="E3" s="28">
-        <v>25</v>
-      </c>
-      <c r="F3" s="28">
-        <v>0</v>
-      </c>
-      <c r="G3" s="29">
-        <v>2</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="28">
-        <v>7</v>
-      </c>
-      <c r="C4" s="28">
-        <v>2022</v>
-      </c>
-      <c r="D4" s="28">
-        <v>25</v>
-      </c>
-      <c r="E4" s="28">
-        <v>25</v>
-      </c>
-      <c r="F4" s="28">
-        <v>0</v>
-      </c>
-      <c r="G4" s="29">
-        <v>3</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="28">
-        <v>7</v>
-      </c>
-      <c r="C5" s="28">
-        <v>2022</v>
-      </c>
-      <c r="D5" s="28">
-        <v>25</v>
-      </c>
-      <c r="E5" s="28">
-        <v>25</v>
-      </c>
-      <c r="F5" s="28">
-        <v>0</v>
-      </c>
-      <c r="G5" s="29">
-        <v>4</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="28">
-        <v>7</v>
-      </c>
-      <c r="C6" s="28">
-        <v>2022</v>
-      </c>
-      <c r="D6" s="28">
-        <v>25</v>
-      </c>
-      <c r="E6" s="28">
-        <v>25</v>
-      </c>
-      <c r="F6" s="28">
-        <v>0</v>
-      </c>
-      <c r="G6" s="29">
-        <v>5</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="28">
-        <v>7</v>
-      </c>
-      <c r="C7" s="28">
-        <v>2022</v>
-      </c>
-      <c r="D7" s="28">
-        <v>25</v>
-      </c>
-      <c r="E7" s="28">
-        <v>25</v>
-      </c>
-      <c r="F7" s="28">
-        <v>0</v>
-      </c>
-      <c r="G7" s="29">
-        <v>6</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="28">
-        <v>7</v>
-      </c>
-      <c r="C8" s="28">
-        <v>2022</v>
-      </c>
-      <c r="D8" s="28">
-        <v>25</v>
-      </c>
-      <c r="E8" s="28">
-        <v>25</v>
-      </c>
-      <c r="F8" s="28">
-        <v>0</v>
-      </c>
-      <c r="G8" s="29">
-        <v>7</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="28">
-        <v>7</v>
-      </c>
-      <c r="C9" s="28">
-        <v>2022</v>
-      </c>
-      <c r="D9" s="28">
-        <v>25</v>
-      </c>
-      <c r="E9" s="28">
-        <v>25</v>
-      </c>
-      <c r="F9" s="28">
-        <v>0</v>
-      </c>
-      <c r="G9" s="29">
-        <v>8</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="28">
-        <v>7</v>
-      </c>
-      <c r="C10" s="28">
-        <v>2022</v>
-      </c>
-      <c r="D10" s="28">
-        <v>25</v>
-      </c>
-      <c r="E10" s="28">
-        <v>25</v>
-      </c>
-      <c r="F10" s="28">
-        <v>0</v>
-      </c>
-      <c r="G10" s="29">
-        <v>9</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-    </row>
-    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A18" s="37"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-    </row>
-    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A19" s="38"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-    </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A20" s="38"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-    </row>
-    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A21" s="38"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-    </row>
-    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A22" s="38"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-    </row>
-    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A23" s="37"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="H1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4802CEB9-E954-45DE-9902-73EBC6E635B2}">
   <dimension ref="A4:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="B5" s="37"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="B6" s="38"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="B7" s="38"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="B8" s="38"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="B9" s="38"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABSEN EKINERJA\08. ABSEN Agustus 20 22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABSEN EKINERJA\09. ABSEN September 22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E751C93E-A1AB-49AD-8C3D-F5D375AB9C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD304297-195D-4166-A80D-5919D1829035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nov (4)" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="agustus" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="september" sheetId="1" r:id="rId2"/>
+    <sheet name="september (2)" sheetId="7" r:id="rId3"/>
+    <sheet name="Juli (2)" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="245">
   <si>
     <t>NIP</t>
   </si>
@@ -760,6 +762,12 @@
   </si>
   <si>
     <t>YUDIANNOR</t>
+  </si>
+  <si>
+    <t>SDN GELUMBANG JUAI</t>
+  </si>
+  <si>
+    <t>DAFTAR YANG BELUM MENYAMPAIKAN ABSENSI TPP BULAN JULI 2022</t>
   </si>
 </sst>
 </file>
@@ -844,7 +852,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,7 +879,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1013,27 +1039,101 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4535,9 +4635,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4545,9 +4647,10 @@
     <col min="2" max="3" width="9.7265625" customWidth="1"/>
     <col min="4" max="5" width="12.26953125" customWidth="1"/>
     <col min="6" max="6" width="21.26953125" customWidth="1"/>
+    <col min="7" max="7" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4567,1421 +4670,1426 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="31">
-        <v>8</v>
-      </c>
-      <c r="C2" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D2" s="31">
-        <v>26</v>
-      </c>
-      <c r="E2" s="31">
-        <v>26</v>
-      </c>
-      <c r="F2" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="B2" s="60">
+        <v>9</v>
+      </c>
+      <c r="C2" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="60">
+        <v>26</v>
+      </c>
+      <c r="E2" s="60">
+        <v>26</v>
+      </c>
+      <c r="F2" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="31">
-        <v>8</v>
-      </c>
-      <c r="C3" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D3" s="31">
-        <v>26</v>
-      </c>
-      <c r="E3" s="31">
-        <v>26</v>
-      </c>
-      <c r="F3" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+      <c r="B3" s="60">
+        <v>9</v>
+      </c>
+      <c r="C3" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D3" s="60">
+        <v>26</v>
+      </c>
+      <c r="E3" s="60">
+        <v>26</v>
+      </c>
+      <c r="F3" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="31">
-        <v>8</v>
-      </c>
-      <c r="C4" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D4" s="31">
-        <v>26</v>
-      </c>
-      <c r="E4" s="31">
-        <v>26</v>
-      </c>
-      <c r="F4" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33" t="s">
+      <c r="B4" s="60">
+        <v>9</v>
+      </c>
+      <c r="C4" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="60">
+        <v>26</v>
+      </c>
+      <c r="E4" s="60">
+        <v>26</v>
+      </c>
+      <c r="F4" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="31">
-        <v>8</v>
-      </c>
-      <c r="C5" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D5" s="31">
-        <v>26</v>
-      </c>
-      <c r="E5" s="31">
-        <v>26</v>
-      </c>
-      <c r="F5" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+      <c r="B5" s="60">
+        <v>9</v>
+      </c>
+      <c r="C5" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="60">
+        <v>26</v>
+      </c>
+      <c r="E5" s="60">
+        <v>26</v>
+      </c>
+      <c r="F5" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="31">
-        <v>8</v>
-      </c>
-      <c r="C6" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D6" s="31">
-        <v>26</v>
-      </c>
-      <c r="E6" s="31">
-        <v>26</v>
-      </c>
-      <c r="F6" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
+      <c r="B6" s="60">
+        <v>9</v>
+      </c>
+      <c r="C6" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D6" s="60">
+        <v>26</v>
+      </c>
+      <c r="E6" s="60">
+        <v>26</v>
+      </c>
+      <c r="F6" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="31">
-        <v>8</v>
-      </c>
-      <c r="C7" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D7" s="31">
-        <v>26</v>
-      </c>
-      <c r="E7" s="31">
-        <v>26</v>
-      </c>
-      <c r="F7" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
+      <c r="B7" s="60">
+        <v>9</v>
+      </c>
+      <c r="C7" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="60">
+        <v>26</v>
+      </c>
+      <c r="E7" s="60">
+        <v>26</v>
+      </c>
+      <c r="F7" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="31">
-        <v>8</v>
-      </c>
-      <c r="C8" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D8" s="31">
-        <v>26</v>
-      </c>
-      <c r="E8" s="31">
-        <v>26</v>
-      </c>
-      <c r="F8" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
+      <c r="B8" s="60">
+        <v>9</v>
+      </c>
+      <c r="C8" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="60">
+        <v>26</v>
+      </c>
+      <c r="E8" s="60">
+        <v>26</v>
+      </c>
+      <c r="F8" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="31">
-        <v>8</v>
-      </c>
-      <c r="C9" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D9" s="31">
-        <v>26</v>
-      </c>
-      <c r="E9" s="31">
-        <v>26</v>
-      </c>
-      <c r="F9" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34" t="s">
+      <c r="B9" s="60">
+        <v>9</v>
+      </c>
+      <c r="C9" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="60">
+        <v>26</v>
+      </c>
+      <c r="E9" s="60">
+        <v>26</v>
+      </c>
+      <c r="F9" s="60">
+        <v>0</v>
+      </c>
+      <c r="G9" s="61"/>
+    </row>
+    <row r="10" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="31">
-        <v>8</v>
-      </c>
-      <c r="C10" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D10" s="31">
-        <v>26</v>
-      </c>
-      <c r="E10" s="31">
-        <v>26</v>
-      </c>
-      <c r="F10" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30" t="s">
+      <c r="B10" s="60">
+        <v>9</v>
+      </c>
+      <c r="C10" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="60">
+        <v>26</v>
+      </c>
+      <c r="E10" s="60">
+        <v>26</v>
+      </c>
+      <c r="F10" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="31">
-        <v>8</v>
-      </c>
-      <c r="C11" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D11" s="31">
-        <v>26</v>
-      </c>
-      <c r="E11" s="31">
-        <v>26</v>
-      </c>
-      <c r="F11" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
+      <c r="B11" s="60">
+        <v>9</v>
+      </c>
+      <c r="C11" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="60">
+        <v>26</v>
+      </c>
+      <c r="E11" s="60">
+        <v>26</v>
+      </c>
+      <c r="F11" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="31">
-        <v>8</v>
-      </c>
-      <c r="C12" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D12" s="31">
-        <v>26</v>
-      </c>
-      <c r="E12" s="31">
-        <v>26</v>
-      </c>
-      <c r="F12" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
+      <c r="B12" s="60">
+        <v>9</v>
+      </c>
+      <c r="C12" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D12" s="60">
+        <v>26</v>
+      </c>
+      <c r="E12" s="60">
+        <v>26</v>
+      </c>
+      <c r="F12" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="31">
-        <v>8</v>
-      </c>
-      <c r="C13" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D13" s="31">
-        <v>26</v>
-      </c>
-      <c r="E13" s="31">
-        <v>26</v>
-      </c>
-      <c r="F13" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30" t="s">
+      <c r="B13" s="60">
+        <v>9</v>
+      </c>
+      <c r="C13" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="60">
+        <v>26</v>
+      </c>
+      <c r="E13" s="60">
+        <v>26</v>
+      </c>
+      <c r="F13" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="31">
-        <v>8</v>
-      </c>
-      <c r="C14" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D14" s="31">
-        <v>26</v>
-      </c>
-      <c r="E14" s="31">
-        <v>26</v>
-      </c>
-      <c r="F14" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
+      <c r="B14" s="60">
+        <v>9</v>
+      </c>
+      <c r="C14" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="60">
+        <v>26</v>
+      </c>
+      <c r="E14" s="60">
+        <v>26</v>
+      </c>
+      <c r="F14" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="31">
-        <v>8</v>
-      </c>
-      <c r="C15" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D15" s="31">
-        <v>26</v>
-      </c>
-      <c r="E15" s="31">
-        <v>26</v>
-      </c>
-      <c r="F15" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
+      <c r="B15" s="60">
+        <v>9</v>
+      </c>
+      <c r="C15" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="60">
+        <v>26</v>
+      </c>
+      <c r="E15" s="60">
+        <v>26</v>
+      </c>
+      <c r="F15" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="B16" s="31">
-        <v>8</v>
-      </c>
-      <c r="C16" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D16" s="31">
-        <v>26</v>
-      </c>
-      <c r="E16" s="31">
-        <v>26</v>
-      </c>
-      <c r="F16" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30" t="s">
+      <c r="B16" s="60">
+        <v>9</v>
+      </c>
+      <c r="C16" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="60">
+        <v>26</v>
+      </c>
+      <c r="E16" s="60">
+        <v>26</v>
+      </c>
+      <c r="F16" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="B17" s="31">
-        <v>8</v>
-      </c>
-      <c r="C17" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D17" s="31">
-        <v>26</v>
-      </c>
-      <c r="E17" s="31">
-        <v>26</v>
-      </c>
-      <c r="F17" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
+      <c r="B17" s="60">
+        <v>9</v>
+      </c>
+      <c r="C17" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="60">
+        <v>26</v>
+      </c>
+      <c r="E17" s="60">
+        <v>26</v>
+      </c>
+      <c r="F17" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="31">
-        <v>8</v>
-      </c>
-      <c r="C18" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D18" s="31">
-        <v>26</v>
-      </c>
-      <c r="E18" s="31">
-        <v>26</v>
-      </c>
-      <c r="F18" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="30" t="s">
+      <c r="B18" s="60">
+        <v>9</v>
+      </c>
+      <c r="C18" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="60">
+        <v>26</v>
+      </c>
+      <c r="E18" s="60">
+        <v>26</v>
+      </c>
+      <c r="F18" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="31">
-        <v>8</v>
-      </c>
-      <c r="C19" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D19" s="31">
-        <v>26</v>
-      </c>
-      <c r="E19" s="31">
-        <v>26</v>
-      </c>
-      <c r="F19" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30" t="s">
+      <c r="B19" s="60">
+        <v>9</v>
+      </c>
+      <c r="C19" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="60">
+        <v>26</v>
+      </c>
+      <c r="E19" s="60">
+        <v>26</v>
+      </c>
+      <c r="F19" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="31">
-        <v>8</v>
-      </c>
-      <c r="C20" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D20" s="31">
-        <v>26</v>
-      </c>
-      <c r="E20" s="31">
-        <v>26</v>
-      </c>
-      <c r="F20" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="30" t="s">
+      <c r="B20" s="60">
+        <v>9</v>
+      </c>
+      <c r="C20" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="60">
+        <v>26</v>
+      </c>
+      <c r="E20" s="60">
+        <v>26</v>
+      </c>
+      <c r="F20" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="31">
-        <v>8</v>
-      </c>
-      <c r="C21" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D21" s="31">
-        <v>26</v>
-      </c>
-      <c r="E21" s="31">
-        <v>26</v>
-      </c>
-      <c r="F21" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="30" t="s">
+      <c r="B21" s="60">
+        <v>9</v>
+      </c>
+      <c r="C21" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D21" s="60">
+        <v>26</v>
+      </c>
+      <c r="E21" s="60">
+        <v>26</v>
+      </c>
+      <c r="F21" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="31">
-        <v>8</v>
-      </c>
-      <c r="C22" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D22" s="31">
-        <v>26</v>
-      </c>
-      <c r="E22" s="31">
-        <v>26</v>
-      </c>
-      <c r="F22" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="30" t="s">
+      <c r="B22" s="60">
+        <v>9</v>
+      </c>
+      <c r="C22" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D22" s="60">
+        <v>26</v>
+      </c>
+      <c r="E22" s="60">
+        <v>26</v>
+      </c>
+      <c r="F22" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="B23" s="31">
-        <v>8</v>
-      </c>
-      <c r="C23" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D23" s="31">
-        <v>26</v>
-      </c>
-      <c r="E23" s="31">
-        <v>26</v>
-      </c>
-      <c r="F23" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="30" t="s">
+      <c r="B23" s="60">
+        <v>9</v>
+      </c>
+      <c r="C23" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D23" s="60">
+        <v>26</v>
+      </c>
+      <c r="E23" s="60">
+        <v>26</v>
+      </c>
+      <c r="F23" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="B24" s="31">
-        <v>8</v>
-      </c>
-      <c r="C24" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D24" s="31">
-        <v>26</v>
-      </c>
-      <c r="E24" s="31">
-        <v>26</v>
-      </c>
-      <c r="F24" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30" t="s">
+      <c r="B24" s="60">
+        <v>9</v>
+      </c>
+      <c r="C24" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="60">
+        <v>26</v>
+      </c>
+      <c r="E24" s="60">
+        <v>26</v>
+      </c>
+      <c r="F24" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="31">
-        <v>8</v>
-      </c>
-      <c r="C25" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D25" s="31">
-        <v>26</v>
-      </c>
-      <c r="E25" s="31">
-        <v>26</v>
-      </c>
-      <c r="F25" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="30" t="s">
+      <c r="B25" s="60">
+        <v>9</v>
+      </c>
+      <c r="C25" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D25" s="60">
+        <v>26</v>
+      </c>
+      <c r="E25" s="60">
+        <v>26</v>
+      </c>
+      <c r="F25" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="31">
-        <v>8</v>
-      </c>
-      <c r="C26" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D26" s="31">
-        <v>26</v>
-      </c>
-      <c r="E26" s="31">
-        <v>26</v>
-      </c>
-      <c r="F26" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="35" t="s">
+      <c r="B26" s="60">
+        <v>9</v>
+      </c>
+      <c r="C26" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D26" s="60">
+        <v>26</v>
+      </c>
+      <c r="E26" s="60">
+        <v>26</v>
+      </c>
+      <c r="F26" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="31">
-        <v>8</v>
-      </c>
-      <c r="C27" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D27" s="31">
-        <v>26</v>
-      </c>
-      <c r="E27" s="31">
-        <v>26</v>
-      </c>
-      <c r="F27" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35" t="s">
+      <c r="B27" s="60">
+        <v>9</v>
+      </c>
+      <c r="C27" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D27" s="60">
+        <v>26</v>
+      </c>
+      <c r="E27" s="60">
+        <v>26</v>
+      </c>
+      <c r="F27" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="31">
-        <v>8</v>
-      </c>
-      <c r="C28" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D28" s="31">
-        <v>26</v>
-      </c>
-      <c r="E28" s="31">
-        <v>26</v>
-      </c>
-      <c r="F28" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="35" t="s">
+      <c r="B28" s="60">
+        <v>9</v>
+      </c>
+      <c r="C28" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D28" s="60">
+        <v>26</v>
+      </c>
+      <c r="E28" s="60">
+        <v>26</v>
+      </c>
+      <c r="F28" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="31">
-        <v>8</v>
-      </c>
-      <c r="C29" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D29" s="31">
-        <v>26</v>
-      </c>
-      <c r="E29" s="31">
-        <v>26</v>
-      </c>
-      <c r="F29" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="30" t="s">
+      <c r="B29" s="60">
+        <v>9</v>
+      </c>
+      <c r="C29" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D29" s="60">
+        <v>26</v>
+      </c>
+      <c r="E29" s="60">
+        <v>26</v>
+      </c>
+      <c r="F29" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="B30" s="31">
-        <v>8</v>
-      </c>
-      <c r="C30" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D30" s="31">
-        <v>26</v>
-      </c>
-      <c r="E30" s="31">
-        <v>26</v>
-      </c>
-      <c r="F30" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="30" t="s">
+      <c r="B30" s="60">
+        <v>9</v>
+      </c>
+      <c r="C30" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D30" s="60">
+        <v>26</v>
+      </c>
+      <c r="E30" s="60">
+        <v>26</v>
+      </c>
+      <c r="F30" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="31">
-        <v>8</v>
-      </c>
-      <c r="C31" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D31" s="31">
-        <v>26</v>
-      </c>
-      <c r="E31" s="31">
-        <v>26</v>
-      </c>
-      <c r="F31" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="30" t="s">
+      <c r="B31" s="60">
+        <v>9</v>
+      </c>
+      <c r="C31" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D31" s="60">
+        <v>26</v>
+      </c>
+      <c r="E31" s="60">
+        <v>26</v>
+      </c>
+      <c r="F31" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="B32" s="31">
-        <v>8</v>
-      </c>
-      <c r="C32" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D32" s="31">
-        <v>26</v>
-      </c>
-      <c r="E32" s="31">
-        <v>26</v>
-      </c>
-      <c r="F32" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="30" t="s">
+      <c r="B32" s="60">
+        <v>9</v>
+      </c>
+      <c r="C32" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D32" s="60">
+        <v>26</v>
+      </c>
+      <c r="E32" s="60">
+        <v>26</v>
+      </c>
+      <c r="F32" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="B33" s="31">
-        <v>8</v>
-      </c>
-      <c r="C33" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D33" s="31">
-        <v>26</v>
-      </c>
-      <c r="E33" s="31">
-        <v>26</v>
-      </c>
-      <c r="F33" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="30" t="s">
+      <c r="B33" s="60">
+        <v>9</v>
+      </c>
+      <c r="C33" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D33" s="60">
+        <v>26</v>
+      </c>
+      <c r="E33" s="60">
+        <v>26</v>
+      </c>
+      <c r="F33" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="B34" s="31">
-        <v>8</v>
-      </c>
-      <c r="C34" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D34" s="31">
-        <v>26</v>
-      </c>
-      <c r="E34" s="31">
-        <v>26</v>
-      </c>
-      <c r="F34" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="30" t="s">
+      <c r="B34" s="60">
+        <v>9</v>
+      </c>
+      <c r="C34" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D34" s="60">
+        <v>26</v>
+      </c>
+      <c r="E34" s="60">
+        <v>26</v>
+      </c>
+      <c r="F34" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="B35" s="31">
-        <v>8</v>
-      </c>
-      <c r="C35" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D35" s="31">
-        <v>26</v>
-      </c>
-      <c r="E35" s="31">
-        <v>26</v>
-      </c>
-      <c r="F35" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="30" t="s">
+      <c r="B35" s="60">
+        <v>9</v>
+      </c>
+      <c r="C35" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D35" s="60">
+        <v>26</v>
+      </c>
+      <c r="E35" s="60">
+        <v>26</v>
+      </c>
+      <c r="F35" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="B36" s="31">
-        <v>8</v>
-      </c>
-      <c r="C36" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D36" s="31">
-        <v>26</v>
-      </c>
-      <c r="E36" s="31">
-        <v>26</v>
-      </c>
-      <c r="F36" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="30" t="s">
+      <c r="B36" s="60">
+        <v>9</v>
+      </c>
+      <c r="C36" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D36" s="60">
+        <v>26</v>
+      </c>
+      <c r="E36" s="60">
+        <v>26</v>
+      </c>
+      <c r="F36" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="B37" s="31">
-        <v>8</v>
-      </c>
-      <c r="C37" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D37" s="31">
-        <v>26</v>
-      </c>
-      <c r="E37" s="31">
-        <v>26</v>
-      </c>
-      <c r="F37" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="30" t="s">
+      <c r="B37" s="60">
+        <v>9</v>
+      </c>
+      <c r="C37" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D37" s="60">
+        <v>26</v>
+      </c>
+      <c r="E37" s="60">
+        <v>26</v>
+      </c>
+      <c r="F37" s="60">
+        <v>0</v>
+      </c>
+      <c r="G37" s="61"/>
+    </row>
+    <row r="38" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="B38" s="31">
-        <v>8</v>
-      </c>
-      <c r="C38" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D38" s="31">
-        <v>26</v>
-      </c>
-      <c r="E38" s="31">
-        <v>26</v>
-      </c>
-      <c r="F38" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="30" t="s">
+      <c r="B38" s="60">
+        <v>9</v>
+      </c>
+      <c r="C38" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D38" s="60">
+        <v>26</v>
+      </c>
+      <c r="E38" s="60">
+        <v>26</v>
+      </c>
+      <c r="F38" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="B39" s="31">
-        <v>8</v>
-      </c>
-      <c r="C39" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D39" s="31">
-        <v>26</v>
-      </c>
-      <c r="E39" s="31">
-        <v>26</v>
-      </c>
-      <c r="F39" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="30" t="s">
+      <c r="B39" s="60">
+        <v>9</v>
+      </c>
+      <c r="C39" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D39" s="60">
+        <v>26</v>
+      </c>
+      <c r="E39" s="60">
+        <v>26</v>
+      </c>
+      <c r="F39" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="31">
-        <v>8</v>
-      </c>
-      <c r="C40" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D40" s="31">
-        <v>26</v>
-      </c>
-      <c r="E40" s="31">
-        <v>26</v>
-      </c>
-      <c r="F40" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="30" t="s">
+      <c r="B40" s="60">
+        <v>9</v>
+      </c>
+      <c r="C40" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D40" s="60">
+        <v>26</v>
+      </c>
+      <c r="E40" s="60">
+        <v>26</v>
+      </c>
+      <c r="F40" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="B41" s="31">
-        <v>8</v>
-      </c>
-      <c r="C41" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D41" s="31">
-        <v>26</v>
-      </c>
-      <c r="E41" s="31">
-        <v>26</v>
-      </c>
-      <c r="F41" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="30" t="s">
+      <c r="B41" s="60">
+        <v>9</v>
+      </c>
+      <c r="C41" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D41" s="60">
+        <v>26</v>
+      </c>
+      <c r="E41" s="60">
+        <v>26</v>
+      </c>
+      <c r="F41" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="B42" s="31">
-        <v>8</v>
-      </c>
-      <c r="C42" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D42" s="31">
-        <v>26</v>
-      </c>
-      <c r="E42" s="31">
-        <v>26</v>
-      </c>
-      <c r="F42" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="30" t="s">
+      <c r="B42" s="60">
+        <v>9</v>
+      </c>
+      <c r="C42" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D42" s="60">
+        <v>26</v>
+      </c>
+      <c r="E42" s="60">
+        <v>26</v>
+      </c>
+      <c r="F42" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="B43" s="31">
-        <v>8</v>
-      </c>
-      <c r="C43" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D43" s="31">
-        <v>26</v>
-      </c>
-      <c r="E43" s="31">
-        <v>26</v>
-      </c>
-      <c r="F43" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="30" t="s">
+      <c r="B43" s="60">
+        <v>9</v>
+      </c>
+      <c r="C43" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D43" s="60">
+        <v>26</v>
+      </c>
+      <c r="E43" s="60">
+        <v>26</v>
+      </c>
+      <c r="F43" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="B44" s="31">
-        <v>8</v>
-      </c>
-      <c r="C44" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D44" s="31">
-        <v>26</v>
-      </c>
-      <c r="E44" s="31">
-        <v>26</v>
-      </c>
-      <c r="F44" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="30" t="s">
+      <c r="B44" s="60">
+        <v>9</v>
+      </c>
+      <c r="C44" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D44" s="60">
+        <v>26</v>
+      </c>
+      <c r="E44" s="60">
+        <v>26</v>
+      </c>
+      <c r="F44" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="B45" s="31">
-        <v>8</v>
-      </c>
-      <c r="C45" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D45" s="31">
-        <v>26</v>
-      </c>
-      <c r="E45" s="31">
-        <v>26</v>
-      </c>
-      <c r="F45" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="30" t="s">
+      <c r="B45" s="60">
+        <v>9</v>
+      </c>
+      <c r="C45" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D45" s="60">
+        <v>26</v>
+      </c>
+      <c r="E45" s="60">
+        <v>26</v>
+      </c>
+      <c r="F45" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="B46" s="31">
-        <v>8</v>
-      </c>
-      <c r="C46" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D46" s="31">
-        <v>26</v>
-      </c>
-      <c r="E46" s="31">
-        <v>26</v>
-      </c>
-      <c r="F46" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="30" t="s">
+      <c r="B46" s="60">
+        <v>9</v>
+      </c>
+      <c r="C46" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D46" s="60">
+        <v>26</v>
+      </c>
+      <c r="E46" s="60">
+        <v>26</v>
+      </c>
+      <c r="F46" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="31">
-        <v>8</v>
-      </c>
-      <c r="C47" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D47" s="31">
-        <v>26</v>
-      </c>
-      <c r="E47" s="31">
-        <v>26</v>
-      </c>
-      <c r="F47" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="30" t="s">
+      <c r="B47" s="60">
+        <v>9</v>
+      </c>
+      <c r="C47" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D47" s="60">
+        <v>26</v>
+      </c>
+      <c r="E47" s="60">
+        <v>26</v>
+      </c>
+      <c r="F47" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="B48" s="31">
-        <v>8</v>
-      </c>
-      <c r="C48" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D48" s="31">
-        <v>26</v>
-      </c>
-      <c r="E48" s="31">
-        <v>26</v>
-      </c>
-      <c r="F48" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="30" t="s">
+      <c r="B48" s="60">
+        <v>9</v>
+      </c>
+      <c r="C48" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D48" s="60">
+        <v>26</v>
+      </c>
+      <c r="E48" s="60">
+        <v>26</v>
+      </c>
+      <c r="F48" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="B49" s="31">
-        <v>8</v>
-      </c>
-      <c r="C49" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D49" s="31">
-        <v>26</v>
-      </c>
-      <c r="E49" s="31">
-        <v>26</v>
-      </c>
-      <c r="F49" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="30" t="s">
+      <c r="B49" s="60">
+        <v>9</v>
+      </c>
+      <c r="C49" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D49" s="60">
+        <v>26</v>
+      </c>
+      <c r="E49" s="60">
+        <v>26</v>
+      </c>
+      <c r="F49" s="60">
+        <v>0</v>
+      </c>
+      <c r="G49" s="61"/>
+    </row>
+    <row r="50" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="B50" s="31">
-        <v>8</v>
-      </c>
-      <c r="C50" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D50" s="31">
-        <v>26</v>
-      </c>
-      <c r="E50" s="31">
-        <v>26</v>
-      </c>
-      <c r="F50" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="30" t="s">
+      <c r="B50" s="60">
+        <v>9</v>
+      </c>
+      <c r="C50" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D50" s="60">
+        <v>26</v>
+      </c>
+      <c r="E50" s="60">
+        <v>26</v>
+      </c>
+      <c r="F50" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="B51" s="31">
-        <v>8</v>
-      </c>
-      <c r="C51" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D51" s="31">
-        <v>26</v>
-      </c>
-      <c r="E51" s="31">
-        <v>26</v>
-      </c>
-      <c r="F51" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="30" t="s">
+      <c r="B51" s="60">
+        <v>9</v>
+      </c>
+      <c r="C51" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D51" s="60">
+        <v>26</v>
+      </c>
+      <c r="E51" s="60">
+        <v>26</v>
+      </c>
+      <c r="F51" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="B52" s="31">
-        <v>8</v>
-      </c>
-      <c r="C52" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D52" s="31">
-        <v>26</v>
-      </c>
-      <c r="E52" s="31">
-        <v>26</v>
-      </c>
-      <c r="F52" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="30" t="s">
+      <c r="B52" s="60">
+        <v>9</v>
+      </c>
+      <c r="C52" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D52" s="60">
+        <v>26</v>
+      </c>
+      <c r="E52" s="60">
+        <v>26</v>
+      </c>
+      <c r="F52" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="B53" s="31">
-        <v>8</v>
-      </c>
-      <c r="C53" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D53" s="31">
-        <v>26</v>
-      </c>
-      <c r="E53" s="31">
-        <v>26</v>
-      </c>
-      <c r="F53" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="30" t="s">
+      <c r="B53" s="60">
+        <v>9</v>
+      </c>
+      <c r="C53" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D53" s="60">
+        <v>26</v>
+      </c>
+      <c r="E53" s="60">
+        <v>26</v>
+      </c>
+      <c r="F53" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="B54" s="31">
-        <v>8</v>
-      </c>
-      <c r="C54" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D54" s="31">
-        <v>26</v>
-      </c>
-      <c r="E54" s="31">
-        <v>26</v>
-      </c>
-      <c r="F54" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="30" t="s">
+      <c r="B54" s="60">
+        <v>9</v>
+      </c>
+      <c r="C54" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D54" s="60">
+        <v>26</v>
+      </c>
+      <c r="E54" s="60">
+        <v>26</v>
+      </c>
+      <c r="F54" s="60">
+        <v>0</v>
+      </c>
+      <c r="G54" s="65"/>
+    </row>
+    <row r="55" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="B55" s="31">
-        <v>8</v>
-      </c>
-      <c r="C55" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D55" s="31">
-        <v>26</v>
-      </c>
-      <c r="E55" s="31">
-        <v>26</v>
-      </c>
-      <c r="F55" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="30" t="s">
+      <c r="B55" s="60">
+        <v>9</v>
+      </c>
+      <c r="C55" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D55" s="60">
+        <v>26</v>
+      </c>
+      <c r="E55" s="60">
+        <v>26</v>
+      </c>
+      <c r="F55" s="60">
+        <v>0</v>
+      </c>
+      <c r="G55" s="65"/>
+    </row>
+    <row r="56" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="B56" s="31">
-        <v>8</v>
-      </c>
-      <c r="C56" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D56" s="31">
-        <v>26</v>
-      </c>
-      <c r="E56" s="31">
-        <v>26</v>
-      </c>
-      <c r="F56" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="36" t="s">
+      <c r="B56" s="60">
+        <v>9</v>
+      </c>
+      <c r="C56" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D56" s="60">
+        <v>26</v>
+      </c>
+      <c r="E56" s="60">
+        <v>26</v>
+      </c>
+      <c r="F56" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="B57" s="31">
-        <v>8</v>
-      </c>
-      <c r="C57" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D57" s="31">
-        <v>26</v>
-      </c>
-      <c r="E57" s="31">
-        <v>26</v>
-      </c>
-      <c r="F57" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="30" t="s">
+      <c r="B57" s="60">
+        <v>9</v>
+      </c>
+      <c r="C57" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D57" s="60">
+        <v>26</v>
+      </c>
+      <c r="E57" s="60">
+        <v>26</v>
+      </c>
+      <c r="F57" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="B58" s="31">
-        <v>8</v>
-      </c>
-      <c r="C58" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D58" s="31">
-        <v>26</v>
-      </c>
-      <c r="E58" s="31">
-        <v>26</v>
-      </c>
-      <c r="F58" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="30" t="s">
+      <c r="B58" s="60">
+        <v>9</v>
+      </c>
+      <c r="C58" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D58" s="60">
+        <v>26</v>
+      </c>
+      <c r="E58" s="60">
+        <v>26</v>
+      </c>
+      <c r="F58" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="B59" s="31">
-        <v>8</v>
-      </c>
-      <c r="C59" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D59" s="31">
-        <v>26</v>
-      </c>
-      <c r="E59" s="31">
-        <v>26</v>
-      </c>
-      <c r="F59" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="30" t="s">
+      <c r="B59" s="60">
+        <v>9</v>
+      </c>
+      <c r="C59" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D59" s="60">
+        <v>26</v>
+      </c>
+      <c r="E59" s="60">
+        <v>26</v>
+      </c>
+      <c r="F59" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="B60" s="31">
-        <v>8</v>
-      </c>
-      <c r="C60" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D60" s="31">
-        <v>26</v>
-      </c>
-      <c r="E60" s="31">
-        <v>26</v>
-      </c>
-      <c r="F60" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="30" t="s">
+      <c r="B60" s="60">
+        <v>9</v>
+      </c>
+      <c r="C60" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D60" s="60">
+        <v>26</v>
+      </c>
+      <c r="E60" s="60">
+        <v>26</v>
+      </c>
+      <c r="F60" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="B61" s="31">
-        <v>8</v>
-      </c>
-      <c r="C61" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D61" s="31">
-        <v>26</v>
-      </c>
-      <c r="E61" s="31">
-        <v>26</v>
-      </c>
-      <c r="F61" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="30" t="s">
+      <c r="B61" s="60">
+        <v>9</v>
+      </c>
+      <c r="C61" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D61" s="60">
+        <v>26</v>
+      </c>
+      <c r="E61" s="60">
+        <v>26</v>
+      </c>
+      <c r="F61" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="B62" s="31">
-        <v>8</v>
-      </c>
-      <c r="C62" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D62" s="31">
-        <v>26</v>
-      </c>
-      <c r="E62" s="31">
-        <v>26</v>
-      </c>
-      <c r="F62" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="30" t="s">
+      <c r="B62" s="60">
+        <v>9</v>
+      </c>
+      <c r="C62" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D62" s="60">
+        <v>26</v>
+      </c>
+      <c r="E62" s="60">
+        <v>26</v>
+      </c>
+      <c r="F62" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="31">
-        <v>8</v>
-      </c>
-      <c r="C63" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D63" s="31">
-        <v>26</v>
-      </c>
-      <c r="E63" s="31">
-        <v>26</v>
-      </c>
-      <c r="F63" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="30" t="s">
+      <c r="B63" s="60">
+        <v>9</v>
+      </c>
+      <c r="C63" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D63" s="60">
+        <v>26</v>
+      </c>
+      <c r="E63" s="60">
+        <v>26</v>
+      </c>
+      <c r="F63" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="B64" s="31">
-        <v>8</v>
-      </c>
-      <c r="C64" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D64" s="31">
-        <v>26</v>
-      </c>
-      <c r="E64" s="31">
-        <v>26</v>
-      </c>
-      <c r="F64" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="30" t="s">
+      <c r="B64" s="60">
+        <v>9</v>
+      </c>
+      <c r="C64" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D64" s="60">
+        <v>26</v>
+      </c>
+      <c r="E64" s="60">
+        <v>26</v>
+      </c>
+      <c r="F64" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="B65" s="31">
-        <v>8</v>
-      </c>
-      <c r="C65" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D65" s="31">
-        <v>26</v>
-      </c>
-      <c r="E65" s="31">
-        <v>26</v>
-      </c>
-      <c r="F65" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="30" t="s">
+      <c r="B65" s="60">
+        <v>9</v>
+      </c>
+      <c r="C65" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D65" s="60">
+        <v>26</v>
+      </c>
+      <c r="E65" s="60">
+        <v>26</v>
+      </c>
+      <c r="F65" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="B66" s="31">
-        <v>8</v>
-      </c>
-      <c r="C66" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D66" s="31">
-        <v>26</v>
-      </c>
-      <c r="E66" s="31">
-        <v>26</v>
-      </c>
-      <c r="F66" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="30" t="s">
+      <c r="B66" s="60">
+        <v>9</v>
+      </c>
+      <c r="C66" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D66" s="60">
+        <v>26</v>
+      </c>
+      <c r="E66" s="60">
+        <v>26</v>
+      </c>
+      <c r="F66" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="B67" s="31">
-        <v>8</v>
-      </c>
-      <c r="C67" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D67" s="31">
-        <v>26</v>
-      </c>
-      <c r="E67" s="31">
-        <v>26</v>
-      </c>
-      <c r="F67" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="30" t="s">
+      <c r="B67" s="60">
+        <v>9</v>
+      </c>
+      <c r="C67" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D67" s="60">
+        <v>26</v>
+      </c>
+      <c r="E67" s="60">
+        <v>26</v>
+      </c>
+      <c r="F67" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="B68" s="31">
-        <v>8</v>
-      </c>
-      <c r="C68" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D68" s="31">
-        <v>26</v>
-      </c>
-      <c r="E68" s="31">
-        <v>26</v>
-      </c>
-      <c r="F68" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="30" t="s">
+      <c r="B68" s="60">
+        <v>9</v>
+      </c>
+      <c r="C68" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D68" s="60">
+        <v>26</v>
+      </c>
+      <c r="E68" s="60">
+        <v>26</v>
+      </c>
+      <c r="F68" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B69" s="31">
-        <v>8</v>
-      </c>
-      <c r="C69" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D69" s="31">
-        <v>26</v>
-      </c>
-      <c r="E69" s="31">
-        <v>26</v>
-      </c>
-      <c r="F69" s="31">
+      <c r="B69" s="60">
+        <v>9</v>
+      </c>
+      <c r="C69" s="60">
+        <v>2022</v>
+      </c>
+      <c r="D69" s="60">
+        <v>26</v>
+      </c>
+      <c r="E69" s="60">
+        <v>26</v>
+      </c>
+      <c r="F69" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A76" s="28"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
     </row>
     <row r="77" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A77" s="29"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
     </row>
     <row r="78" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A78" s="29"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
     </row>
     <row r="79" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A79" s="29"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
     </row>
     <row r="80" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A80" s="29"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
     </row>
     <row r="81" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A81" s="29"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
     </row>
     <row r="82" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A82" s="28"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -5991,63 +6099,1930 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B109BBE4-4C0E-4B4D-94EC-BA18A18CC5DE}">
+  <dimension ref="A1:L46"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.81640625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="9.7265625" customWidth="1"/>
+    <col min="4" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="21.26953125" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" customWidth="1"/>
+    <col min="9" max="9" width="24.453125" customWidth="1"/>
+    <col min="10" max="10" width="27.7265625" customWidth="1"/>
+    <col min="12" max="12" width="22.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="47">
+        <v>9</v>
+      </c>
+      <c r="C2" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="47">
+        <v>26</v>
+      </c>
+      <c r="E2" s="47">
+        <v>26</v>
+      </c>
+      <c r="F2" s="47">
+        <v>0</v>
+      </c>
+      <c r="G2" s="48">
+        <v>2</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="47">
+        <v>9</v>
+      </c>
+      <c r="C3" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D3" s="47">
+        <v>26</v>
+      </c>
+      <c r="E3" s="47">
+        <v>26</v>
+      </c>
+      <c r="F3" s="47">
+        <v>0</v>
+      </c>
+      <c r="G3" s="48">
+        <v>3</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="47">
+        <v>9</v>
+      </c>
+      <c r="C4" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="47">
+        <v>26</v>
+      </c>
+      <c r="E4" s="47">
+        <v>26</v>
+      </c>
+      <c r="F4" s="47">
+        <v>0</v>
+      </c>
+      <c r="G4" s="48">
+        <v>4</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="47">
+        <v>9</v>
+      </c>
+      <c r="C5" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="47">
+        <v>26</v>
+      </c>
+      <c r="E5" s="47">
+        <v>26</v>
+      </c>
+      <c r="F5" s="47">
+        <v>0</v>
+      </c>
+      <c r="G5" s="48">
+        <v>7</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="47">
+        <v>9</v>
+      </c>
+      <c r="C6" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D6" s="47">
+        <v>26</v>
+      </c>
+      <c r="E6" s="47">
+        <v>26</v>
+      </c>
+      <c r="F6" s="47">
+        <v>0</v>
+      </c>
+      <c r="G6" s="48">
+        <v>8</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="L6" s="50"/>
+    </row>
+    <row r="7" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="47">
+        <v>9</v>
+      </c>
+      <c r="C7" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="47">
+        <v>26</v>
+      </c>
+      <c r="E7" s="47">
+        <v>26</v>
+      </c>
+      <c r="F7" s="47">
+        <v>0</v>
+      </c>
+      <c r="G7" s="48">
+        <v>10</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="47">
+        <v>9</v>
+      </c>
+      <c r="C8" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="47">
+        <v>26</v>
+      </c>
+      <c r="E8" s="47">
+        <v>26</v>
+      </c>
+      <c r="F8" s="47">
+        <v>0</v>
+      </c>
+      <c r="G8" s="48">
+        <v>12</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="47">
+        <v>9</v>
+      </c>
+      <c r="C9" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="47">
+        <v>26</v>
+      </c>
+      <c r="E9" s="47">
+        <v>26</v>
+      </c>
+      <c r="F9" s="47">
+        <v>0</v>
+      </c>
+      <c r="G9" s="48">
+        <v>14</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="47">
+        <v>9</v>
+      </c>
+      <c r="C10" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="47">
+        <v>26</v>
+      </c>
+      <c r="E10" s="47">
+        <v>26</v>
+      </c>
+      <c r="F10" s="47">
+        <v>0</v>
+      </c>
+      <c r="G10" s="48">
+        <v>15</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="47">
+        <v>9</v>
+      </c>
+      <c r="C11" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="47">
+        <v>26</v>
+      </c>
+      <c r="E11" s="47">
+        <v>26</v>
+      </c>
+      <c r="F11" s="47">
+        <v>0</v>
+      </c>
+      <c r="G11" s="48">
+        <v>16</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="47">
+        <v>9</v>
+      </c>
+      <c r="C12" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D12" s="47">
+        <v>26</v>
+      </c>
+      <c r="E12" s="47">
+        <v>26</v>
+      </c>
+      <c r="F12" s="47">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48">
+        <v>22</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="47">
+        <v>9</v>
+      </c>
+      <c r="C13" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="47">
+        <v>26</v>
+      </c>
+      <c r="E13" s="47">
+        <v>26</v>
+      </c>
+      <c r="F13" s="47">
+        <v>0</v>
+      </c>
+      <c r="G13" s="48">
+        <v>23</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="47">
+        <v>9</v>
+      </c>
+      <c r="C14" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="47">
+        <v>26</v>
+      </c>
+      <c r="E14" s="47">
+        <v>26</v>
+      </c>
+      <c r="F14" s="47">
+        <v>0</v>
+      </c>
+      <c r="G14" s="48">
+        <v>32</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="47">
+        <v>9</v>
+      </c>
+      <c r="C15" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="47">
+        <v>26</v>
+      </c>
+      <c r="E15" s="47">
+        <v>26</v>
+      </c>
+      <c r="F15" s="47">
+        <v>0</v>
+      </c>
+      <c r="G15" s="48">
+        <v>33</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="47">
+        <v>9</v>
+      </c>
+      <c r="C16" s="40">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="40">
+        <v>26</v>
+      </c>
+      <c r="E16" s="40">
+        <v>26</v>
+      </c>
+      <c r="F16" s="40">
+        <v>0</v>
+      </c>
+      <c r="G16" s="41">
+        <v>34</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="47">
+        <v>9</v>
+      </c>
+      <c r="C17" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="47">
+        <v>26</v>
+      </c>
+      <c r="E17" s="47">
+        <v>26</v>
+      </c>
+      <c r="F17" s="47">
+        <v>0</v>
+      </c>
+      <c r="G17" s="48">
+        <v>39</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="47">
+        <v>9</v>
+      </c>
+      <c r="C18" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="47">
+        <v>26</v>
+      </c>
+      <c r="E18" s="47">
+        <v>26</v>
+      </c>
+      <c r="F18" s="47">
+        <v>0</v>
+      </c>
+      <c r="G18" s="48">
+        <v>41</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="47">
+        <v>9</v>
+      </c>
+      <c r="C19" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="47">
+        <v>26</v>
+      </c>
+      <c r="E19" s="47">
+        <v>26</v>
+      </c>
+      <c r="F19" s="47">
+        <v>0</v>
+      </c>
+      <c r="G19" s="48">
+        <v>42</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="47">
+        <v>9</v>
+      </c>
+      <c r="C20" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="47">
+        <v>26</v>
+      </c>
+      <c r="E20" s="47">
+        <v>26</v>
+      </c>
+      <c r="F20" s="47">
+        <v>0</v>
+      </c>
+      <c r="G20" s="48">
+        <v>46</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="47">
+        <v>9</v>
+      </c>
+      <c r="C21" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D21" s="47">
+        <v>26</v>
+      </c>
+      <c r="E21" s="47">
+        <v>26</v>
+      </c>
+      <c r="F21" s="47">
+        <v>0</v>
+      </c>
+      <c r="G21" s="48">
+        <v>49</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="47">
+        <v>9</v>
+      </c>
+      <c r="C22" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D22" s="47">
+        <v>26</v>
+      </c>
+      <c r="E22" s="47">
+        <v>26</v>
+      </c>
+      <c r="F22" s="47">
+        <v>0</v>
+      </c>
+      <c r="G22" s="48">
+        <v>52</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="47">
+        <v>9</v>
+      </c>
+      <c r="C23" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D23" s="47">
+        <v>26</v>
+      </c>
+      <c r="E23" s="47">
+        <v>26</v>
+      </c>
+      <c r="F23" s="47">
+        <v>0</v>
+      </c>
+      <c r="G23" s="48">
+        <v>54</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" s="56"/>
+    </row>
+    <row r="24" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="47">
+        <v>9</v>
+      </c>
+      <c r="C24" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="47">
+        <v>26</v>
+      </c>
+      <c r="E24" s="47">
+        <v>26</v>
+      </c>
+      <c r="F24" s="47">
+        <v>0</v>
+      </c>
+      <c r="G24" s="48">
+        <v>55</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="47">
+        <v>9</v>
+      </c>
+      <c r="C25" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D25" s="47">
+        <v>26</v>
+      </c>
+      <c r="E25" s="47">
+        <v>26</v>
+      </c>
+      <c r="F25" s="47">
+        <v>0</v>
+      </c>
+      <c r="G25" s="48">
+        <v>56</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="47">
+        <v>9</v>
+      </c>
+      <c r="C26" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D26" s="47">
+        <v>26</v>
+      </c>
+      <c r="E26" s="47">
+        <v>26</v>
+      </c>
+      <c r="F26" s="47">
+        <v>0</v>
+      </c>
+      <c r="G26" s="48">
+        <v>57</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="47">
+        <v>9</v>
+      </c>
+      <c r="C27" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D27" s="47">
+        <v>26</v>
+      </c>
+      <c r="E27" s="47">
+        <v>26</v>
+      </c>
+      <c r="F27" s="47">
+        <v>0</v>
+      </c>
+      <c r="G27" s="48">
+        <v>58</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="47">
+        <v>9</v>
+      </c>
+      <c r="C28" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D28" s="47">
+        <v>26</v>
+      </c>
+      <c r="E28" s="47">
+        <v>26</v>
+      </c>
+      <c r="F28" s="47">
+        <v>0</v>
+      </c>
+      <c r="G28" s="48">
+        <v>59</v>
+      </c>
+      <c r="H28" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="47">
+        <v>9</v>
+      </c>
+      <c r="C29" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D29" s="47">
+        <v>26</v>
+      </c>
+      <c r="E29" s="47">
+        <v>26</v>
+      </c>
+      <c r="F29" s="47">
+        <v>0</v>
+      </c>
+      <c r="G29" s="48">
+        <v>62</v>
+      </c>
+      <c r="H29" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="47">
+        <v>9</v>
+      </c>
+      <c r="C30" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D30" s="47">
+        <v>26</v>
+      </c>
+      <c r="E30" s="47">
+        <v>26</v>
+      </c>
+      <c r="F30" s="47">
+        <v>0</v>
+      </c>
+      <c r="G30" s="48">
+        <v>63</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="47">
+        <v>9</v>
+      </c>
+      <c r="C31" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D31" s="47">
+        <v>26</v>
+      </c>
+      <c r="E31" s="47">
+        <v>26</v>
+      </c>
+      <c r="F31" s="47">
+        <v>0</v>
+      </c>
+      <c r="G31" s="48">
+        <v>65</v>
+      </c>
+      <c r="H31" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="50" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="47">
+        <v>9</v>
+      </c>
+      <c r="C32" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D32" s="47">
+        <v>26</v>
+      </c>
+      <c r="E32" s="47">
+        <v>26</v>
+      </c>
+      <c r="F32" s="47">
+        <v>0</v>
+      </c>
+      <c r="G32" s="48">
+        <v>66</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32" s="50" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="47">
+        <v>9</v>
+      </c>
+      <c r="C33" s="47">
+        <v>2022</v>
+      </c>
+      <c r="D33" s="47">
+        <v>26</v>
+      </c>
+      <c r="E33" s="47">
+        <v>26</v>
+      </c>
+      <c r="F33" s="47">
+        <v>0</v>
+      </c>
+      <c r="G33" s="48">
+        <v>68</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="50" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H36">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H37">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H38">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H39">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+      <c r="A40" s="37"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="H40">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+      <c r="A41" s="38"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="H41">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+      <c r="A42" s="38"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="H42">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+      <c r="A43" s="38"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+    </row>
+    <row r="44" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+      <c r="A44" s="38"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="H44">
+        <f>SUM(H36:H42)</f>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+      <c r="A45" s="38"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="H45" s="45">
+        <f>H44/7</f>
+        <v>81.142857142857139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+      <c r="A46" s="37"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0CADD8-1F8D-4423-BE8A-07ABED74AB3B}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView topLeftCell="C2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.81640625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="9.7265625" customWidth="1"/>
+    <col min="4" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="21.26953125" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" customWidth="1"/>
+    <col min="9" max="9" width="24.453125" customWidth="1"/>
+    <col min="10" max="10" width="27.7265625" customWidth="1"/>
+    <col min="12" max="12" width="22.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+    </row>
+    <row r="2" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="28">
+        <v>7</v>
+      </c>
+      <c r="C2" s="28">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="28">
+        <v>25</v>
+      </c>
+      <c r="E2" s="28">
+        <v>25</v>
+      </c>
+      <c r="F2" s="28">
+        <v>0</v>
+      </c>
+      <c r="G2" s="29">
+        <v>1</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="28">
+        <v>7</v>
+      </c>
+      <c r="C3" s="28">
+        <v>2022</v>
+      </c>
+      <c r="D3" s="28">
+        <v>25</v>
+      </c>
+      <c r="E3" s="28">
+        <v>25</v>
+      </c>
+      <c r="F3" s="28">
+        <v>0</v>
+      </c>
+      <c r="G3" s="29">
+        <v>2</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="28">
+        <v>7</v>
+      </c>
+      <c r="C4" s="28">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="28">
+        <v>25</v>
+      </c>
+      <c r="E4" s="28">
+        <v>25</v>
+      </c>
+      <c r="F4" s="28">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29">
+        <v>3</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="28">
+        <v>7</v>
+      </c>
+      <c r="C5" s="28">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="28">
+        <v>25</v>
+      </c>
+      <c r="E5" s="28">
+        <v>25</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0</v>
+      </c>
+      <c r="G5" s="29">
+        <v>4</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="28">
+        <v>7</v>
+      </c>
+      <c r="C6" s="28">
+        <v>2022</v>
+      </c>
+      <c r="D6" s="28">
+        <v>25</v>
+      </c>
+      <c r="E6" s="28">
+        <v>25</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <v>5</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="28">
+        <v>7</v>
+      </c>
+      <c r="C7" s="28">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="28">
+        <v>25</v>
+      </c>
+      <c r="E7" s="28">
+        <v>25</v>
+      </c>
+      <c r="F7" s="28">
+        <v>0</v>
+      </c>
+      <c r="G7" s="29">
+        <v>6</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="28">
+        <v>7</v>
+      </c>
+      <c r="C8" s="28">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="28">
+        <v>25</v>
+      </c>
+      <c r="E8" s="28">
+        <v>25</v>
+      </c>
+      <c r="F8" s="28">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
+        <v>7</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="28">
+        <v>7</v>
+      </c>
+      <c r="C9" s="28">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="28">
+        <v>25</v>
+      </c>
+      <c r="E9" s="28">
+        <v>25</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>8</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="28">
+        <v>7</v>
+      </c>
+      <c r="C10" s="28">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="28">
+        <v>25</v>
+      </c>
+      <c r="E10" s="28">
+        <v>25</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
+        <v>9</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+      <c r="A14" s="37"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="2">
+        <v>3</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+      <c r="A15" s="38"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="2">
+        <v>4</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+      <c r="A16" s="38"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.5">
+      <c r="A17" s="38"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="2">
+        <v>6</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.5">
+      <c r="A18" s="38"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="2">
+        <v>7</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.5">
+      <c r="A19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="2">
+        <v>8</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G20" s="2">
+        <v>9</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G21" s="2">
+        <v>10</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G22" s="2">
+        <v>11</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G23" s="2">
+        <v>12</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G24" s="2">
+        <v>13</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G25" s="2">
+        <v>14</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4802CEB9-E954-45DE-9902-73EBC6E635B2}">
   <dimension ref="A4:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="B5" s="28"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="B6" s="29"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="B7" s="29"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="B8" s="29"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="B9" s="29"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABSEN EKINERJA\09. ABSEN September 22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABSEN EKINERJA\10. ABSEN Oktober 22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD304297-195D-4166-A80D-5919D1829035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060AECF0-1481-4597-B2C4-77EBD85C1DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nov (4)" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="september" sheetId="1" r:id="rId2"/>
-    <sheet name="september (2)" sheetId="7" r:id="rId3"/>
-    <sheet name="Juli (2)" sheetId="6" r:id="rId4"/>
+    <sheet name="OKT" sheetId="1" r:id="rId2"/>
+    <sheet name="REKAP SKP" sheetId="8" r:id="rId3"/>
+    <sheet name="OKT (2)" sheetId="9" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="253">
   <si>
     <t>NIP</t>
   </si>
@@ -767,14 +767,38 @@
     <t>SDN GELUMBANG JUAI</t>
   </si>
   <si>
-    <t>DAFTAR YANG BELUM MENYAMPAIKAN ABSENSI TPP BULAN JULI 2022</t>
+    <t>SD/Pramu Bakti</t>
+  </si>
+  <si>
+    <t>ISI NAMA SESUAI BARIS JABATAN</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>DAN ISI NILAI SKP 2021</t>
+  </si>
+  <si>
+    <t>NO.</t>
+  </si>
+  <si>
+    <t>NAMA</t>
+  </si>
+  <si>
+    <t>JABATAN</t>
+  </si>
+  <si>
+    <t>UNIT KERJA</t>
+  </si>
+  <si>
+    <t>NILAI SKP 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,8 +875,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -879,30 +909,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -973,11 +985,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1039,6 +1122,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1051,7 +1140,7 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1060,81 +1149,70 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4635,1475 +4713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.81640625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="9.7265625" customWidth="1"/>
-    <col min="4" max="5" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="21.26953125" customWidth="1"/>
-    <col min="7" max="7" width="22.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="60">
-        <v>9</v>
-      </c>
-      <c r="C2" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D2" s="60">
-        <v>26</v>
-      </c>
-      <c r="E2" s="60">
-        <v>26</v>
-      </c>
-      <c r="F2" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="60">
-        <v>9</v>
-      </c>
-      <c r="C3" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D3" s="60">
-        <v>26</v>
-      </c>
-      <c r="E3" s="60">
-        <v>26</v>
-      </c>
-      <c r="F3" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="60">
-        <v>9</v>
-      </c>
-      <c r="C4" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D4" s="60">
-        <v>26</v>
-      </c>
-      <c r="E4" s="60">
-        <v>26</v>
-      </c>
-      <c r="F4" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="60">
-        <v>9</v>
-      </c>
-      <c r="C5" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D5" s="60">
-        <v>26</v>
-      </c>
-      <c r="E5" s="60">
-        <v>26</v>
-      </c>
-      <c r="F5" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="60">
-        <v>9</v>
-      </c>
-      <c r="C6" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D6" s="60">
-        <v>26</v>
-      </c>
-      <c r="E6" s="60">
-        <v>26</v>
-      </c>
-      <c r="F6" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="60">
-        <v>9</v>
-      </c>
-      <c r="C7" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D7" s="60">
-        <v>26</v>
-      </c>
-      <c r="E7" s="60">
-        <v>26</v>
-      </c>
-      <c r="F7" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="60">
-        <v>9</v>
-      </c>
-      <c r="C8" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D8" s="60">
-        <v>26</v>
-      </c>
-      <c r="E8" s="60">
-        <v>26</v>
-      </c>
-      <c r="F8" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="60">
-        <v>9</v>
-      </c>
-      <c r="C9" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D9" s="60">
-        <v>26</v>
-      </c>
-      <c r="E9" s="60">
-        <v>26</v>
-      </c>
-      <c r="F9" s="60">
-        <v>0</v>
-      </c>
-      <c r="G9" s="61"/>
-    </row>
-    <row r="10" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="60">
-        <v>9</v>
-      </c>
-      <c r="C10" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D10" s="60">
-        <v>26</v>
-      </c>
-      <c r="E10" s="60">
-        <v>26</v>
-      </c>
-      <c r="F10" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="60">
-        <v>9</v>
-      </c>
-      <c r="C11" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D11" s="60">
-        <v>26</v>
-      </c>
-      <c r="E11" s="60">
-        <v>26</v>
-      </c>
-      <c r="F11" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="60">
-        <v>9</v>
-      </c>
-      <c r="C12" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D12" s="60">
-        <v>26</v>
-      </c>
-      <c r="E12" s="60">
-        <v>26</v>
-      </c>
-      <c r="F12" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="60">
-        <v>9</v>
-      </c>
-      <c r="C13" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D13" s="60">
-        <v>26</v>
-      </c>
-      <c r="E13" s="60">
-        <v>26</v>
-      </c>
-      <c r="F13" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="60">
-        <v>9</v>
-      </c>
-      <c r="C14" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D14" s="60">
-        <v>26</v>
-      </c>
-      <c r="E14" s="60">
-        <v>26</v>
-      </c>
-      <c r="F14" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="60">
-        <v>9</v>
-      </c>
-      <c r="C15" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D15" s="60">
-        <v>26</v>
-      </c>
-      <c r="E15" s="60">
-        <v>26</v>
-      </c>
-      <c r="F15" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="60">
-        <v>9</v>
-      </c>
-      <c r="C16" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D16" s="60">
-        <v>26</v>
-      </c>
-      <c r="E16" s="60">
-        <v>26</v>
-      </c>
-      <c r="F16" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B17" s="60">
-        <v>9</v>
-      </c>
-      <c r="C17" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D17" s="60">
-        <v>26</v>
-      </c>
-      <c r="E17" s="60">
-        <v>26</v>
-      </c>
-      <c r="F17" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="60">
-        <v>9</v>
-      </c>
-      <c r="C18" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D18" s="60">
-        <v>26</v>
-      </c>
-      <c r="E18" s="60">
-        <v>26</v>
-      </c>
-      <c r="F18" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="60">
-        <v>9</v>
-      </c>
-      <c r="C19" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D19" s="60">
-        <v>26</v>
-      </c>
-      <c r="E19" s="60">
-        <v>26</v>
-      </c>
-      <c r="F19" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="60">
-        <v>9</v>
-      </c>
-      <c r="C20" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D20" s="60">
-        <v>26</v>
-      </c>
-      <c r="E20" s="60">
-        <v>26</v>
-      </c>
-      <c r="F20" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="60">
-        <v>9</v>
-      </c>
-      <c r="C21" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D21" s="60">
-        <v>26</v>
-      </c>
-      <c r="E21" s="60">
-        <v>26</v>
-      </c>
-      <c r="F21" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" s="60">
-        <v>9</v>
-      </c>
-      <c r="C22" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D22" s="60">
-        <v>26</v>
-      </c>
-      <c r="E22" s="60">
-        <v>26</v>
-      </c>
-      <c r="F22" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="B23" s="60">
-        <v>9</v>
-      </c>
-      <c r="C23" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D23" s="60">
-        <v>26</v>
-      </c>
-      <c r="E23" s="60">
-        <v>26</v>
-      </c>
-      <c r="F23" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="B24" s="60">
-        <v>9</v>
-      </c>
-      <c r="C24" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D24" s="60">
-        <v>26</v>
-      </c>
-      <c r="E24" s="60">
-        <v>26</v>
-      </c>
-      <c r="F24" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" s="60">
-        <v>9</v>
-      </c>
-      <c r="C25" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D25" s="60">
-        <v>26</v>
-      </c>
-      <c r="E25" s="60">
-        <v>26</v>
-      </c>
-      <c r="F25" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" s="60">
-        <v>9</v>
-      </c>
-      <c r="C26" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D26" s="60">
-        <v>26</v>
-      </c>
-      <c r="E26" s="60">
-        <v>26</v>
-      </c>
-      <c r="F26" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" s="60">
-        <v>9</v>
-      </c>
-      <c r="C27" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D27" s="60">
-        <v>26</v>
-      </c>
-      <c r="E27" s="60">
-        <v>26</v>
-      </c>
-      <c r="F27" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" s="60">
-        <v>9</v>
-      </c>
-      <c r="C28" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D28" s="60">
-        <v>26</v>
-      </c>
-      <c r="E28" s="60">
-        <v>26</v>
-      </c>
-      <c r="F28" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="B29" s="60">
-        <v>9</v>
-      </c>
-      <c r="C29" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D29" s="60">
-        <v>26</v>
-      </c>
-      <c r="E29" s="60">
-        <v>26</v>
-      </c>
-      <c r="F29" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="B30" s="60">
-        <v>9</v>
-      </c>
-      <c r="C30" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D30" s="60">
-        <v>26</v>
-      </c>
-      <c r="E30" s="60">
-        <v>26</v>
-      </c>
-      <c r="F30" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="60">
-        <v>9</v>
-      </c>
-      <c r="C31" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D31" s="60">
-        <v>26</v>
-      </c>
-      <c r="E31" s="60">
-        <v>26</v>
-      </c>
-      <c r="F31" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="60">
-        <v>9</v>
-      </c>
-      <c r="C32" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D32" s="60">
-        <v>26</v>
-      </c>
-      <c r="E32" s="60">
-        <v>26</v>
-      </c>
-      <c r="F32" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="B33" s="60">
-        <v>9</v>
-      </c>
-      <c r="C33" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D33" s="60">
-        <v>26</v>
-      </c>
-      <c r="E33" s="60">
-        <v>26</v>
-      </c>
-      <c r="F33" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="B34" s="60">
-        <v>9</v>
-      </c>
-      <c r="C34" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D34" s="60">
-        <v>26</v>
-      </c>
-      <c r="E34" s="60">
-        <v>26</v>
-      </c>
-      <c r="F34" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="B35" s="60">
-        <v>9</v>
-      </c>
-      <c r="C35" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D35" s="60">
-        <v>26</v>
-      </c>
-      <c r="E35" s="60">
-        <v>26</v>
-      </c>
-      <c r="F35" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="B36" s="60">
-        <v>9</v>
-      </c>
-      <c r="C36" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D36" s="60">
-        <v>26</v>
-      </c>
-      <c r="E36" s="60">
-        <v>26</v>
-      </c>
-      <c r="F36" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="B37" s="60">
-        <v>9</v>
-      </c>
-      <c r="C37" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D37" s="60">
-        <v>26</v>
-      </c>
-      <c r="E37" s="60">
-        <v>26</v>
-      </c>
-      <c r="F37" s="60">
-        <v>0</v>
-      </c>
-      <c r="G37" s="61"/>
-    </row>
-    <row r="38" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="B38" s="60">
-        <v>9</v>
-      </c>
-      <c r="C38" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D38" s="60">
-        <v>26</v>
-      </c>
-      <c r="E38" s="60">
-        <v>26</v>
-      </c>
-      <c r="F38" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="B39" s="60">
-        <v>9</v>
-      </c>
-      <c r="C39" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D39" s="60">
-        <v>26</v>
-      </c>
-      <c r="E39" s="60">
-        <v>26</v>
-      </c>
-      <c r="F39" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="B40" s="60">
-        <v>9</v>
-      </c>
-      <c r="C40" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D40" s="60">
-        <v>26</v>
-      </c>
-      <c r="E40" s="60">
-        <v>26</v>
-      </c>
-      <c r="F40" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="B41" s="60">
-        <v>9</v>
-      </c>
-      <c r="C41" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D41" s="60">
-        <v>26</v>
-      </c>
-      <c r="E41" s="60">
-        <v>26</v>
-      </c>
-      <c r="F41" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42" s="60">
-        <v>9</v>
-      </c>
-      <c r="C42" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D42" s="60">
-        <v>26</v>
-      </c>
-      <c r="E42" s="60">
-        <v>26</v>
-      </c>
-      <c r="F42" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="B43" s="60">
-        <v>9</v>
-      </c>
-      <c r="C43" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D43" s="60">
-        <v>26</v>
-      </c>
-      <c r="E43" s="60">
-        <v>26</v>
-      </c>
-      <c r="F43" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="B44" s="60">
-        <v>9</v>
-      </c>
-      <c r="C44" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D44" s="60">
-        <v>26</v>
-      </c>
-      <c r="E44" s="60">
-        <v>26</v>
-      </c>
-      <c r="F44" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="B45" s="60">
-        <v>9</v>
-      </c>
-      <c r="C45" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D45" s="60">
-        <v>26</v>
-      </c>
-      <c r="E45" s="60">
-        <v>26</v>
-      </c>
-      <c r="F45" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="B46" s="60">
-        <v>9</v>
-      </c>
-      <c r="C46" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D46" s="60">
-        <v>26</v>
-      </c>
-      <c r="E46" s="60">
-        <v>26</v>
-      </c>
-      <c r="F46" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="B47" s="60">
-        <v>9</v>
-      </c>
-      <c r="C47" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D47" s="60">
-        <v>26</v>
-      </c>
-      <c r="E47" s="60">
-        <v>26</v>
-      </c>
-      <c r="F47" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="B48" s="60">
-        <v>9</v>
-      </c>
-      <c r="C48" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D48" s="60">
-        <v>26</v>
-      </c>
-      <c r="E48" s="60">
-        <v>26</v>
-      </c>
-      <c r="F48" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="B49" s="60">
-        <v>9</v>
-      </c>
-      <c r="C49" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D49" s="60">
-        <v>26</v>
-      </c>
-      <c r="E49" s="60">
-        <v>26</v>
-      </c>
-      <c r="F49" s="60">
-        <v>0</v>
-      </c>
-      <c r="G49" s="61"/>
-    </row>
-    <row r="50" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="B50" s="60">
-        <v>9</v>
-      </c>
-      <c r="C50" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D50" s="60">
-        <v>26</v>
-      </c>
-      <c r="E50" s="60">
-        <v>26</v>
-      </c>
-      <c r="F50" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="B51" s="60">
-        <v>9</v>
-      </c>
-      <c r="C51" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D51" s="60">
-        <v>26</v>
-      </c>
-      <c r="E51" s="60">
-        <v>26</v>
-      </c>
-      <c r="F51" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="B52" s="60">
-        <v>9</v>
-      </c>
-      <c r="C52" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D52" s="60">
-        <v>26</v>
-      </c>
-      <c r="E52" s="60">
-        <v>26</v>
-      </c>
-      <c r="F52" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="B53" s="60">
-        <v>9</v>
-      </c>
-      <c r="C53" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D53" s="60">
-        <v>26</v>
-      </c>
-      <c r="E53" s="60">
-        <v>26</v>
-      </c>
-      <c r="F53" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="B54" s="60">
-        <v>9</v>
-      </c>
-      <c r="C54" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D54" s="60">
-        <v>26</v>
-      </c>
-      <c r="E54" s="60">
-        <v>26</v>
-      </c>
-      <c r="F54" s="60">
-        <v>0</v>
-      </c>
-      <c r="G54" s="65"/>
-    </row>
-    <row r="55" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="B55" s="60">
-        <v>9</v>
-      </c>
-      <c r="C55" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D55" s="60">
-        <v>26</v>
-      </c>
-      <c r="E55" s="60">
-        <v>26</v>
-      </c>
-      <c r="F55" s="60">
-        <v>0</v>
-      </c>
-      <c r="G55" s="65"/>
-    </row>
-    <row r="56" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="B56" s="60">
-        <v>9</v>
-      </c>
-      <c r="C56" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D56" s="60">
-        <v>26</v>
-      </c>
-      <c r="E56" s="60">
-        <v>26</v>
-      </c>
-      <c r="F56" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="67" t="s">
-        <v>210</v>
-      </c>
-      <c r="B57" s="60">
-        <v>9</v>
-      </c>
-      <c r="C57" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D57" s="60">
-        <v>26</v>
-      </c>
-      <c r="E57" s="60">
-        <v>26</v>
-      </c>
-      <c r="F57" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="B58" s="60">
-        <v>9</v>
-      </c>
-      <c r="C58" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D58" s="60">
-        <v>26</v>
-      </c>
-      <c r="E58" s="60">
-        <v>26</v>
-      </c>
-      <c r="F58" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="B59" s="60">
-        <v>9</v>
-      </c>
-      <c r="C59" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D59" s="60">
-        <v>26</v>
-      </c>
-      <c r="E59" s="60">
-        <v>26</v>
-      </c>
-      <c r="F59" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="B60" s="60">
-        <v>9</v>
-      </c>
-      <c r="C60" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D60" s="60">
-        <v>26</v>
-      </c>
-      <c r="E60" s="60">
-        <v>26</v>
-      </c>
-      <c r="F60" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="B61" s="60">
-        <v>9</v>
-      </c>
-      <c r="C61" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D61" s="60">
-        <v>26</v>
-      </c>
-      <c r="E61" s="60">
-        <v>26</v>
-      </c>
-      <c r="F61" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="B62" s="60">
-        <v>9</v>
-      </c>
-      <c r="C62" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D62" s="60">
-        <v>26</v>
-      </c>
-      <c r="E62" s="60">
-        <v>26</v>
-      </c>
-      <c r="F62" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="B63" s="60">
-        <v>9</v>
-      </c>
-      <c r="C63" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D63" s="60">
-        <v>26</v>
-      </c>
-      <c r="E63" s="60">
-        <v>26</v>
-      </c>
-      <c r="F63" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="B64" s="60">
-        <v>9</v>
-      </c>
-      <c r="C64" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D64" s="60">
-        <v>26</v>
-      </c>
-      <c r="E64" s="60">
-        <v>26</v>
-      </c>
-      <c r="F64" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" s="60">
-        <v>9</v>
-      </c>
-      <c r="C65" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D65" s="60">
-        <v>26</v>
-      </c>
-      <c r="E65" s="60">
-        <v>26</v>
-      </c>
-      <c r="F65" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="B66" s="60">
-        <v>9</v>
-      </c>
-      <c r="C66" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D66" s="60">
-        <v>26</v>
-      </c>
-      <c r="E66" s="60">
-        <v>26</v>
-      </c>
-      <c r="F66" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="B67" s="60">
-        <v>9</v>
-      </c>
-      <c r="C67" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D67" s="60">
-        <v>26</v>
-      </c>
-      <c r="E67" s="60">
-        <v>26</v>
-      </c>
-      <c r="F67" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="B68" s="60">
-        <v>9</v>
-      </c>
-      <c r="C68" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D68" s="60">
-        <v>26</v>
-      </c>
-      <c r="E68" s="60">
-        <v>26</v>
-      </c>
-      <c r="F68" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="B69" s="60">
-        <v>9</v>
-      </c>
-      <c r="C69" s="60">
-        <v>2022</v>
-      </c>
-      <c r="D69" s="60">
-        <v>26</v>
-      </c>
-      <c r="E69" s="60">
-        <v>26</v>
-      </c>
-      <c r="F69" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A76" s="37"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-    </row>
-    <row r="77" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A77" s="38"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-    </row>
-    <row r="78" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A78" s="38"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-    </row>
-    <row r="79" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A79" s="38"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-    </row>
-    <row r="80" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A80" s="38"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-    </row>
-    <row r="81" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A81" s="38"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-    </row>
-    <row r="82" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A82" s="37"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B109BBE4-4C0E-4B4D-94EC-BA18A18CC5DE}">
-  <dimension ref="A1:L46"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6142,1127 +4755,3516 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="32">
+        <v>10</v>
+      </c>
+      <c r="C2" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="32">
+        <v>25</v>
+      </c>
+      <c r="E2" s="32">
+        <v>25</v>
+      </c>
+      <c r="F2" s="32">
+        <v>0</v>
+      </c>
+      <c r="G2" s="33">
+        <v>1</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B3" s="32">
+        <v>10</v>
+      </c>
+      <c r="C3" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D3" s="32">
+        <v>25</v>
+      </c>
+      <c r="E3" s="32">
+        <v>25</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0</v>
+      </c>
+      <c r="G3" s="33">
+        <v>2</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="32">
+        <v>10</v>
+      </c>
+      <c r="C4" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="32">
+        <v>25</v>
+      </c>
+      <c r="E4" s="32">
+        <v>25</v>
+      </c>
+      <c r="F4" s="32">
+        <v>0</v>
+      </c>
+      <c r="G4" s="33">
+        <v>3</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="32">
+        <v>10</v>
+      </c>
+      <c r="C5" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="32">
+        <v>25</v>
+      </c>
+      <c r="E5" s="32">
+        <v>25</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0</v>
+      </c>
+      <c r="G5" s="33">
+        <v>4</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="32">
+        <v>10</v>
+      </c>
+      <c r="C6" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D6" s="32">
+        <v>25</v>
+      </c>
+      <c r="E6" s="32">
+        <v>25</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0</v>
+      </c>
+      <c r="G6" s="33">
+        <v>5</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="32">
+        <v>10</v>
+      </c>
+      <c r="C7" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="32">
+        <v>25</v>
+      </c>
+      <c r="E7" s="32">
+        <v>25</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0</v>
+      </c>
+      <c r="G7" s="33">
+        <v>6</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="32">
+        <v>10</v>
+      </c>
+      <c r="C8" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="32">
+        <v>25</v>
+      </c>
+      <c r="E8" s="32">
+        <v>25</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0</v>
+      </c>
+      <c r="G8" s="33">
+        <v>7</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="32">
+        <v>10</v>
+      </c>
+      <c r="C9" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="32">
+        <v>25</v>
+      </c>
+      <c r="E9" s="32">
+        <v>25</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0</v>
+      </c>
+      <c r="G9" s="33">
+        <v>8</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="L9" s="35"/>
+    </row>
+    <row r="10" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="32">
+        <v>10</v>
+      </c>
+      <c r="C10" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="32">
+        <v>25</v>
+      </c>
+      <c r="E10" s="32">
+        <v>25</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0</v>
+      </c>
+      <c r="G10" s="33">
         <v>9</v>
       </c>
-      <c r="C2" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D2" s="47">
-        <v>26</v>
-      </c>
-      <c r="E2" s="47">
-        <v>26</v>
-      </c>
-      <c r="F2" s="47">
-        <v>0</v>
-      </c>
-      <c r="G2" s="48">
+      <c r="H10" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="32">
+        <v>10</v>
+      </c>
+      <c r="C11" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="32">
+        <v>25</v>
+      </c>
+      <c r="E11" s="32">
+        <v>25</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0</v>
+      </c>
+      <c r="G11" s="33">
+        <v>10</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="32">
+        <v>10</v>
+      </c>
+      <c r="C12" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D12" s="32">
+        <v>25</v>
+      </c>
+      <c r="E12" s="32">
+        <v>25</v>
+      </c>
+      <c r="F12" s="32">
+        <v>0</v>
+      </c>
+      <c r="G12" s="33">
+        <v>11</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="32">
+        <v>10</v>
+      </c>
+      <c r="C13" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="32">
+        <v>25</v>
+      </c>
+      <c r="E13" s="32">
+        <v>25</v>
+      </c>
+      <c r="F13" s="32">
+        <v>0</v>
+      </c>
+      <c r="G13" s="33">
+        <v>12</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="32">
+        <v>10</v>
+      </c>
+      <c r="C14" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="32">
+        <v>25</v>
+      </c>
+      <c r="E14" s="32">
+        <v>25</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0</v>
+      </c>
+      <c r="G14" s="33">
+        <v>13</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="32">
+        <v>10</v>
+      </c>
+      <c r="C15" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="32">
+        <v>25</v>
+      </c>
+      <c r="E15" s="32">
+        <v>25</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33">
+        <v>14</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="32">
+        <v>10</v>
+      </c>
+      <c r="C16" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="32">
+        <v>25</v>
+      </c>
+      <c r="E16" s="32">
+        <v>25</v>
+      </c>
+      <c r="F16" s="32">
+        <v>0</v>
+      </c>
+      <c r="G16" s="33">
+        <v>15</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="32">
+        <v>10</v>
+      </c>
+      <c r="C17" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="32">
+        <v>25</v>
+      </c>
+      <c r="E17" s="32">
+        <v>25</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0</v>
+      </c>
+      <c r="G17" s="33">
+        <v>16</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="32">
+        <v>10</v>
+      </c>
+      <c r="C18" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="32">
+        <v>25</v>
+      </c>
+      <c r="E18" s="32">
+        <v>25</v>
+      </c>
+      <c r="F18" s="32">
+        <v>0</v>
+      </c>
+      <c r="G18" s="33">
+        <v>17</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="32">
+        <v>10</v>
+      </c>
+      <c r="C19" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="32">
+        <v>25</v>
+      </c>
+      <c r="E19" s="32">
+        <v>25</v>
+      </c>
+      <c r="F19" s="32">
+        <v>0</v>
+      </c>
+      <c r="G19" s="33">
+        <v>18</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="32">
+        <v>10</v>
+      </c>
+      <c r="C20" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="32">
+        <v>25</v>
+      </c>
+      <c r="E20" s="32">
+        <v>25</v>
+      </c>
+      <c r="F20" s="32">
+        <v>0</v>
+      </c>
+      <c r="G20" s="33">
+        <v>19</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="32">
+        <v>10</v>
+      </c>
+      <c r="C21" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D21" s="32">
+        <v>25</v>
+      </c>
+      <c r="E21" s="32">
+        <v>25</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0</v>
+      </c>
+      <c r="G21" s="33">
+        <v>20</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="32">
+        <v>10</v>
+      </c>
+      <c r="C22" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D22" s="32">
+        <v>25</v>
+      </c>
+      <c r="E22" s="32">
+        <v>25</v>
+      </c>
+      <c r="F22" s="32">
+        <v>0</v>
+      </c>
+      <c r="G22" s="33">
+        <v>21</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" s="32">
+        <v>10</v>
+      </c>
+      <c r="C23" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D23" s="32">
+        <v>25</v>
+      </c>
+      <c r="E23" s="32">
+        <v>25</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0</v>
+      </c>
+      <c r="G23" s="33">
+        <v>22</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="32">
+        <v>10</v>
+      </c>
+      <c r="C24" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="32">
+        <v>25</v>
+      </c>
+      <c r="E24" s="32">
+        <v>25</v>
+      </c>
+      <c r="F24" s="32">
+        <v>0</v>
+      </c>
+      <c r="G24" s="33">
+        <v>23</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" s="39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="32">
+        <v>10</v>
+      </c>
+      <c r="C25" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D25" s="32">
+        <v>25</v>
+      </c>
+      <c r="E25" s="32">
+        <v>25</v>
+      </c>
+      <c r="F25" s="32">
+        <v>0</v>
+      </c>
+      <c r="G25" s="33">
+        <v>24</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="32">
+        <v>10</v>
+      </c>
+      <c r="C26" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D26" s="32">
+        <v>25</v>
+      </c>
+      <c r="E26" s="32">
+        <v>25</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33">
+        <v>25</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="32">
+        <v>10</v>
+      </c>
+      <c r="C27" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D27" s="32">
+        <v>25</v>
+      </c>
+      <c r="E27" s="32">
+        <v>25</v>
+      </c>
+      <c r="F27" s="32">
+        <v>0</v>
+      </c>
+      <c r="G27" s="33">
+        <v>26</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="32">
+        <v>10</v>
+      </c>
+      <c r="C28" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D28" s="32">
+        <v>25</v>
+      </c>
+      <c r="E28" s="32">
+        <v>25</v>
+      </c>
+      <c r="F28" s="32">
+        <v>0</v>
+      </c>
+      <c r="G28" s="33">
+        <v>27</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="I28" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="J28" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="32">
+        <v>10</v>
+      </c>
+      <c r="C29" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D29" s="32">
+        <v>25</v>
+      </c>
+      <c r="E29" s="32">
+        <v>25</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0</v>
+      </c>
+      <c r="G29" s="33">
+        <v>28</v>
+      </c>
+      <c r="H29" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="I29" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="32">
+        <v>10</v>
+      </c>
+      <c r="C30" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D30" s="32">
+        <v>25</v>
+      </c>
+      <c r="E30" s="32">
+        <v>25</v>
+      </c>
+      <c r="F30" s="32">
+        <v>0</v>
+      </c>
+      <c r="G30" s="33">
+        <v>29</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="32">
+        <v>10</v>
+      </c>
+      <c r="C31" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D31" s="32">
+        <v>25</v>
+      </c>
+      <c r="E31" s="32">
+        <v>25</v>
+      </c>
+      <c r="F31" s="32">
+        <v>0</v>
+      </c>
+      <c r="G31" s="33">
+        <v>30</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="32">
+        <v>10</v>
+      </c>
+      <c r="C32" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D32" s="32">
+        <v>25</v>
+      </c>
+      <c r="E32" s="32">
+        <v>25</v>
+      </c>
+      <c r="F32" s="32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="33">
+        <v>31</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="32">
+        <v>10</v>
+      </c>
+      <c r="C33" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D33" s="32">
+        <v>25</v>
+      </c>
+      <c r="E33" s="32">
+        <v>25</v>
+      </c>
+      <c r="F33" s="32">
+        <v>0</v>
+      </c>
+      <c r="G33" s="33">
+        <v>32</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="K33" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="32">
+        <v>10</v>
+      </c>
+      <c r="C34" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D34" s="32">
+        <v>25</v>
+      </c>
+      <c r="E34" s="32">
+        <v>25</v>
+      </c>
+      <c r="F34" s="32">
+        <v>0</v>
+      </c>
+      <c r="G34" s="33">
+        <v>33</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="32">
+        <v>10</v>
+      </c>
+      <c r="C35" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D35" s="32">
+        <v>25</v>
+      </c>
+      <c r="E35" s="32">
+        <v>25</v>
+      </c>
+      <c r="F35" s="32">
+        <v>0</v>
+      </c>
+      <c r="G35" s="33">
+        <v>34</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="32">
+        <v>10</v>
+      </c>
+      <c r="C36" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D36" s="32">
+        <v>25</v>
+      </c>
+      <c r="E36" s="32">
+        <v>25</v>
+      </c>
+      <c r="F36" s="32">
+        <v>0</v>
+      </c>
+      <c r="G36" s="33">
+        <v>35</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="32">
+        <v>10</v>
+      </c>
+      <c r="C37" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D37" s="32">
+        <v>25</v>
+      </c>
+      <c r="E37" s="32">
+        <v>25</v>
+      </c>
+      <c r="F37" s="32">
+        <v>0</v>
+      </c>
+      <c r="G37" s="33">
+        <v>36</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="I37" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="L37" s="35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" s="32">
+        <v>10</v>
+      </c>
+      <c r="C38" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D38" s="32">
+        <v>25</v>
+      </c>
+      <c r="E38" s="32">
+        <v>25</v>
+      </c>
+      <c r="F38" s="32">
+        <v>0</v>
+      </c>
+      <c r="G38" s="33">
+        <v>37</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="32">
+        <v>10</v>
+      </c>
+      <c r="C39" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D39" s="32">
+        <v>25</v>
+      </c>
+      <c r="E39" s="32">
+        <v>25</v>
+      </c>
+      <c r="F39" s="32">
+        <v>0</v>
+      </c>
+      <c r="G39" s="33">
+        <v>38</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" s="32">
+        <v>10</v>
+      </c>
+      <c r="C40" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D40" s="32">
+        <v>25</v>
+      </c>
+      <c r="E40" s="32">
+        <v>25</v>
+      </c>
+      <c r="F40" s="32">
+        <v>0</v>
+      </c>
+      <c r="G40" s="33">
+        <v>39</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="K40" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="32">
+        <v>10</v>
+      </c>
+      <c r="C41" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D41" s="32">
+        <v>25</v>
+      </c>
+      <c r="E41" s="32">
+        <v>25</v>
+      </c>
+      <c r="F41" s="32">
+        <v>0</v>
+      </c>
+      <c r="G41" s="33">
+        <v>40</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="32">
+        <v>10</v>
+      </c>
+      <c r="C42" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D42" s="32">
+        <v>25</v>
+      </c>
+      <c r="E42" s="32">
+        <v>25</v>
+      </c>
+      <c r="F42" s="32">
+        <v>0</v>
+      </c>
+      <c r="G42" s="33">
+        <v>41</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K42" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="32">
+        <v>10</v>
+      </c>
+      <c r="C43" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D43" s="32">
+        <v>25</v>
+      </c>
+      <c r="E43" s="32">
+        <v>25</v>
+      </c>
+      <c r="F43" s="32">
+        <v>0</v>
+      </c>
+      <c r="G43" s="33">
+        <v>42</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="32">
+        <v>10</v>
+      </c>
+      <c r="C44" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D44" s="32">
+        <v>25</v>
+      </c>
+      <c r="E44" s="32">
+        <v>25</v>
+      </c>
+      <c r="F44" s="32">
+        <v>0</v>
+      </c>
+      <c r="G44" s="33">
+        <v>43</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J44" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="32">
+        <v>10</v>
+      </c>
+      <c r="C45" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D45" s="32">
+        <v>25</v>
+      </c>
+      <c r="E45" s="32">
+        <v>25</v>
+      </c>
+      <c r="F45" s="32">
+        <v>0</v>
+      </c>
+      <c r="G45" s="33">
+        <v>44</v>
+      </c>
+      <c r="H45" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="32">
+        <v>10</v>
+      </c>
+      <c r="C46" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D46" s="32">
+        <v>25</v>
+      </c>
+      <c r="E46" s="32">
+        <v>25</v>
+      </c>
+      <c r="F46" s="32">
+        <v>0</v>
+      </c>
+      <c r="G46" s="33">
+        <v>45</v>
+      </c>
+      <c r="H46" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="32">
+        <v>10</v>
+      </c>
+      <c r="C47" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D47" s="32">
+        <v>25</v>
+      </c>
+      <c r="E47" s="32">
+        <v>25</v>
+      </c>
+      <c r="F47" s="32">
+        <v>0</v>
+      </c>
+      <c r="G47" s="33">
+        <v>46</v>
+      </c>
+      <c r="H47" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="I47" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="K47" s="35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" s="32">
+        <v>10</v>
+      </c>
+      <c r="C48" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D48" s="32">
+        <v>25</v>
+      </c>
+      <c r="E48" s="32">
+        <v>25</v>
+      </c>
+      <c r="F48" s="32">
+        <v>0</v>
+      </c>
+      <c r="G48" s="33">
+        <v>47</v>
+      </c>
+      <c r="H48" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="K48" s="35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="32">
+        <v>10</v>
+      </c>
+      <c r="C49" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D49" s="32">
+        <v>25</v>
+      </c>
+      <c r="E49" s="32">
+        <v>25</v>
+      </c>
+      <c r="F49" s="32">
+        <v>0</v>
+      </c>
+      <c r="G49" s="33">
+        <v>48</v>
+      </c>
+      <c r="H49" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="I49" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="L49" s="35"/>
+    </row>
+    <row r="50" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="32">
+        <v>10</v>
+      </c>
+      <c r="C50" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D50" s="32">
+        <v>25</v>
+      </c>
+      <c r="E50" s="32">
+        <v>25</v>
+      </c>
+      <c r="F50" s="32">
+        <v>0</v>
+      </c>
+      <c r="G50" s="33">
+        <v>49</v>
+      </c>
+      <c r="H50" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B51" s="32">
+        <v>10</v>
+      </c>
+      <c r="C51" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D51" s="32">
+        <v>25</v>
+      </c>
+      <c r="E51" s="32">
+        <v>25</v>
+      </c>
+      <c r="F51" s="32">
+        <v>0</v>
+      </c>
+      <c r="G51" s="33">
+        <v>50</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I51" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" s="32">
+        <v>10</v>
+      </c>
+      <c r="C52" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D52" s="32">
+        <v>25</v>
+      </c>
+      <c r="E52" s="32">
+        <v>25</v>
+      </c>
+      <c r="F52" s="32">
+        <v>0</v>
+      </c>
+      <c r="G52" s="33">
+        <v>51</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="K52" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" s="32">
+        <v>10</v>
+      </c>
+      <c r="C53" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D53" s="32">
+        <v>25</v>
+      </c>
+      <c r="E53" s="32">
+        <v>25</v>
+      </c>
+      <c r="F53" s="32">
+        <v>0</v>
+      </c>
+      <c r="G53" s="33">
+        <v>52</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="I53" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="K53" s="35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" s="32">
+        <v>10</v>
+      </c>
+      <c r="C54" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D54" s="32">
+        <v>25</v>
+      </c>
+      <c r="E54" s="32">
+        <v>25</v>
+      </c>
+      <c r="F54" s="32">
+        <v>0</v>
+      </c>
+      <c r="G54" s="33">
+        <v>53</v>
+      </c>
+      <c r="H54" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="I54" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J54" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="K54" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="L54" s="41"/>
+    </row>
+    <row r="55" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="32">
+        <v>10</v>
+      </c>
+      <c r="C55" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D55" s="32">
+        <v>25</v>
+      </c>
+      <c r="E55" s="32">
+        <v>25</v>
+      </c>
+      <c r="F55" s="32">
+        <v>0</v>
+      </c>
+      <c r="G55" s="33">
+        <v>54</v>
+      </c>
+      <c r="H55" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J55" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="L55" s="41"/>
+    </row>
+    <row r="56" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56" s="32">
+        <v>10</v>
+      </c>
+      <c r="C56" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D56" s="32">
+        <v>25</v>
+      </c>
+      <c r="E56" s="32">
+        <v>25</v>
+      </c>
+      <c r="F56" s="32">
+        <v>0</v>
+      </c>
+      <c r="G56" s="33">
+        <v>55</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J56" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" s="35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" s="32">
+        <v>10</v>
+      </c>
+      <c r="C57" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D57" s="32">
+        <v>25</v>
+      </c>
+      <c r="E57" s="32">
+        <v>25</v>
+      </c>
+      <c r="F57" s="32">
+        <v>0</v>
+      </c>
+      <c r="G57" s="33">
+        <v>56</v>
+      </c>
+      <c r="H57" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="I57" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="K57" s="35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B58" s="32">
+        <v>10</v>
+      </c>
+      <c r="C58" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D58" s="32">
+        <v>25</v>
+      </c>
+      <c r="E58" s="32">
+        <v>25</v>
+      </c>
+      <c r="F58" s="32">
+        <v>0</v>
+      </c>
+      <c r="G58" s="33">
+        <v>57</v>
+      </c>
+      <c r="H58" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J58" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="K58" s="35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" s="32">
+        <v>10</v>
+      </c>
+      <c r="C59" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D59" s="32">
+        <v>25</v>
+      </c>
+      <c r="E59" s="32">
+        <v>25</v>
+      </c>
+      <c r="F59" s="32">
+        <v>0</v>
+      </c>
+      <c r="G59" s="33">
+        <v>58</v>
+      </c>
+      <c r="H59" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J59" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K59" s="35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" s="32">
+        <v>10</v>
+      </c>
+      <c r="C60" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D60" s="32">
+        <v>25</v>
+      </c>
+      <c r="E60" s="32">
+        <v>25</v>
+      </c>
+      <c r="F60" s="32">
+        <v>0</v>
+      </c>
+      <c r="G60" s="33">
+        <v>59</v>
+      </c>
+      <c r="H60" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="I60" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="J60" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="K60" s="35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" s="32">
+        <v>10</v>
+      </c>
+      <c r="C61" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D61" s="32">
+        <v>25</v>
+      </c>
+      <c r="E61" s="32">
+        <v>25</v>
+      </c>
+      <c r="F61" s="32">
+        <v>0</v>
+      </c>
+      <c r="G61" s="33">
+        <v>60</v>
+      </c>
+      <c r="H61" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="I61" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J61" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="32">
+        <v>10</v>
+      </c>
+      <c r="C62" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D62" s="32">
+        <v>25</v>
+      </c>
+      <c r="E62" s="32">
+        <v>25</v>
+      </c>
+      <c r="F62" s="32">
+        <v>0</v>
+      </c>
+      <c r="G62" s="33">
+        <v>61</v>
+      </c>
+      <c r="H62" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="I62" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J62" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="K62" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B63" s="32">
+        <v>10</v>
+      </c>
+      <c r="C63" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D63" s="32">
+        <v>25</v>
+      </c>
+      <c r="E63" s="32">
+        <v>25</v>
+      </c>
+      <c r="F63" s="32">
+        <v>0</v>
+      </c>
+      <c r="G63" s="33">
+        <v>62</v>
+      </c>
+      <c r="H63" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I63" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J63" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="K63" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="32">
+        <v>10</v>
+      </c>
+      <c r="C64" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D64" s="32">
+        <v>25</v>
+      </c>
+      <c r="E64" s="32">
+        <v>25</v>
+      </c>
+      <c r="F64" s="32">
+        <v>0</v>
+      </c>
+      <c r="G64" s="33">
+        <v>63</v>
+      </c>
+      <c r="H64" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I64" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J64" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="K64" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="32">
+        <v>10</v>
+      </c>
+      <c r="C65" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D65" s="32">
+        <v>25</v>
+      </c>
+      <c r="E65" s="32">
+        <v>25</v>
+      </c>
+      <c r="F65" s="32">
+        <v>0</v>
+      </c>
+      <c r="G65" s="33">
+        <v>64</v>
+      </c>
+      <c r="H65" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="I65" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J65" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65" s="39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="32">
+        <v>10</v>
+      </c>
+      <c r="C66" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D66" s="32">
+        <v>25</v>
+      </c>
+      <c r="E66" s="32">
+        <v>25</v>
+      </c>
+      <c r="F66" s="32">
+        <v>0</v>
+      </c>
+      <c r="G66" s="33">
+        <v>65</v>
+      </c>
+      <c r="H66" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I66" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J66" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="32">
+        <v>10</v>
+      </c>
+      <c r="C67" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D67" s="32">
+        <v>25</v>
+      </c>
+      <c r="E67" s="32">
+        <v>25</v>
+      </c>
+      <c r="F67" s="32">
+        <v>0</v>
+      </c>
+      <c r="G67" s="33">
+        <v>66</v>
+      </c>
+      <c r="H67" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="I67" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J67" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="K67" s="35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="32">
+        <v>10</v>
+      </c>
+      <c r="C68" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D68" s="32">
+        <v>25</v>
+      </c>
+      <c r="E68" s="32">
+        <v>25</v>
+      </c>
+      <c r="F68" s="32">
+        <v>0</v>
+      </c>
+      <c r="G68" s="33">
+        <v>67</v>
+      </c>
+      <c r="H68" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I68" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J68" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K68" s="35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="32">
+        <v>10</v>
+      </c>
+      <c r="C69" s="32">
+        <v>2022</v>
+      </c>
+      <c r="D69" s="32">
+        <v>25</v>
+      </c>
+      <c r="E69" s="32">
+        <v>25</v>
+      </c>
+      <c r="F69" s="32">
+        <v>0</v>
+      </c>
+      <c r="G69" s="33">
+        <v>68</v>
+      </c>
+      <c r="H69" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="I69" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J69" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69" s="35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
+    <sortCondition ref="K2:K69"/>
+    <sortCondition ref="J2:J69"/>
+  </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4E05F1-FF40-402E-9115-A6DB7BBA54CF}">
+  <dimension ref="A1:L46"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.81640625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="9.7265625" customWidth="1"/>
+    <col min="4" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="21.26953125" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" customWidth="1"/>
+    <col min="9" max="9" width="24.453125" customWidth="1"/>
+    <col min="10" max="10" width="27.7265625" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="22.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="55">
+        <v>9</v>
+      </c>
+      <c r="C2" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="55">
+        <v>26</v>
+      </c>
+      <c r="E2" s="55">
+        <v>26</v>
+      </c>
+      <c r="F2" s="55">
+        <v>0</v>
+      </c>
+      <c r="G2" s="55">
+        <v>2</v>
+      </c>
+      <c r="H2" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="53" t="s">
+      <c r="I2" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="54" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="s">
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="55">
         <v>9</v>
       </c>
-      <c r="C3" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D3" s="47">
-        <v>26</v>
-      </c>
-      <c r="E3" s="47">
-        <v>26</v>
-      </c>
-      <c r="F3" s="47">
-        <v>0</v>
-      </c>
-      <c r="G3" s="48">
+      <c r="C3" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D3" s="55">
+        <v>26</v>
+      </c>
+      <c r="E3" s="55">
+        <v>26</v>
+      </c>
+      <c r="F3" s="55">
+        <v>0</v>
+      </c>
+      <c r="G3" s="55">
         <v>3</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="54" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="52" t="s">
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="55">
         <v>9</v>
       </c>
-      <c r="C4" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D4" s="47">
-        <v>26</v>
-      </c>
-      <c r="E4" s="47">
-        <v>26</v>
-      </c>
-      <c r="F4" s="47">
-        <v>0</v>
-      </c>
-      <c r="G4" s="48">
+      <c r="C4" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="55">
+        <v>26</v>
+      </c>
+      <c r="E4" s="55">
+        <v>26</v>
+      </c>
+      <c r="F4" s="55">
+        <v>0</v>
+      </c>
+      <c r="G4" s="55">
         <v>4</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="53" t="s">
+      <c r="I4" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="54" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46" t="s">
+      <c r="K4" s="56"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="55">
         <v>9</v>
       </c>
-      <c r="C5" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D5" s="47">
-        <v>26</v>
-      </c>
-      <c r="E5" s="47">
-        <v>26</v>
-      </c>
-      <c r="F5" s="47">
-        <v>0</v>
-      </c>
-      <c r="G5" s="48">
+      <c r="C5" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="55">
+        <v>26</v>
+      </c>
+      <c r="E5" s="55">
+        <v>26</v>
+      </c>
+      <c r="F5" s="55">
+        <v>0</v>
+      </c>
+      <c r="G5" s="55">
         <v>7</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="49" t="s">
+      <c r="I5" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="54" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46" t="s">
+      <c r="K5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="55">
         <v>9</v>
       </c>
-      <c r="C6" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D6" s="47">
-        <v>26</v>
-      </c>
-      <c r="E6" s="47">
-        <v>26</v>
-      </c>
-      <c r="F6" s="47">
-        <v>0</v>
-      </c>
-      <c r="G6" s="48">
+      <c r="C6" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D6" s="55">
+        <v>26</v>
+      </c>
+      <c r="E6" s="55">
+        <v>26</v>
+      </c>
+      <c r="F6" s="55">
+        <v>0</v>
+      </c>
+      <c r="G6" s="55">
         <v>8</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="49" t="s">
+      <c r="I6" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="K6" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="L6" s="50"/>
-    </row>
-    <row r="7" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+      <c r="K6" s="56"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="55">
         <v>9</v>
       </c>
-      <c r="C7" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D7" s="47">
-        <v>26</v>
-      </c>
-      <c r="E7" s="47">
-        <v>26</v>
-      </c>
-      <c r="F7" s="47">
-        <v>0</v>
-      </c>
-      <c r="G7" s="48">
-        <v>10</v>
-      </c>
-      <c r="H7" s="49" t="s">
+      <c r="C7" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="55">
+        <v>26</v>
+      </c>
+      <c r="E7" s="55">
+        <v>26</v>
+      </c>
+      <c r="F7" s="55">
+        <v>0</v>
+      </c>
+      <c r="G7" s="55">
+        <v>10</v>
+      </c>
+      <c r="H7" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="K7" s="54" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="46" t="s">
+      <c r="K7" s="56"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="55">
         <v>9</v>
       </c>
-      <c r="C8" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D8" s="47">
-        <v>26</v>
-      </c>
-      <c r="E8" s="47">
-        <v>26</v>
-      </c>
-      <c r="F8" s="47">
-        <v>0</v>
-      </c>
-      <c r="G8" s="48">
+      <c r="C8" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="55">
+        <v>26</v>
+      </c>
+      <c r="E8" s="55">
+        <v>26</v>
+      </c>
+      <c r="F8" s="55">
+        <v>0</v>
+      </c>
+      <c r="G8" s="55">
         <v>12</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="I8" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="49" t="s">
+      <c r="I8" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="54" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="K8" s="56"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="55">
         <v>9</v>
       </c>
-      <c r="C9" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D9" s="47">
-        <v>26</v>
-      </c>
-      <c r="E9" s="47">
-        <v>26</v>
-      </c>
-      <c r="F9" s="47">
-        <v>0</v>
-      </c>
-      <c r="G9" s="48">
+      <c r="C9" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="55">
+        <v>26</v>
+      </c>
+      <c r="E9" s="55">
+        <v>26</v>
+      </c>
+      <c r="F9" s="55">
+        <v>0</v>
+      </c>
+      <c r="G9" s="55">
         <v>14</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="I9" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="49" t="s">
+      <c r="I9" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="54" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
+      <c r="K9" s="56"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="55">
         <v>9</v>
       </c>
-      <c r="C10" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D10" s="47">
-        <v>26</v>
-      </c>
-      <c r="E10" s="47">
-        <v>26</v>
-      </c>
-      <c r="F10" s="47">
-        <v>0</v>
-      </c>
-      <c r="G10" s="48">
+      <c r="C10" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="55">
+        <v>26</v>
+      </c>
+      <c r="E10" s="55">
+        <v>26</v>
+      </c>
+      <c r="F10" s="55">
+        <v>0</v>
+      </c>
+      <c r="G10" s="55">
         <v>15</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="49" t="s">
+      <c r="I10" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="K10" s="54" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
+      <c r="K10" s="56"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="55">
         <v>9</v>
       </c>
-      <c r="C11" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D11" s="47">
-        <v>26</v>
-      </c>
-      <c r="E11" s="47">
-        <v>26</v>
-      </c>
-      <c r="F11" s="47">
-        <v>0</v>
-      </c>
-      <c r="G11" s="48">
+      <c r="C11" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="55">
+        <v>26</v>
+      </c>
+      <c r="E11" s="55">
+        <v>26</v>
+      </c>
+      <c r="F11" s="55">
+        <v>0</v>
+      </c>
+      <c r="G11" s="55">
         <v>16</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="54" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46" t="s">
+      <c r="K11" s="56"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="55">
         <v>9</v>
       </c>
-      <c r="C12" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D12" s="47">
-        <v>26</v>
-      </c>
-      <c r="E12" s="47">
-        <v>26</v>
-      </c>
-      <c r="F12" s="47">
-        <v>0</v>
-      </c>
-      <c r="G12" s="48">
+      <c r="C12" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D12" s="55">
+        <v>26</v>
+      </c>
+      <c r="E12" s="55">
+        <v>26</v>
+      </c>
+      <c r="F12" s="55">
+        <v>0</v>
+      </c>
+      <c r="G12" s="55">
         <v>22</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="49" t="s">
+      <c r="I12" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="54" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="46" t="s">
+      <c r="K12" s="56"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="55">
         <v>9</v>
       </c>
-      <c r="C13" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D13" s="47">
-        <v>26</v>
-      </c>
-      <c r="E13" s="47">
-        <v>26</v>
-      </c>
-      <c r="F13" s="47">
-        <v>0</v>
-      </c>
-      <c r="G13" s="48">
+      <c r="C13" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="55">
+        <v>26</v>
+      </c>
+      <c r="E13" s="55">
+        <v>26</v>
+      </c>
+      <c r="F13" s="55">
+        <v>0</v>
+      </c>
+      <c r="G13" s="55">
         <v>23</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="49" t="s">
+      <c r="I13" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="54" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="46" t="s">
+      <c r="K13" s="56"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="55">
         <v>9</v>
       </c>
-      <c r="C14" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D14" s="47">
-        <v>26</v>
-      </c>
-      <c r="E14" s="47">
-        <v>26</v>
-      </c>
-      <c r="F14" s="47">
-        <v>0</v>
-      </c>
-      <c r="G14" s="48">
+      <c r="C14" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="55">
+        <v>26</v>
+      </c>
+      <c r="E14" s="55">
+        <v>26</v>
+      </c>
+      <c r="F14" s="55">
+        <v>0</v>
+      </c>
+      <c r="G14" s="55">
         <v>32</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="49" t="s">
+      <c r="I14" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="K14" s="50" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46" t="s">
+      <c r="K14" s="56"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="55">
         <v>9</v>
       </c>
-      <c r="C15" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D15" s="47">
-        <v>26</v>
-      </c>
-      <c r="E15" s="47">
-        <v>26</v>
-      </c>
-      <c r="F15" s="47">
-        <v>0</v>
-      </c>
-      <c r="G15" s="48">
+      <c r="C15" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="55">
+        <v>26</v>
+      </c>
+      <c r="E15" s="55">
+        <v>26</v>
+      </c>
+      <c r="F15" s="55">
+        <v>0</v>
+      </c>
+      <c r="G15" s="55">
         <v>33</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="50" t="s">
-        <v>225</v>
-      </c>
+      <c r="I15" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="56"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="55">
         <v>9</v>
       </c>
-      <c r="C16" s="40">
-        <v>2022</v>
-      </c>
-      <c r="D16" s="40">
-        <v>26</v>
-      </c>
-      <c r="E16" s="40">
-        <v>26</v>
-      </c>
-      <c r="F16" s="40">
-        <v>0</v>
-      </c>
-      <c r="G16" s="41">
+      <c r="C16" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="55">
+        <v>26</v>
+      </c>
+      <c r="E16" s="55">
+        <v>26</v>
+      </c>
+      <c r="F16" s="55">
+        <v>0</v>
+      </c>
+      <c r="G16" s="55">
         <v>34</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="I16" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="42" t="s">
+      <c r="I16" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="43" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="46" t="s">
+      <c r="K16" s="56"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="55">
         <v>9</v>
       </c>
-      <c r="C17" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D17" s="47">
-        <v>26</v>
-      </c>
-      <c r="E17" s="47">
-        <v>26</v>
-      </c>
-      <c r="F17" s="47">
-        <v>0</v>
-      </c>
-      <c r="G17" s="48">
+      <c r="C17" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="55">
+        <v>26</v>
+      </c>
+      <c r="E17" s="55">
+        <v>26</v>
+      </c>
+      <c r="F17" s="55">
+        <v>0</v>
+      </c>
+      <c r="G17" s="55">
         <v>39</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="I17" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="49" t="s">
+      <c r="I17" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="K17" s="50" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="46" t="s">
+      <c r="K17" s="56"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="55">
         <v>9</v>
       </c>
-      <c r="C18" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D18" s="47">
-        <v>26</v>
-      </c>
-      <c r="E18" s="47">
-        <v>26</v>
-      </c>
-      <c r="F18" s="47">
-        <v>0</v>
-      </c>
-      <c r="G18" s="48">
+      <c r="C18" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="55">
+        <v>26</v>
+      </c>
+      <c r="E18" s="55">
+        <v>26</v>
+      </c>
+      <c r="F18" s="55">
+        <v>0</v>
+      </c>
+      <c r="G18" s="55">
         <v>41</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="49" t="s">
+      <c r="I18" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="K18" s="50" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="46" t="s">
+      <c r="K18" s="56"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="55">
         <v>9</v>
       </c>
-      <c r="C19" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D19" s="47">
-        <v>26</v>
-      </c>
-      <c r="E19" s="47">
-        <v>26</v>
-      </c>
-      <c r="F19" s="47">
-        <v>0</v>
-      </c>
-      <c r="G19" s="48">
+      <c r="C19" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="55">
+        <v>26</v>
+      </c>
+      <c r="E19" s="55">
+        <v>26</v>
+      </c>
+      <c r="F19" s="55">
+        <v>0</v>
+      </c>
+      <c r="G19" s="55">
         <v>42</v>
       </c>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="49" t="s">
+      <c r="I19" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="50" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="46" t="s">
+      <c r="K19" s="56"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="55">
         <v>9</v>
       </c>
-      <c r="C20" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D20" s="47">
-        <v>26</v>
-      </c>
-      <c r="E20" s="47">
-        <v>26</v>
-      </c>
-      <c r="F20" s="47">
-        <v>0</v>
-      </c>
-      <c r="G20" s="48">
+      <c r="C20" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="55">
+        <v>26</v>
+      </c>
+      <c r="E20" s="55">
+        <v>26</v>
+      </c>
+      <c r="F20" s="55">
+        <v>0</v>
+      </c>
+      <c r="G20" s="55">
         <v>46</v>
       </c>
-      <c r="H20" s="49" t="s">
+      <c r="H20" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="55" t="s">
+      <c r="I20" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="J20" s="49" t="s">
+      <c r="J20" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="50" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="46" t="s">
+      <c r="K20" s="56"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="55">
         <v>9</v>
       </c>
-      <c r="C21" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D21" s="47">
-        <v>26</v>
-      </c>
-      <c r="E21" s="47">
-        <v>26</v>
-      </c>
-      <c r="F21" s="47">
-        <v>0</v>
-      </c>
-      <c r="G21" s="48">
+      <c r="C21" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D21" s="55">
+        <v>26</v>
+      </c>
+      <c r="E21" s="55">
+        <v>26</v>
+      </c>
+      <c r="F21" s="55">
+        <v>0</v>
+      </c>
+      <c r="G21" s="55">
         <v>49</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="49" t="s">
+      <c r="J21" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="50" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="46" t="s">
+      <c r="K21" s="56"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="55">
         <v>9</v>
       </c>
-      <c r="C22" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D22" s="47">
-        <v>26</v>
-      </c>
-      <c r="E22" s="47">
-        <v>26</v>
-      </c>
-      <c r="F22" s="47">
-        <v>0</v>
-      </c>
-      <c r="G22" s="48">
+      <c r="C22" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D22" s="55">
+        <v>26</v>
+      </c>
+      <c r="E22" s="55">
+        <v>26</v>
+      </c>
+      <c r="F22" s="55">
+        <v>0</v>
+      </c>
+      <c r="G22" s="55">
         <v>52</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="I22" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="49" t="s">
+      <c r="I22" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="K22" s="50" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="46" t="s">
+      <c r="K22" s="56"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="55">
         <v>9</v>
       </c>
-      <c r="C23" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D23" s="47">
-        <v>26</v>
-      </c>
-      <c r="E23" s="47">
-        <v>26</v>
-      </c>
-      <c r="F23" s="47">
-        <v>0</v>
-      </c>
-      <c r="G23" s="48">
+      <c r="C23" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D23" s="55">
+        <v>26</v>
+      </c>
+      <c r="E23" s="55">
+        <v>26</v>
+      </c>
+      <c r="F23" s="55">
+        <v>0</v>
+      </c>
+      <c r="G23" s="55">
         <v>54</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="49" t="s">
+      <c r="I23" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="49" t="s">
+      <c r="J23" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="L23" s="56"/>
-    </row>
-    <row r="24" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="46" t="s">
+      <c r="K23" s="56"/>
+      <c r="L23" s="59"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B24" s="55">
         <v>9</v>
       </c>
-      <c r="C24" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D24" s="47">
-        <v>26</v>
-      </c>
-      <c r="E24" s="47">
-        <v>26</v>
-      </c>
-      <c r="F24" s="47">
-        <v>0</v>
-      </c>
-      <c r="G24" s="48">
+      <c r="C24" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="55">
+        <v>26</v>
+      </c>
+      <c r="E24" s="55">
+        <v>26</v>
+      </c>
+      <c r="F24" s="55">
+        <v>0</v>
+      </c>
+      <c r="G24" s="55">
         <v>55</v>
       </c>
-      <c r="H24" s="49" t="s">
+      <c r="H24" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="I24" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="49" t="s">
+      <c r="I24" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="50" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="58" t="s">
+      <c r="K24" s="56"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="55">
         <v>9</v>
       </c>
-      <c r="C25" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D25" s="47">
-        <v>26</v>
-      </c>
-      <c r="E25" s="47">
-        <v>26</v>
-      </c>
-      <c r="F25" s="47">
-        <v>0</v>
-      </c>
-      <c r="G25" s="48">
-        <v>56</v>
-      </c>
-      <c r="H25" s="49" t="s">
+      <c r="C25" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D25" s="55">
+        <v>26</v>
+      </c>
+      <c r="E25" s="55">
+        <v>26</v>
+      </c>
+      <c r="F25" s="55">
+        <v>0</v>
+      </c>
+      <c r="G25" s="55">
+        <v>56</v>
+      </c>
+      <c r="H25" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="I25" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25" s="49" t="s">
+      <c r="I25" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="K25" s="50" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="46" t="s">
+      <c r="K25" s="56"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="55">
         <v>9</v>
       </c>
-      <c r="C26" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D26" s="47">
-        <v>26</v>
-      </c>
-      <c r="E26" s="47">
-        <v>26</v>
-      </c>
-      <c r="F26" s="47">
-        <v>0</v>
-      </c>
-      <c r="G26" s="48">
+      <c r="C26" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D26" s="55">
+        <v>26</v>
+      </c>
+      <c r="E26" s="55">
+        <v>26</v>
+      </c>
+      <c r="F26" s="55">
+        <v>0</v>
+      </c>
+      <c r="G26" s="55">
         <v>57</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="H26" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="49" t="s">
+      <c r="I26" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="K26" s="50" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="46" t="s">
+      <c r="K26" s="56"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="55">
         <v>9</v>
       </c>
-      <c r="C27" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D27" s="47">
-        <v>26</v>
-      </c>
-      <c r="E27" s="47">
-        <v>26</v>
-      </c>
-      <c r="F27" s="47">
-        <v>0</v>
-      </c>
-      <c r="G27" s="48">
+      <c r="C27" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D27" s="55">
+        <v>26</v>
+      </c>
+      <c r="E27" s="55">
+        <v>26</v>
+      </c>
+      <c r="F27" s="55">
+        <v>0</v>
+      </c>
+      <c r="G27" s="55">
         <v>58</v>
       </c>
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="I27" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" s="49" t="s">
+      <c r="I27" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="50" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46" t="s">
+      <c r="K27" s="56"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="55">
         <v>9</v>
       </c>
-      <c r="C28" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D28" s="47">
-        <v>26</v>
-      </c>
-      <c r="E28" s="47">
-        <v>26</v>
-      </c>
-      <c r="F28" s="47">
-        <v>0</v>
-      </c>
-      <c r="G28" s="48">
+      <c r="C28" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D28" s="55">
+        <v>26</v>
+      </c>
+      <c r="E28" s="55">
+        <v>26</v>
+      </c>
+      <c r="F28" s="55">
+        <v>0</v>
+      </c>
+      <c r="G28" s="55">
         <v>59</v>
       </c>
-      <c r="H28" s="57" t="s">
+      <c r="H28" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="I28" s="57" t="s">
+      <c r="I28" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="57" t="s">
+      <c r="J28" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="K28" s="50" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="46" t="s">
+      <c r="K28" s="56"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="47">
+      <c r="B29" s="55">
         <v>9</v>
       </c>
-      <c r="C29" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D29" s="47">
-        <v>26</v>
-      </c>
-      <c r="E29" s="47">
-        <v>26</v>
-      </c>
-      <c r="F29" s="47">
-        <v>0</v>
-      </c>
-      <c r="G29" s="48">
+      <c r="C29" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D29" s="55">
+        <v>26</v>
+      </c>
+      <c r="E29" s="55">
+        <v>26</v>
+      </c>
+      <c r="F29" s="55">
+        <v>0</v>
+      </c>
+      <c r="G29" s="55">
         <v>62</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="I29" s="49" t="s">
+      <c r="I29" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="J29" s="49" t="s">
+      <c r="J29" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K29" s="50" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="46" t="s">
+      <c r="K29" s="56"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30" s="55">
         <v>9</v>
       </c>
-      <c r="C30" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D30" s="47">
-        <v>26</v>
-      </c>
-      <c r="E30" s="47">
-        <v>26</v>
-      </c>
-      <c r="F30" s="47">
-        <v>0</v>
-      </c>
-      <c r="G30" s="48">
+      <c r="C30" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D30" s="55">
+        <v>26</v>
+      </c>
+      <c r="E30" s="55">
+        <v>26</v>
+      </c>
+      <c r="F30" s="55">
+        <v>0</v>
+      </c>
+      <c r="G30" s="55">
         <v>63</v>
       </c>
-      <c r="H30" s="49" t="s">
+      <c r="H30" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="49" t="s">
+      <c r="I30" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="50" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="46" t="s">
+      <c r="K30" s="56"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="B31" s="47">
+      <c r="B31" s="55">
         <v>9</v>
       </c>
-      <c r="C31" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D31" s="47">
-        <v>26</v>
-      </c>
-      <c r="E31" s="47">
-        <v>26</v>
-      </c>
-      <c r="F31" s="47">
-        <v>0</v>
-      </c>
-      <c r="G31" s="48">
+      <c r="C31" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D31" s="55">
+        <v>26</v>
+      </c>
+      <c r="E31" s="55">
+        <v>26</v>
+      </c>
+      <c r="F31" s="55">
+        <v>0</v>
+      </c>
+      <c r="G31" s="55">
         <v>65</v>
       </c>
-      <c r="H31" s="49" t="s">
+      <c r="H31" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J31" s="49" t="s">
+      <c r="I31" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="46" t="s">
+      <c r="K31" s="56"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="B32" s="47">
+      <c r="B32" s="55">
         <v>9</v>
       </c>
-      <c r="C32" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D32" s="47">
-        <v>26</v>
-      </c>
-      <c r="E32" s="47">
-        <v>26</v>
-      </c>
-      <c r="F32" s="47">
-        <v>0</v>
-      </c>
-      <c r="G32" s="48">
+      <c r="C32" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D32" s="55">
+        <v>26</v>
+      </c>
+      <c r="E32" s="55">
+        <v>26</v>
+      </c>
+      <c r="F32" s="55">
+        <v>0</v>
+      </c>
+      <c r="G32" s="55">
         <v>66</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="H32" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="I32" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" s="49" t="s">
+      <c r="I32" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="K32" s="50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="46" t="s">
+      <c r="K32" s="56"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="47">
+      <c r="B33" s="55">
         <v>9</v>
       </c>
-      <c r="C33" s="47">
-        <v>2022</v>
-      </c>
-      <c r="D33" s="47">
-        <v>26</v>
-      </c>
-      <c r="E33" s="47">
-        <v>26</v>
-      </c>
-      <c r="F33" s="47">
-        <v>0</v>
-      </c>
-      <c r="G33" s="48">
+      <c r="C33" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D33" s="55">
+        <v>26</v>
+      </c>
+      <c r="E33" s="55">
+        <v>26</v>
+      </c>
+      <c r="F33" s="55">
+        <v>0</v>
+      </c>
+      <c r="G33" s="55">
         <v>68</v>
       </c>
-      <c r="H33" s="49" t="s">
+      <c r="H33" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="I33" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="49" t="s">
+      <c r="I33" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="50" t="s">
-        <v>232</v>
-      </c>
+      <c r="K33" s="56"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H36">
@@ -7285,77 +8287,77 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="A40" s="37"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
       <c r="H40">
         <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="A41" s="38"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
       <c r="H41">
         <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="A42" s="38"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
       <c r="H42">
         <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="A43" s="38"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
     </row>
     <row r="44" spans="1:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="A44" s="38"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
       <c r="H44">
         <f>SUM(H36:H42)</f>
         <v>568</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="A45" s="38"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="H45" s="45">
+      <c r="A45" s="29"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="H45" s="30">
         <f>H44/7</f>
         <v>81.142857142857139</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="A46" s="37"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7364,11 +8366,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0CADD8-1F8D-4423-BE8A-07ABED74AB3B}">
-  <dimension ref="A1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67408249-0406-4F93-9E64-0A63DB7B84E6}">
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7403,563 +8405,1047 @@
       <c r="F1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H1" s="68" t="s">
-        <v>244</v>
-      </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-    </row>
-    <row r="2" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="28">
+      <c r="I1" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="55">
+        <v>10</v>
+      </c>
+      <c r="C2" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="55">
+        <v>25</v>
+      </c>
+      <c r="E2" s="55">
+        <v>25</v>
+      </c>
+      <c r="F2" s="55">
+        <v>0</v>
+      </c>
+      <c r="G2" s="64">
+        <v>1</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="55">
+        <v>10</v>
+      </c>
+      <c r="C3" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D3" s="55">
+        <v>25</v>
+      </c>
+      <c r="E3" s="55">
+        <v>25</v>
+      </c>
+      <c r="F3" s="55">
+        <v>0</v>
+      </c>
+      <c r="G3" s="64">
+        <v>2</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="55">
+        <v>10</v>
+      </c>
+      <c r="C4" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="55">
+        <v>25</v>
+      </c>
+      <c r="E4" s="55">
+        <v>25</v>
+      </c>
+      <c r="F4" s="55">
+        <v>0</v>
+      </c>
+      <c r="G4" s="64">
+        <v>3</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="55">
+        <v>10</v>
+      </c>
+      <c r="C5" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="55">
+        <v>25</v>
+      </c>
+      <c r="E5" s="55">
+        <v>25</v>
+      </c>
+      <c r="F5" s="55">
+        <v>0</v>
+      </c>
+      <c r="G5" s="64">
+        <v>4</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="55">
+        <v>10</v>
+      </c>
+      <c r="C6" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D6" s="55">
+        <v>25</v>
+      </c>
+      <c r="E6" s="55">
+        <v>25</v>
+      </c>
+      <c r="F6" s="55">
+        <v>0</v>
+      </c>
+      <c r="G6" s="64">
+        <v>5</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="55">
+        <v>10</v>
+      </c>
+      <c r="C7" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="55">
+        <v>25</v>
+      </c>
+      <c r="E7" s="55">
+        <v>25</v>
+      </c>
+      <c r="F7" s="55">
+        <v>0</v>
+      </c>
+      <c r="G7" s="64">
+        <v>6</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="55">
+        <v>10</v>
+      </c>
+      <c r="C8" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="55">
+        <v>25</v>
+      </c>
+      <c r="E8" s="55">
+        <v>25</v>
+      </c>
+      <c r="F8" s="55">
+        <v>0</v>
+      </c>
+      <c r="G8" s="64">
         <v>7</v>
       </c>
-      <c r="C2" s="28">
-        <v>2022</v>
-      </c>
-      <c r="D2" s="28">
-        <v>25</v>
-      </c>
-      <c r="E2" s="28">
-        <v>25</v>
-      </c>
-      <c r="F2" s="28">
-        <v>0</v>
-      </c>
-      <c r="G2" s="29">
-        <v>1</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="30" t="s">
+      <c r="H8" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="I8" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="55">
+        <v>10</v>
+      </c>
+      <c r="C9" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="55">
+        <v>25</v>
+      </c>
+      <c r="E9" s="55">
+        <v>25</v>
+      </c>
+      <c r="F9" s="55">
+        <v>0</v>
+      </c>
+      <c r="G9" s="64">
+        <v>8</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="I9" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="28">
-        <v>7</v>
-      </c>
-      <c r="C3" s="28">
-        <v>2022</v>
-      </c>
-      <c r="D3" s="28">
-        <v>25</v>
-      </c>
-      <c r="E3" s="28">
-        <v>25</v>
-      </c>
-      <c r="F3" s="28">
-        <v>0</v>
-      </c>
-      <c r="G3" s="29">
-        <v>2</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="28">
-        <v>7</v>
-      </c>
-      <c r="C4" s="28">
-        <v>2022</v>
-      </c>
-      <c r="D4" s="28">
-        <v>25</v>
-      </c>
-      <c r="E4" s="28">
-        <v>25</v>
-      </c>
-      <c r="F4" s="28">
-        <v>0</v>
-      </c>
-      <c r="G4" s="29">
-        <v>3</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" s="30" t="s">
+      <c r="J9" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="55">
+        <v>10</v>
+      </c>
+      <c r="C10" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="55">
+        <v>25</v>
+      </c>
+      <c r="E10" s="55">
+        <v>25</v>
+      </c>
+      <c r="F10" s="55">
+        <v>0</v>
+      </c>
+      <c r="G10" s="64">
+        <v>9</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="55">
+        <v>10</v>
+      </c>
+      <c r="C11" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="55">
+        <v>25</v>
+      </c>
+      <c r="E11" s="55">
+        <v>25</v>
+      </c>
+      <c r="F11" s="55">
+        <v>0</v>
+      </c>
+      <c r="G11" s="64">
+        <v>10</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="55">
+        <v>10</v>
+      </c>
+      <c r="C12" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D12" s="55">
+        <v>25</v>
+      </c>
+      <c r="E12" s="55">
+        <v>25</v>
+      </c>
+      <c r="F12" s="55">
+        <v>0</v>
+      </c>
+      <c r="G12" s="64">
+        <v>11</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="55">
+        <v>10</v>
+      </c>
+      <c r="C13" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="55">
+        <v>25</v>
+      </c>
+      <c r="E13" s="55">
+        <v>25</v>
+      </c>
+      <c r="F13" s="55">
+        <v>0</v>
+      </c>
+      <c r="G13" s="64">
+        <v>12</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K13" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="55">
+        <v>10</v>
+      </c>
+      <c r="C14" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="55">
+        <v>25</v>
+      </c>
+      <c r="E14" s="55">
+        <v>25</v>
+      </c>
+      <c r="F14" s="55">
+        <v>0</v>
+      </c>
+      <c r="G14" s="64">
+        <v>13</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="55">
+        <v>10</v>
+      </c>
+      <c r="C15" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="55">
+        <v>25</v>
+      </c>
+      <c r="E15" s="55">
+        <v>25</v>
+      </c>
+      <c r="F15" s="55">
+        <v>0</v>
+      </c>
+      <c r="G15" s="64">
+        <v>14</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="55">
+        <v>10</v>
+      </c>
+      <c r="C16" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="55">
+        <v>25</v>
+      </c>
+      <c r="E16" s="55">
+        <v>25</v>
+      </c>
+      <c r="F16" s="55">
+        <v>0</v>
+      </c>
+      <c r="G16" s="64">
+        <v>15</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="55">
+        <v>10</v>
+      </c>
+      <c r="C17" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="55">
+        <v>25</v>
+      </c>
+      <c r="E17" s="55">
+        <v>25</v>
+      </c>
+      <c r="F17" s="55">
+        <v>0</v>
+      </c>
+      <c r="G17" s="64">
+        <v>16</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="55">
+        <v>10</v>
+      </c>
+      <c r="C18" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="55">
+        <v>25</v>
+      </c>
+      <c r="E18" s="55">
+        <v>25</v>
+      </c>
+      <c r="F18" s="55">
+        <v>0</v>
+      </c>
+      <c r="G18" s="64">
+        <v>17</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="55">
+        <v>10</v>
+      </c>
+      <c r="C19" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="55">
+        <v>25</v>
+      </c>
+      <c r="E19" s="55">
+        <v>25</v>
+      </c>
+      <c r="F19" s="55">
+        <v>0</v>
+      </c>
+      <c r="G19" s="64">
+        <v>18</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="28">
-        <v>7</v>
-      </c>
-      <c r="C5" s="28">
-        <v>2022</v>
-      </c>
-      <c r="D5" s="28">
-        <v>25</v>
-      </c>
-      <c r="E5" s="28">
-        <v>25</v>
-      </c>
-      <c r="F5" s="28">
-        <v>0</v>
-      </c>
-      <c r="G5" s="29">
-        <v>4</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="30" t="s">
+      <c r="J19" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="55">
+        <v>10</v>
+      </c>
+      <c r="C20" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="55">
+        <v>25</v>
+      </c>
+      <c r="E20" s="55">
+        <v>25</v>
+      </c>
+      <c r="F20" s="55">
+        <v>0</v>
+      </c>
+      <c r="G20" s="64">
+        <v>19</v>
+      </c>
+      <c r="H20" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="67" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="55">
+        <v>10</v>
+      </c>
+      <c r="C21" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D21" s="55">
+        <v>25</v>
+      </c>
+      <c r="E21" s="55">
+        <v>25</v>
+      </c>
+      <c r="F21" s="55">
+        <v>0</v>
+      </c>
+      <c r="G21" s="64">
+        <v>20</v>
+      </c>
+      <c r="H21" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="67" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="55">
+        <v>10</v>
+      </c>
+      <c r="C22" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D22" s="55">
+        <v>25</v>
+      </c>
+      <c r="E22" s="55">
+        <v>25</v>
+      </c>
+      <c r="F22" s="55">
+        <v>0</v>
+      </c>
+      <c r="G22" s="64">
+        <v>21</v>
+      </c>
+      <c r="H22" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" s="67" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="55">
+        <v>10</v>
+      </c>
+      <c r="C23" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D23" s="55">
+        <v>25</v>
+      </c>
+      <c r="E23" s="55">
+        <v>25</v>
+      </c>
+      <c r="F23" s="55">
+        <v>0</v>
+      </c>
+      <c r="G23" s="64">
+        <v>22</v>
+      </c>
+      <c r="H23" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="28">
-        <v>7</v>
-      </c>
-      <c r="C6" s="28">
-        <v>2022</v>
-      </c>
-      <c r="D6" s="28">
-        <v>25</v>
-      </c>
-      <c r="E6" s="28">
-        <v>25</v>
-      </c>
-      <c r="F6" s="28">
-        <v>0</v>
-      </c>
-      <c r="G6" s="29">
-        <v>5</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="28">
-        <v>7</v>
-      </c>
-      <c r="C7" s="28">
-        <v>2022</v>
-      </c>
-      <c r="D7" s="28">
-        <v>25</v>
-      </c>
-      <c r="E7" s="28">
-        <v>25</v>
-      </c>
-      <c r="F7" s="28">
-        <v>0</v>
-      </c>
-      <c r="G7" s="29">
-        <v>6</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="28">
-        <v>7</v>
-      </c>
-      <c r="C8" s="28">
-        <v>2022</v>
-      </c>
-      <c r="D8" s="28">
-        <v>25</v>
-      </c>
-      <c r="E8" s="28">
-        <v>25</v>
-      </c>
-      <c r="F8" s="28">
-        <v>0</v>
-      </c>
-      <c r="G8" s="29">
-        <v>7</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" s="30" t="s">
+      <c r="J23" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="65" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="55">
+        <v>10</v>
+      </c>
+      <c r="C24" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="55">
+        <v>25</v>
+      </c>
+      <c r="E24" s="55">
+        <v>25</v>
+      </c>
+      <c r="F24" s="55">
+        <v>0</v>
+      </c>
+      <c r="G24" s="64">
+        <v>23</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="67" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="55">
+        <v>10</v>
+      </c>
+      <c r="C25" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D25" s="55">
+        <v>25</v>
+      </c>
+      <c r="E25" s="55">
+        <v>25</v>
+      </c>
+      <c r="F25" s="55">
+        <v>0</v>
+      </c>
+      <c r="G25" s="64">
+        <v>24</v>
+      </c>
+      <c r="H25" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="28">
-        <v>7</v>
-      </c>
-      <c r="C9" s="28">
-        <v>2022</v>
-      </c>
-      <c r="D9" s="28">
-        <v>25</v>
-      </c>
-      <c r="E9" s="28">
-        <v>25</v>
-      </c>
-      <c r="F9" s="28">
-        <v>0</v>
-      </c>
-      <c r="G9" s="29">
-        <v>8</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="31" t="s">
+      <c r="J25" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="67" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="28">
-        <v>7</v>
-      </c>
-      <c r="C10" s="28">
-        <v>2022</v>
-      </c>
-      <c r="D10" s="28">
-        <v>25</v>
-      </c>
-      <c r="E10" s="28">
-        <v>25</v>
-      </c>
-      <c r="F10" s="28">
-        <v>0</v>
-      </c>
-      <c r="G10" s="29">
-        <v>9</v>
-      </c>
-      <c r="H10" s="30" t="s">
+      <c r="B26" s="55">
+        <v>10</v>
+      </c>
+      <c r="C26" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D26" s="55">
+        <v>25</v>
+      </c>
+      <c r="E26" s="55">
+        <v>25</v>
+      </c>
+      <c r="F26" s="55">
+        <v>0</v>
+      </c>
+      <c r="G26" s="64">
+        <v>25</v>
+      </c>
+      <c r="H26" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="I10" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="30" t="s">
+      <c r="I26" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K26" s="67" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="A14" s="37"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="2">
-        <v>3</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="A15" s="38"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="2">
-        <v>4</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="A16" s="38"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="2">
-        <v>5</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A17" s="38"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="2">
-        <v>6</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A18" s="38"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="2">
-        <v>7</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="42" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A19" s="37"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="2">
-        <v>8</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G20" s="2">
-        <v>9</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G21" s="2">
-        <v>10</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G22" s="2">
-        <v>11</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="I22" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G23" s="2">
-        <v>12</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G24" s="2">
-        <v>13</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G25" s="2">
-        <v>14</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="I25" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25" s="42" t="s">
-        <v>31</v>
-      </c>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
+    </row>
+    <row r="33" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="A33" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="27"/>
+    </row>
+    <row r="34" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="A34" s="29"/>
+      <c r="B34" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="27"/>
+    </row>
+    <row r="35" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="A35" s="29"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+    </row>
+    <row r="36" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="A36" s="29"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="27"/>
+    </row>
+    <row r="37" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="A37" s="29"/>
+      <c r="B37" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="27"/>
+    </row>
+    <row r="38" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="A38" s="29"/>
+      <c r="B38" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="27"/>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="A39" s="28"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="46"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
+    </row>
+    <row r="41" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="B41" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="50"/>
+    </row>
+    <row r="42" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="B42" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="53"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="46"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="48"/>
+    </row>
+    <row r="45" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="B45" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="50"/>
+    </row>
+    <row r="46" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="B46" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="53"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B48" s="46"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="48"/>
+    </row>
+    <row r="49" spans="2:5" ht="21" x14ac:dyDescent="0.5">
+      <c r="B49" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="50"/>
+    </row>
+    <row r="50" spans="2:5" ht="21" x14ac:dyDescent="0.5">
+      <c r="B50" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="53"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" s="46"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="48"/>
+    </row>
+    <row r="53" spans="2:5" ht="21" x14ac:dyDescent="0.5">
+      <c r="B53" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="50"/>
+    </row>
+    <row r="54" spans="2:5" ht="21" x14ac:dyDescent="0.5">
+      <c r="B54" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:J1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -7976,53 +9462,53 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="B5" s="37"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="B6" s="38"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="B7" s="38"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="B8" s="38"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="B9" s="38"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABSEN EKINERJA\11. ABSEN Novmber 22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABSEN EKINERJA\12. ABSEN Desember 22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63AD83D-CBFD-47D4-B57F-3DA533E36094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F9628D-C4CF-4A6D-A60C-A4FC730D0FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nov (4)" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="OKTOBER 22" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Desenber" sheetId="1" r:id="rId2"/>
+    <sheet name="Desenber (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="246">
   <si>
     <t>NIP</t>
   </si>
@@ -768,14 +770,14 @@
     <t>SD/Pramu Bakti</t>
   </si>
   <si>
-    <t>meninggal tgl 26 november</t>
+    <t>DAFTAR YANG BELUM MENYAMPAIKAN ABSENSI TPP BULAN DESEMBER 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,8 +854,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -884,8 +894,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -956,11 +972,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1031,43 +1056,71 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4569,10 +4622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4611,2398 +4664,2360 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="31">
-        <v>11</v>
-      </c>
-      <c r="C2" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D2" s="31">
-        <v>26</v>
-      </c>
-      <c r="E2" s="31">
-        <v>26</v>
-      </c>
-      <c r="F2" s="31">
-        <v>0</v>
-      </c>
-      <c r="G2" s="32">
+      <c r="B2" s="36">
+        <v>12</v>
+      </c>
+      <c r="C2" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="36">
+        <v>26</v>
+      </c>
+      <c r="E2" s="36">
+        <v>26</v>
+      </c>
+      <c r="F2" s="36">
+        <v>0</v>
+      </c>
+      <c r="G2" s="37">
         <v>1</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="33" t="s">
+      <c r="I2" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="31">
-        <v>11</v>
-      </c>
-      <c r="C3" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D3" s="31">
-        <v>26</v>
-      </c>
-      <c r="E3" s="31">
-        <v>26</v>
-      </c>
-      <c r="F3" s="31">
-        <v>0</v>
-      </c>
-      <c r="G3" s="32">
+      <c r="B3" s="36">
+        <v>12</v>
+      </c>
+      <c r="C3" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D3" s="36">
+        <v>27</v>
+      </c>
+      <c r="E3" s="36">
+        <v>27</v>
+      </c>
+      <c r="F3" s="36">
+        <v>0</v>
+      </c>
+      <c r="G3" s="37">
         <v>2</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="I3" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="31">
-        <v>11</v>
-      </c>
-      <c r="C4" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D4" s="31">
-        <v>26</v>
-      </c>
-      <c r="E4" s="31">
-        <v>26</v>
-      </c>
-      <c r="F4" s="31">
-        <v>0</v>
-      </c>
-      <c r="G4" s="32">
+      <c r="B4" s="36">
+        <v>12</v>
+      </c>
+      <c r="C4" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="36">
+        <v>26</v>
+      </c>
+      <c r="E4" s="36">
+        <v>26</v>
+      </c>
+      <c r="F4" s="36">
+        <v>0</v>
+      </c>
+      <c r="G4" s="37">
         <v>3</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="31">
-        <v>11</v>
-      </c>
-      <c r="C5" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D5" s="31">
-        <v>26</v>
-      </c>
-      <c r="E5" s="31">
-        <v>26</v>
-      </c>
-      <c r="F5" s="31">
-        <v>0</v>
-      </c>
-      <c r="G5" s="32">
+      <c r="B5" s="36">
+        <v>12</v>
+      </c>
+      <c r="C5" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="36">
+        <v>21</v>
+      </c>
+      <c r="E5" s="36">
+        <v>21</v>
+      </c>
+      <c r="F5" s="36">
+        <v>0</v>
+      </c>
+      <c r="G5" s="37">
         <v>4</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="40" t="s">
+      <c r="I5" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="31">
-        <v>11</v>
-      </c>
-      <c r="C6" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D6" s="31">
-        <v>26</v>
-      </c>
-      <c r="E6" s="31">
-        <v>26</v>
-      </c>
-      <c r="F6" s="31">
-        <v>0</v>
-      </c>
-      <c r="G6" s="32">
+      <c r="B6" s="36">
+        <v>12</v>
+      </c>
+      <c r="C6" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D6" s="36">
+        <v>21</v>
+      </c>
+      <c r="E6" s="36">
+        <v>21</v>
+      </c>
+      <c r="F6" s="36">
+        <v>0</v>
+      </c>
+      <c r="G6" s="37">
         <v>5</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="31">
-        <v>11</v>
-      </c>
-      <c r="C7" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D7" s="31">
-        <v>26</v>
-      </c>
-      <c r="E7" s="31">
-        <v>26</v>
-      </c>
-      <c r="F7" s="31">
-        <v>0</v>
-      </c>
-      <c r="G7" s="32">
+      <c r="B7" s="36">
+        <v>12</v>
+      </c>
+      <c r="C7" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="36">
+        <v>26</v>
+      </c>
+      <c r="E7" s="36">
+        <v>26</v>
+      </c>
+      <c r="F7" s="36">
+        <v>0</v>
+      </c>
+      <c r="G7" s="37">
         <v>6</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="33" t="s">
+      <c r="I7" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="31">
-        <v>11</v>
-      </c>
-      <c r="C8" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D8" s="31">
-        <v>26</v>
-      </c>
-      <c r="E8" s="31">
-        <v>26</v>
-      </c>
-      <c r="F8" s="31">
-        <v>0</v>
-      </c>
-      <c r="G8" s="32">
+      <c r="B8" s="36">
+        <v>12</v>
+      </c>
+      <c r="C8" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="36">
+        <v>21</v>
+      </c>
+      <c r="E8" s="36">
+        <v>21</v>
+      </c>
+      <c r="F8" s="36">
+        <v>0</v>
+      </c>
+      <c r="G8" s="37">
         <v>7</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="33" t="s">
+      <c r="I8" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="31">
-        <v>11</v>
-      </c>
-      <c r="C9" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D9" s="31">
-        <v>26</v>
-      </c>
-      <c r="E9" s="31">
-        <v>26</v>
-      </c>
-      <c r="F9" s="31">
-        <v>0</v>
-      </c>
-      <c r="G9" s="32">
+      <c r="B9" s="36">
+        <v>12</v>
+      </c>
+      <c r="C9" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="36">
+        <v>21</v>
+      </c>
+      <c r="E9" s="36">
+        <v>21</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0</v>
+      </c>
+      <c r="G9" s="37">
         <v>8</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="33" t="s">
+      <c r="I9" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="44" t="s">
+      <c r="L9" s="39"/>
+    </row>
+    <row r="10" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="31">
-        <v>11</v>
-      </c>
-      <c r="C10" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D10" s="31">
-        <v>26</v>
-      </c>
-      <c r="E10" s="31">
-        <v>26</v>
-      </c>
-      <c r="F10" s="31">
-        <v>0</v>
-      </c>
-      <c r="G10" s="32">
+      <c r="B10" s="36">
+        <v>12</v>
+      </c>
+      <c r="C10" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="36">
+        <v>26</v>
+      </c>
+      <c r="E10" s="36">
+        <v>26</v>
+      </c>
+      <c r="F10" s="36">
+        <v>0</v>
+      </c>
+      <c r="G10" s="37">
         <v>9</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="43" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="31">
-        <v>11</v>
-      </c>
-      <c r="C11" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D11" s="31">
-        <v>26</v>
-      </c>
-      <c r="E11" s="31">
-        <v>26</v>
-      </c>
-      <c r="F11" s="31">
-        <v>0</v>
-      </c>
-      <c r="G11" s="32">
+      <c r="B11" s="36">
+        <v>12</v>
+      </c>
+      <c r="C11" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="36">
+        <v>21</v>
+      </c>
+      <c r="E11" s="36">
+        <v>21</v>
+      </c>
+      <c r="F11" s="36">
+        <v>0</v>
+      </c>
+      <c r="G11" s="37">
         <v>10</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="43" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="31">
-        <v>11</v>
-      </c>
-      <c r="C12" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D12" s="31">
-        <v>26</v>
-      </c>
-      <c r="E12" s="31">
-        <v>26</v>
-      </c>
-      <c r="F12" s="31">
-        <v>0</v>
-      </c>
-      <c r="G12" s="32">
-        <v>11</v>
-      </c>
-      <c r="H12" s="43" t="s">
+      <c r="B12" s="36">
+        <v>12</v>
+      </c>
+      <c r="C12" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D12" s="36">
+        <v>27</v>
+      </c>
+      <c r="E12" s="36">
+        <v>27</v>
+      </c>
+      <c r="F12" s="36">
+        <v>0</v>
+      </c>
+      <c r="G12" s="37">
+        <v>11</v>
+      </c>
+      <c r="H12" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="43" t="s">
+      <c r="I12" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="K12" s="43" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="31">
-        <v>11</v>
-      </c>
-      <c r="C13" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D13" s="31">
-        <v>26</v>
-      </c>
-      <c r="E13" s="31">
-        <v>26</v>
-      </c>
-      <c r="F13" s="31">
-        <v>0</v>
-      </c>
-      <c r="G13" s="32">
-        <v>12</v>
-      </c>
-      <c r="H13" s="33" t="s">
+      <c r="B13" s="36">
+        <v>12</v>
+      </c>
+      <c r="C13" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="36">
+        <v>27</v>
+      </c>
+      <c r="E13" s="36">
+        <v>27</v>
+      </c>
+      <c r="F13" s="36">
+        <v>0</v>
+      </c>
+      <c r="G13" s="37">
+        <v>12</v>
+      </c>
+      <c r="H13" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="I13" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="33" t="s">
+      <c r="I13" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="43" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="31">
-        <v>11</v>
-      </c>
-      <c r="C14" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D14" s="31">
-        <v>26</v>
-      </c>
-      <c r="E14" s="31">
-        <v>26</v>
-      </c>
-      <c r="F14" s="31">
-        <v>0</v>
-      </c>
-      <c r="G14" s="32">
+      <c r="B14" s="36">
+        <v>12</v>
+      </c>
+      <c r="C14" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="36">
+        <v>27</v>
+      </c>
+      <c r="E14" s="36">
+        <v>27</v>
+      </c>
+      <c r="F14" s="36">
+        <v>0</v>
+      </c>
+      <c r="G14" s="37">
         <v>13</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="I14" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="33" t="s">
+      <c r="I14" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="43" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="31">
-        <v>11</v>
-      </c>
-      <c r="C15" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D15" s="31">
-        <v>26</v>
-      </c>
-      <c r="E15" s="31">
-        <v>26</v>
-      </c>
-      <c r="F15" s="31">
-        <v>0</v>
-      </c>
-      <c r="G15" s="32">
+      <c r="B15" s="36">
+        <v>12</v>
+      </c>
+      <c r="C15" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="36">
+        <v>27</v>
+      </c>
+      <c r="E15" s="36">
+        <v>27</v>
+      </c>
+      <c r="F15" s="36">
+        <v>0</v>
+      </c>
+      <c r="G15" s="37">
         <v>14</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="I15" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="33" t="s">
+      <c r="I15" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="43" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="B16" s="31">
-        <v>11</v>
-      </c>
-      <c r="C16" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D16" s="31">
-        <v>26</v>
-      </c>
-      <c r="E16" s="31">
-        <v>26</v>
-      </c>
-      <c r="F16" s="31">
-        <v>0</v>
-      </c>
-      <c r="G16" s="32">
+      <c r="B16" s="36">
+        <v>12</v>
+      </c>
+      <c r="C16" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="36">
+        <v>21</v>
+      </c>
+      <c r="E16" s="36">
+        <v>21</v>
+      </c>
+      <c r="F16" s="36">
+        <v>0</v>
+      </c>
+      <c r="G16" s="37">
         <v>15</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="33" t="s">
+      <c r="I16" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="43" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B17" s="31">
-        <v>11</v>
-      </c>
-      <c r="C17" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D17" s="31">
-        <v>26</v>
-      </c>
-      <c r="E17" s="31">
-        <v>26</v>
-      </c>
-      <c r="F17" s="31">
-        <v>0</v>
-      </c>
-      <c r="G17" s="32">
+      <c r="B17" s="36">
+        <v>12</v>
+      </c>
+      <c r="C17" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="36">
+        <v>27</v>
+      </c>
+      <c r="E17" s="36">
+        <v>27</v>
+      </c>
+      <c r="F17" s="36">
+        <v>0</v>
+      </c>
+      <c r="G17" s="37">
         <v>16</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="43" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="31">
-        <v>11</v>
-      </c>
-      <c r="C18" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D18" s="31">
-        <v>26</v>
-      </c>
-      <c r="E18" s="31">
-        <v>26</v>
-      </c>
-      <c r="F18" s="31">
-        <v>0</v>
-      </c>
-      <c r="G18" s="32">
+      <c r="B18" s="36">
+        <v>12</v>
+      </c>
+      <c r="C18" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="36">
+        <v>24</v>
+      </c>
+      <c r="E18" s="36">
+        <v>24</v>
+      </c>
+      <c r="F18" s="36">
+        <v>0</v>
+      </c>
+      <c r="G18" s="37">
         <v>17</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="37" t="s">
+      <c r="K18" s="43" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="31">
-        <v>11</v>
-      </c>
-      <c r="C19" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D19" s="31">
-        <v>26</v>
-      </c>
-      <c r="E19" s="31">
-        <v>26</v>
-      </c>
-      <c r="F19" s="31">
-        <v>0</v>
-      </c>
-      <c r="G19" s="32">
+      <c r="B19" s="36">
+        <v>12</v>
+      </c>
+      <c r="C19" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="36">
+        <v>21</v>
+      </c>
+      <c r="E19" s="36">
+        <v>21</v>
+      </c>
+      <c r="F19" s="36">
+        <v>0</v>
+      </c>
+      <c r="G19" s="37">
         <v>18</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="37" t="s">
+      <c r="K19" s="43" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="31">
-        <v>11</v>
-      </c>
-      <c r="C20" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D20" s="31">
-        <v>26</v>
-      </c>
-      <c r="E20" s="31">
-        <v>26</v>
-      </c>
-      <c r="F20" s="31">
-        <v>0</v>
-      </c>
-      <c r="G20" s="32">
+      <c r="B20" s="36">
+        <v>12</v>
+      </c>
+      <c r="C20" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="36">
+        <v>26</v>
+      </c>
+      <c r="E20" s="36">
+        <v>26</v>
+      </c>
+      <c r="F20" s="36">
+        <v>0</v>
+      </c>
+      <c r="G20" s="37">
         <v>19</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="33" t="s">
+      <c r="I20" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="43" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="31">
-        <v>11</v>
-      </c>
-      <c r="C21" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D21" s="31">
-        <v>26</v>
-      </c>
-      <c r="E21" s="31">
-        <v>26</v>
-      </c>
-      <c r="F21" s="31">
-        <v>0</v>
-      </c>
-      <c r="G21" s="32">
+      <c r="B21" s="36">
+        <v>12</v>
+      </c>
+      <c r="C21" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D21" s="36">
+        <v>27</v>
+      </c>
+      <c r="E21" s="36">
+        <v>27</v>
+      </c>
+      <c r="F21" s="36">
+        <v>0</v>
+      </c>
+      <c r="G21" s="37">
         <v>20</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="43" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="31">
-        <v>11</v>
-      </c>
-      <c r="C22" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D22" s="31">
-        <v>26</v>
-      </c>
-      <c r="E22" s="31">
-        <v>26</v>
-      </c>
-      <c r="F22" s="31">
-        <v>0</v>
-      </c>
-      <c r="G22" s="32">
+      <c r="B22" s="36">
+        <v>12</v>
+      </c>
+      <c r="C22" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D22" s="36">
+        <v>27</v>
+      </c>
+      <c r="E22" s="36">
+        <v>27</v>
+      </c>
+      <c r="F22" s="36">
+        <v>0</v>
+      </c>
+      <c r="G22" s="37">
         <v>21</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="I22" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="33" t="s">
+      <c r="I22" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="37" t="s">
+      <c r="K22" s="43" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="B23" s="31">
-        <v>11</v>
-      </c>
-      <c r="C23" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D23" s="31">
-        <v>26</v>
-      </c>
-      <c r="E23" s="31">
-        <v>26</v>
-      </c>
-      <c r="F23" s="31">
-        <v>0</v>
-      </c>
-      <c r="G23" s="32">
+      <c r="B23" s="36">
+        <v>12</v>
+      </c>
+      <c r="C23" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D23" s="36">
+        <v>26</v>
+      </c>
+      <c r="E23" s="36">
+        <v>26</v>
+      </c>
+      <c r="F23" s="36">
+        <v>0</v>
+      </c>
+      <c r="G23" s="37">
         <v>22</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="I23" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="33" t="s">
+      <c r="I23" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="K23" s="43" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="30" t="s">
+    <row r="24" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="B24" s="31">
-        <v>11</v>
-      </c>
-      <c r="C24" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D24" s="31">
-        <v>26</v>
-      </c>
-      <c r="E24" s="31">
-        <v>26</v>
-      </c>
-      <c r="F24" s="31">
-        <v>0</v>
-      </c>
-      <c r="G24" s="32">
+      <c r="B24" s="36">
+        <v>12</v>
+      </c>
+      <c r="C24" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="36">
+        <v>26</v>
+      </c>
+      <c r="E24" s="36">
+        <v>26</v>
+      </c>
+      <c r="F24" s="36">
+        <v>0</v>
+      </c>
+      <c r="G24" s="37">
         <v>23</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="33" t="s">
+      <c r="I24" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="K24" s="37" t="s">
+      <c r="K24" s="43" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="31">
-        <v>11</v>
-      </c>
-      <c r="C25" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D25" s="31">
-        <v>26</v>
-      </c>
-      <c r="E25" s="31">
-        <v>26</v>
-      </c>
-      <c r="F25" s="31">
-        <v>0</v>
-      </c>
-      <c r="G25" s="32">
+      <c r="B25" s="36">
+        <v>12</v>
+      </c>
+      <c r="C25" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D25" s="36">
+        <v>26</v>
+      </c>
+      <c r="E25" s="36">
+        <v>26</v>
+      </c>
+      <c r="F25" s="36">
+        <v>0</v>
+      </c>
+      <c r="G25" s="37">
         <v>24</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="J25" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="34" t="s">
+      <c r="K25" s="39" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="31">
-        <v>11</v>
-      </c>
-      <c r="C26" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D26" s="31">
-        <v>26</v>
-      </c>
-      <c r="E26" s="31">
-        <v>26</v>
-      </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32">
+      <c r="B26" s="36">
+        <v>12</v>
+      </c>
+      <c r="C26" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D26" s="36">
+        <v>26</v>
+      </c>
+      <c r="E26" s="36">
+        <v>26</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37">
         <v>25</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="39" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="41" t="s">
+    <row r="27" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="31">
-        <v>11</v>
-      </c>
-      <c r="C27" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D27" s="31">
-        <v>26</v>
-      </c>
-      <c r="E27" s="31">
-        <v>26</v>
-      </c>
-      <c r="F27" s="31">
-        <v>0</v>
-      </c>
-      <c r="G27" s="32">
-        <v>26</v>
-      </c>
-      <c r="H27" s="43" t="s">
+      <c r="B27" s="36">
+        <v>12</v>
+      </c>
+      <c r="C27" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D27" s="36">
+        <v>26</v>
+      </c>
+      <c r="E27" s="36">
+        <v>26</v>
+      </c>
+      <c r="F27" s="36">
+        <v>0</v>
+      </c>
+      <c r="G27" s="37">
+        <v>26</v>
+      </c>
+      <c r="H27" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="I27" s="43" t="s">
+      <c r="I27" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="43" t="s">
+      <c r="J27" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="34" t="s">
+      <c r="K27" s="39" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="41" t="s">
+    <row r="28" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="31">
-        <v>11</v>
-      </c>
-      <c r="C28" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D28" s="31">
-        <v>26</v>
-      </c>
-      <c r="E28" s="31">
-        <v>26</v>
-      </c>
-      <c r="F28" s="31">
-        <v>0</v>
-      </c>
-      <c r="G28" s="32">
+      <c r="B28" s="36">
+        <v>12</v>
+      </c>
+      <c r="C28" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D28" s="36">
+        <v>26</v>
+      </c>
+      <c r="E28" s="36">
+        <v>26</v>
+      </c>
+      <c r="F28" s="36">
+        <v>0</v>
+      </c>
+      <c r="G28" s="37">
         <v>27</v>
       </c>
-      <c r="H28" s="42" t="s">
+      <c r="H28" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I28" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="J28" s="43" t="s">
+      <c r="J28" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="39" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="41" t="s">
+    <row r="29" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="31">
-        <v>11</v>
-      </c>
-      <c r="C29" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D29" s="31">
-        <v>26</v>
-      </c>
-      <c r="E29" s="31">
-        <v>26</v>
-      </c>
-      <c r="F29" s="31">
-        <v>0</v>
-      </c>
-      <c r="G29" s="32">
+      <c r="B29" s="36">
+        <v>12</v>
+      </c>
+      <c r="C29" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D29" s="36">
+        <v>26</v>
+      </c>
+      <c r="E29" s="36">
+        <v>26</v>
+      </c>
+      <c r="F29" s="36">
+        <v>0</v>
+      </c>
+      <c r="G29" s="37">
         <v>28</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="H29" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="43" t="s">
+      <c r="J29" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="34" t="s">
+      <c r="K29" s="39" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="30" t="s">
+    <row r="30" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="B30" s="31">
-        <v>11</v>
-      </c>
-      <c r="C30" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D30" s="31">
-        <v>26</v>
-      </c>
-      <c r="E30" s="31">
-        <v>26</v>
-      </c>
-      <c r="F30" s="31">
-        <v>0</v>
-      </c>
-      <c r="G30" s="32">
+      <c r="B30" s="36">
+        <v>12</v>
+      </c>
+      <c r="C30" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D30" s="36">
+        <v>27</v>
+      </c>
+      <c r="E30" s="36">
+        <v>27</v>
+      </c>
+      <c r="F30" s="36">
+        <v>0</v>
+      </c>
+      <c r="G30" s="37">
         <v>29</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I30" s="33" t="s">
+      <c r="I30" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="J30" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="34" t="s">
+      <c r="K30" s="39" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="31">
-        <v>11</v>
-      </c>
-      <c r="C31" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D31" s="31">
-        <v>26</v>
-      </c>
-      <c r="E31" s="31">
-        <v>26</v>
-      </c>
-      <c r="F31" s="31">
-        <v>0</v>
-      </c>
-      <c r="G31" s="32">
+      <c r="B31" s="36">
+        <v>12</v>
+      </c>
+      <c r="C31" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D31" s="36">
+        <v>27</v>
+      </c>
+      <c r="E31" s="36">
+        <v>27</v>
+      </c>
+      <c r="F31" s="36">
+        <v>0</v>
+      </c>
+      <c r="G31" s="37">
         <v>30</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I31" s="33" t="s">
+      <c r="I31" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="J31" s="33" t="s">
+      <c r="J31" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="34" t="s">
+      <c r="K31" s="39" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="30" t="s">
+    <row r="32" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="B32" s="31">
-        <v>11</v>
-      </c>
-      <c r="C32" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D32" s="31">
-        <v>26</v>
-      </c>
-      <c r="E32" s="31">
-        <v>26</v>
-      </c>
-      <c r="F32" s="31">
-        <v>0</v>
-      </c>
-      <c r="G32" s="32">
+      <c r="B32" s="36">
+        <v>12</v>
+      </c>
+      <c r="C32" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D32" s="36">
+        <v>27</v>
+      </c>
+      <c r="E32" s="36">
+        <v>27</v>
+      </c>
+      <c r="F32" s="36">
+        <v>0</v>
+      </c>
+      <c r="G32" s="37">
         <v>31</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="I32" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" s="33" t="s">
+      <c r="I32" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="34" t="s">
+      <c r="K32" s="39" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="30" t="s">
+    <row r="33" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="B33" s="31">
-        <v>11</v>
-      </c>
-      <c r="C33" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D33" s="31">
-        <v>26</v>
-      </c>
-      <c r="E33" s="31">
-        <v>26</v>
-      </c>
-      <c r="F33" s="31">
-        <v>0</v>
-      </c>
-      <c r="G33" s="32">
+      <c r="B33" s="36">
+        <v>12</v>
+      </c>
+      <c r="C33" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D33" s="36">
+        <v>21</v>
+      </c>
+      <c r="E33" s="36">
+        <v>21</v>
+      </c>
+      <c r="F33" s="36">
+        <v>0</v>
+      </c>
+      <c r="G33" s="37">
         <v>32</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="I33" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="33" t="s">
+      <c r="I33" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="K33" s="34" t="s">
+      <c r="K33" s="39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="30" t="s">
+    <row r="34" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="B34" s="31">
-        <v>11</v>
-      </c>
-      <c r="C34" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D34" s="31">
-        <v>26</v>
-      </c>
-      <c r="E34" s="31">
-        <v>26</v>
-      </c>
-      <c r="F34" s="31">
-        <v>0</v>
-      </c>
-      <c r="G34" s="32">
+      <c r="B34" s="36">
+        <v>12</v>
+      </c>
+      <c r="C34" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D34" s="36">
+        <v>21</v>
+      </c>
+      <c r="E34" s="36">
+        <v>21</v>
+      </c>
+      <c r="F34" s="36">
+        <v>0</v>
+      </c>
+      <c r="G34" s="37">
         <v>33</v>
       </c>
-      <c r="H34" s="33" t="s">
+      <c r="H34" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="I34" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="34" t="s">
+      <c r="I34" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="30" t="s">
+    <row r="35" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="B35" s="31">
-        <v>11</v>
-      </c>
-      <c r="C35" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D35" s="31">
-        <v>26</v>
-      </c>
-      <c r="E35" s="31">
-        <v>26</v>
-      </c>
-      <c r="F35" s="31">
-        <v>0</v>
-      </c>
-      <c r="G35" s="32">
+      <c r="B35" s="36">
+        <v>12</v>
+      </c>
+      <c r="C35" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D35" s="36">
+        <v>24</v>
+      </c>
+      <c r="E35" s="36">
+        <v>24</v>
+      </c>
+      <c r="F35" s="36">
+        <v>0</v>
+      </c>
+      <c r="G35" s="37">
         <v>34</v>
       </c>
-      <c r="H35" s="33" t="s">
+      <c r="H35" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="I35" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J35" s="33" t="s">
+      <c r="I35" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="K35" s="34" t="s">
+      <c r="K35" s="39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="30" t="s">
+    <row r="36" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="B36" s="31">
-        <v>11</v>
-      </c>
-      <c r="C36" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D36" s="31">
-        <v>26</v>
-      </c>
-      <c r="E36" s="31">
-        <v>26</v>
-      </c>
-      <c r="F36" s="31">
-        <v>0</v>
-      </c>
-      <c r="G36" s="32">
+      <c r="B36" s="36">
+        <v>12</v>
+      </c>
+      <c r="C36" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D36" s="36">
+        <v>27</v>
+      </c>
+      <c r="E36" s="36">
+        <v>27</v>
+      </c>
+      <c r="F36" s="36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="37">
         <v>35</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="I36" s="33" t="s">
+      <c r="I36" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="33" t="s">
+      <c r="J36" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="K36" s="34" t="s">
+      <c r="K36" s="39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="30" t="s">
+    <row r="37" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="B37" s="31">
-        <v>11</v>
-      </c>
-      <c r="C37" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D37" s="31">
-        <v>26</v>
-      </c>
-      <c r="E37" s="31">
-        <v>26</v>
-      </c>
-      <c r="F37" s="31">
-        <v>0</v>
-      </c>
-      <c r="G37" s="32">
+      <c r="B37" s="36">
+        <v>12</v>
+      </c>
+      <c r="C37" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D37" s="36">
+        <v>21</v>
+      </c>
+      <c r="E37" s="36">
+        <v>21</v>
+      </c>
+      <c r="F37" s="36">
+        <v>0</v>
+      </c>
+      <c r="G37" s="37">
         <v>36</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="H37" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="I37" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="J37" s="33" t="s">
+      <c r="I37" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K37" s="34" t="s">
+      <c r="K37" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="L37" s="34" t="s">
+      <c r="L37" s="39" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="30" t="s">
+    <row r="38" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="B38" s="31">
-        <v>11</v>
-      </c>
-      <c r="C38" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D38" s="31">
-        <v>26</v>
-      </c>
-      <c r="E38" s="31">
-        <v>26</v>
-      </c>
-      <c r="F38" s="31">
-        <v>0</v>
-      </c>
-      <c r="G38" s="32">
+      <c r="B38" s="36">
+        <v>12</v>
+      </c>
+      <c r="C38" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D38" s="36">
+        <v>21</v>
+      </c>
+      <c r="E38" s="36">
+        <v>21</v>
+      </c>
+      <c r="F38" s="36">
+        <v>0</v>
+      </c>
+      <c r="G38" s="37">
         <v>37</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="I38" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J38" s="33" t="s">
+      <c r="I38" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K38" s="34" t="s">
+      <c r="K38" s="39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="30" t="s">
+    <row r="39" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="B39" s="31">
-        <v>11</v>
-      </c>
-      <c r="C39" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D39" s="31">
-        <v>26</v>
-      </c>
-      <c r="E39" s="31">
-        <v>26</v>
-      </c>
-      <c r="F39" s="31">
-        <v>0</v>
-      </c>
-      <c r="G39" s="32">
+      <c r="B39" s="36">
+        <v>12</v>
+      </c>
+      <c r="C39" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D39" s="36">
+        <v>21</v>
+      </c>
+      <c r="E39" s="36">
+        <v>21</v>
+      </c>
+      <c r="F39" s="36">
+        <v>0</v>
+      </c>
+      <c r="G39" s="37">
         <v>38</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="I39" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="33" t="s">
+      <c r="I39" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="K39" s="34" t="s">
+      <c r="K39" s="39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="30" t="s">
+    <row r="40" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="31">
-        <v>11</v>
-      </c>
-      <c r="C40" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D40" s="31">
-        <v>26</v>
-      </c>
-      <c r="E40" s="31">
-        <v>26</v>
-      </c>
-      <c r="F40" s="31">
-        <v>0</v>
-      </c>
-      <c r="G40" s="32">
+      <c r="B40" s="36">
+        <v>12</v>
+      </c>
+      <c r="C40" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D40" s="36">
+        <v>26</v>
+      </c>
+      <c r="E40" s="36">
+        <v>26</v>
+      </c>
+      <c r="F40" s="36">
+        <v>0</v>
+      </c>
+      <c r="G40" s="37">
         <v>39</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="H40" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="I40" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J40" s="33" t="s">
+      <c r="I40" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="K40" s="34" t="s">
+      <c r="K40" s="39" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="30" t="s">
+    <row r="41" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="B41" s="31">
-        <v>11</v>
-      </c>
-      <c r="C41" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D41" s="31">
-        <v>26</v>
-      </c>
-      <c r="E41" s="31">
-        <v>26</v>
-      </c>
-      <c r="F41" s="31">
-        <v>0</v>
-      </c>
-      <c r="G41" s="32">
+      <c r="B41" s="36">
+        <v>12</v>
+      </c>
+      <c r="C41" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D41" s="36">
+        <v>21</v>
+      </c>
+      <c r="E41" s="36">
+        <v>21</v>
+      </c>
+      <c r="F41" s="36">
+        <v>0</v>
+      </c>
+      <c r="G41" s="37">
         <v>40</v>
       </c>
-      <c r="H41" s="33" t="s">
+      <c r="H41" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="I41" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="33" t="s">
+      <c r="I41" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="K41" s="34" t="s">
+      <c r="K41" s="39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="30" t="s">
+    <row r="42" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="B42" s="31">
-        <v>11</v>
-      </c>
-      <c r="C42" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D42" s="31">
-        <v>26</v>
-      </c>
-      <c r="E42" s="31">
-        <v>26</v>
-      </c>
-      <c r="F42" s="31">
-        <v>0</v>
-      </c>
-      <c r="G42" s="32">
+      <c r="B42" s="36">
+        <v>12</v>
+      </c>
+      <c r="C42" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D42" s="36">
+        <v>21</v>
+      </c>
+      <c r="E42" s="36">
+        <v>21</v>
+      </c>
+      <c r="F42" s="36">
+        <v>0</v>
+      </c>
+      <c r="G42" s="37">
         <v>41</v>
       </c>
-      <c r="H42" s="33" t="s">
+      <c r="H42" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="I42" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J42" s="33" t="s">
+      <c r="I42" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="K42" s="34" t="s">
+      <c r="K42" s="39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="30" t="s">
+    <row r="43" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="B43" s="31">
-        <v>11</v>
-      </c>
-      <c r="C43" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D43" s="31">
-        <v>26</v>
-      </c>
-      <c r="E43" s="31">
-        <v>26</v>
-      </c>
-      <c r="F43" s="31">
-        <v>0</v>
-      </c>
-      <c r="G43" s="32">
+      <c r="B43" s="36">
+        <v>12</v>
+      </c>
+      <c r="C43" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D43" s="36">
+        <v>24</v>
+      </c>
+      <c r="E43" s="36">
+        <v>24</v>
+      </c>
+      <c r="F43" s="36">
+        <v>0</v>
+      </c>
+      <c r="G43" s="37">
         <v>42</v>
       </c>
-      <c r="H43" s="33" t="s">
+      <c r="H43" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="I43" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J43" s="33" t="s">
+      <c r="I43" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="K43" s="34" t="s">
+      <c r="K43" s="39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="30" t="s">
+    <row r="44" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="B44" s="31">
-        <v>11</v>
-      </c>
-      <c r="C44" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D44" s="31">
-        <v>26</v>
-      </c>
-      <c r="E44" s="31">
-        <v>26</v>
-      </c>
-      <c r="F44" s="31">
-        <v>0</v>
-      </c>
-      <c r="G44" s="32">
+      <c r="B44" s="36">
+        <v>12</v>
+      </c>
+      <c r="C44" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D44" s="36">
+        <v>26</v>
+      </c>
+      <c r="E44" s="36">
+        <v>26</v>
+      </c>
+      <c r="F44" s="36">
+        <v>0</v>
+      </c>
+      <c r="G44" s="37">
         <v>43</v>
       </c>
-      <c r="H44" s="33" t="s">
+      <c r="H44" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="I44" s="33" t="s">
+      <c r="I44" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="J44" s="33" t="s">
+      <c r="J44" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="34" t="s">
+      <c r="K44" s="39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="30" t="s">
+    <row r="45" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="B45" s="31">
-        <v>11</v>
-      </c>
-      <c r="C45" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D45" s="31">
-        <v>26</v>
-      </c>
-      <c r="E45" s="31">
-        <v>26</v>
-      </c>
-      <c r="F45" s="31">
-        <v>0</v>
-      </c>
-      <c r="G45" s="32">
+      <c r="B45" s="36">
+        <v>12</v>
+      </c>
+      <c r="C45" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D45" s="36">
+        <v>26</v>
+      </c>
+      <c r="E45" s="36">
+        <v>26</v>
+      </c>
+      <c r="F45" s="36">
+        <v>0</v>
+      </c>
+      <c r="G45" s="37">
         <v>44</v>
       </c>
-      <c r="H45" s="33" t="s">
+      <c r="H45" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="I45" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J45" s="33" t="s">
+      <c r="I45" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="34" t="s">
+      <c r="K45" s="39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="30" t="s">
+    <row r="46" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="B46" s="31">
-        <v>11</v>
-      </c>
-      <c r="C46" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D46" s="31">
-        <v>26</v>
-      </c>
-      <c r="E46" s="31">
-        <v>26</v>
-      </c>
-      <c r="F46" s="31">
-        <v>0</v>
-      </c>
-      <c r="G46" s="32">
+      <c r="B46" s="36">
+        <v>12</v>
+      </c>
+      <c r="C46" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D46" s="36">
+        <v>26</v>
+      </c>
+      <c r="E46" s="36">
+        <v>26</v>
+      </c>
+      <c r="F46" s="36">
+        <v>0</v>
+      </c>
+      <c r="G46" s="37">
         <v>45</v>
       </c>
-      <c r="H46" s="33" t="s">
+      <c r="H46" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="I46" s="33" t="s">
+      <c r="I46" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="33" t="s">
+      <c r="J46" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="K46" s="34" t="s">
+      <c r="K46" s="39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="30" t="s">
+    <row r="47" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="31">
-        <v>11</v>
-      </c>
-      <c r="C47" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D47" s="31">
-        <v>26</v>
-      </c>
-      <c r="E47" s="31">
-        <v>26</v>
-      </c>
-      <c r="F47" s="31">
-        <v>0</v>
-      </c>
-      <c r="G47" s="32">
+      <c r="B47" s="36">
+        <v>12</v>
+      </c>
+      <c r="C47" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D47" s="36">
+        <v>21</v>
+      </c>
+      <c r="E47" s="36">
+        <v>21</v>
+      </c>
+      <c r="F47" s="36">
+        <v>0</v>
+      </c>
+      <c r="G47" s="37">
         <v>46</v>
       </c>
-      <c r="H47" s="33" t="s">
+      <c r="H47" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="I47" s="38" t="s">
+      <c r="I47" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J47" s="33" t="s">
+      <c r="J47" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="K47" s="34" t="s">
+      <c r="K47" s="39" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="30" t="s">
+    <row r="48" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="B48" s="31">
-        <v>11</v>
-      </c>
-      <c r="C48" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D48" s="31">
-        <v>26</v>
-      </c>
-      <c r="E48" s="31">
-        <v>26</v>
-      </c>
-      <c r="F48" s="31">
-        <v>0</v>
-      </c>
-      <c r="G48" s="32">
+      <c r="B48" s="36">
+        <v>12</v>
+      </c>
+      <c r="C48" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D48" s="36">
+        <v>21</v>
+      </c>
+      <c r="E48" s="36">
+        <v>21</v>
+      </c>
+      <c r="F48" s="36">
+        <v>0</v>
+      </c>
+      <c r="G48" s="37">
         <v>47</v>
       </c>
-      <c r="H48" s="33" t="s">
+      <c r="H48" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="I48" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J48" s="33" t="s">
+      <c r="I48" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="K48" s="34" t="s">
+      <c r="K48" s="39" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="30" t="s">
+    <row r="49" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="B49" s="31">
-        <v>11</v>
-      </c>
-      <c r="C49" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D49" s="31">
-        <v>26</v>
-      </c>
-      <c r="E49" s="31">
-        <v>26</v>
-      </c>
-      <c r="F49" s="31">
-        <v>0</v>
-      </c>
-      <c r="G49" s="32">
+      <c r="B49" s="36">
+        <v>12</v>
+      </c>
+      <c r="C49" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D49" s="36">
+        <v>21</v>
+      </c>
+      <c r="E49" s="36">
+        <v>21</v>
+      </c>
+      <c r="F49" s="36">
+        <v>0</v>
+      </c>
+      <c r="G49" s="37">
         <v>48</v>
       </c>
-      <c r="H49" s="33" t="s">
+      <c r="H49" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="I49" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J49" s="33" t="s">
+      <c r="I49" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="K49" s="34" t="s">
+      <c r="K49" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="L49" s="34"/>
-    </row>
-    <row r="50" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="30" t="s">
+      <c r="L49" s="39"/>
+    </row>
+    <row r="50" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="B50" s="31">
-        <v>11</v>
-      </c>
-      <c r="C50" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D50" s="31">
-        <v>26</v>
-      </c>
-      <c r="E50" s="31">
-        <v>26</v>
-      </c>
-      <c r="F50" s="31">
-        <v>0</v>
-      </c>
-      <c r="G50" s="32">
+      <c r="B50" s="36">
+        <v>12</v>
+      </c>
+      <c r="C50" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D50" s="36">
+        <v>27</v>
+      </c>
+      <c r="E50" s="36">
+        <v>27</v>
+      </c>
+      <c r="F50" s="36">
+        <v>0</v>
+      </c>
+      <c r="G50" s="37">
         <v>49</v>
       </c>
-      <c r="H50" s="33" t="s">
+      <c r="H50" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="I50" s="33" t="s">
+      <c r="I50" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J50" s="33" t="s">
+      <c r="J50" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K50" s="34" t="s">
+      <c r="K50" s="39" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="30" t="s">
+    <row r="51" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="B51" s="31">
-        <v>11</v>
-      </c>
-      <c r="C51" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D51" s="31">
-        <v>26</v>
-      </c>
-      <c r="E51" s="31">
-        <v>26</v>
-      </c>
-      <c r="F51" s="31">
-        <v>0</v>
-      </c>
-      <c r="G51" s="32">
+      <c r="B51" s="36">
+        <v>12</v>
+      </c>
+      <c r="C51" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D51" s="36">
+        <v>21</v>
+      </c>
+      <c r="E51" s="36">
+        <v>21</v>
+      </c>
+      <c r="F51" s="36">
+        <v>0</v>
+      </c>
+      <c r="G51" s="37">
         <v>50</v>
       </c>
-      <c r="H51" s="33" t="s">
+      <c r="H51" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="I51" s="33" t="s">
+      <c r="I51" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J51" s="33" t="s">
+      <c r="J51" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="K51" s="34" t="s">
+      <c r="K51" s="39" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="30" t="s">
+    <row r="52" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="B52" s="31">
-        <v>11</v>
-      </c>
-      <c r="C52" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D52" s="31">
-        <v>26</v>
-      </c>
-      <c r="E52" s="31">
-        <v>26</v>
-      </c>
-      <c r="F52" s="31">
-        <v>0</v>
-      </c>
-      <c r="G52" s="32">
+      <c r="B52" s="36">
+        <v>12</v>
+      </c>
+      <c r="C52" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D52" s="36">
+        <v>21</v>
+      </c>
+      <c r="E52" s="36">
+        <v>21</v>
+      </c>
+      <c r="F52" s="36">
+        <v>0</v>
+      </c>
+      <c r="G52" s="37">
         <v>51</v>
       </c>
-      <c r="H52" s="33" t="s">
+      <c r="H52" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="I52" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J52" s="33" t="s">
+      <c r="I52" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="K52" s="34" t="s">
+      <c r="K52" s="39" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="30" t="s">
+    <row r="53" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="B53" s="31">
-        <v>11</v>
-      </c>
-      <c r="C53" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D53" s="31">
-        <v>26</v>
-      </c>
-      <c r="E53" s="31">
-        <v>26</v>
-      </c>
-      <c r="F53" s="31">
-        <v>0</v>
-      </c>
-      <c r="G53" s="32">
+      <c r="B53" s="36">
+        <v>12</v>
+      </c>
+      <c r="C53" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D53" s="36">
+        <v>21</v>
+      </c>
+      <c r="E53" s="36">
+        <v>21</v>
+      </c>
+      <c r="F53" s="36">
+        <v>0</v>
+      </c>
+      <c r="G53" s="37">
         <v>52</v>
       </c>
-      <c r="H53" s="33" t="s">
+      <c r="H53" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="I53" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J53" s="33" t="s">
+      <c r="I53" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="K53" s="34" t="s">
+      <c r="K53" s="39" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="30" t="s">
+    <row r="54" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="B54" s="31">
-        <v>11</v>
-      </c>
-      <c r="C54" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D54" s="31">
-        <v>26</v>
-      </c>
-      <c r="E54" s="31">
-        <v>26</v>
-      </c>
-      <c r="F54" s="31">
-        <v>0</v>
-      </c>
-      <c r="G54" s="32">
+      <c r="B54" s="36">
+        <v>12</v>
+      </c>
+      <c r="C54" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D54" s="36">
+        <v>21</v>
+      </c>
+      <c r="E54" s="36">
+        <v>21</v>
+      </c>
+      <c r="F54" s="36">
+        <v>0</v>
+      </c>
+      <c r="G54" s="37">
         <v>53</v>
       </c>
-      <c r="H54" s="33" t="s">
+      <c r="H54" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="I54" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J54" s="33" t="s">
+      <c r="I54" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J54" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="K54" s="34" t="s">
+      <c r="K54" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="L54" s="36"/>
-    </row>
-    <row r="55" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="30" t="s">
+      <c r="L54" s="50"/>
+    </row>
+    <row r="55" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="B55" s="31">
-        <v>11</v>
-      </c>
-      <c r="C55" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D55" s="31">
-        <v>26</v>
-      </c>
-      <c r="E55" s="31">
-        <v>26</v>
-      </c>
-      <c r="F55" s="31">
-        <v>0</v>
-      </c>
-      <c r="G55" s="32">
+      <c r="B55" s="36">
+        <v>12</v>
+      </c>
+      <c r="C55" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D55" s="36">
+        <v>24</v>
+      </c>
+      <c r="E55" s="36">
+        <v>24</v>
+      </c>
+      <c r="F55" s="36">
+        <v>0</v>
+      </c>
+      <c r="G55" s="37">
         <v>54</v>
       </c>
-      <c r="H55" s="33" t="s">
+      <c r="H55" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="I55" s="33" t="s">
+      <c r="I55" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="J55" s="33" t="s">
+      <c r="J55" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K55" s="34" t="s">
+      <c r="K55" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="L55" s="36"/>
-    </row>
-    <row r="56" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="30" t="s">
+      <c r="L55" s="50"/>
+    </row>
+    <row r="56" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="B56" s="31">
-        <v>11</v>
-      </c>
-      <c r="C56" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D56" s="31">
-        <v>26</v>
-      </c>
-      <c r="E56" s="31">
-        <v>26</v>
-      </c>
-      <c r="F56" s="31">
-        <v>0</v>
-      </c>
-      <c r="G56" s="32">
+      <c r="B56" s="36">
+        <v>12</v>
+      </c>
+      <c r="C56" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D56" s="36">
+        <v>27</v>
+      </c>
+      <c r="E56" s="36">
+        <v>27</v>
+      </c>
+      <c r="F56" s="36">
+        <v>0</v>
+      </c>
+      <c r="G56" s="37">
         <v>55</v>
       </c>
-      <c r="H56" s="33" t="s">
+      <c r="H56" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="I56" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J56" s="33" t="s">
+      <c r="I56" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J56" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="K56" s="34" t="s">
+      <c r="K56" s="39" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="46" t="s">
+    <row r="57" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="B57" s="31">
-        <v>11</v>
-      </c>
-      <c r="C57" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D57" s="31">
-        <v>26</v>
-      </c>
-      <c r="E57" s="31">
-        <v>26</v>
-      </c>
-      <c r="F57" s="31">
-        <v>0</v>
-      </c>
-      <c r="G57" s="32">
-        <v>56</v>
-      </c>
-      <c r="H57" s="33" t="s">
+      <c r="B57" s="36">
+        <v>12</v>
+      </c>
+      <c r="C57" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D57" s="36">
+        <v>27</v>
+      </c>
+      <c r="E57" s="36">
+        <v>27</v>
+      </c>
+      <c r="F57" s="36">
+        <v>0</v>
+      </c>
+      <c r="G57" s="37">
+        <v>56</v>
+      </c>
+      <c r="H57" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="I57" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J57" s="33" t="s">
+      <c r="I57" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="K57" s="34" t="s">
+      <c r="K57" s="39" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="30" t="s">
+    <row r="58" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="B58" s="31">
-        <v>11</v>
-      </c>
-      <c r="C58" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D58" s="31">
-        <v>26</v>
-      </c>
-      <c r="E58" s="31">
-        <v>26</v>
-      </c>
-      <c r="F58" s="31">
-        <v>0</v>
-      </c>
-      <c r="G58" s="32">
+      <c r="B58" s="36">
+        <v>12</v>
+      </c>
+      <c r="C58" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D58" s="36">
+        <v>27</v>
+      </c>
+      <c r="E58" s="36">
+        <v>27</v>
+      </c>
+      <c r="F58" s="36">
+        <v>0</v>
+      </c>
+      <c r="G58" s="37">
         <v>57</v>
       </c>
-      <c r="H58" s="33" t="s">
+      <c r="H58" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="I58" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J58" s="33" t="s">
+      <c r="I58" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J58" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="K58" s="34" t="s">
+      <c r="K58" s="39" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="30" t="s">
+    <row r="59" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="B59" s="31">
-        <v>11</v>
-      </c>
-      <c r="C59" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D59" s="31">
+      <c r="B59" s="36">
+        <v>12</v>
+      </c>
+      <c r="C59" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D59" s="36">
         <v>25</v>
       </c>
-      <c r="E59" s="31">
+      <c r="E59" s="36">
         <v>25</v>
       </c>
-      <c r="F59" s="31">
-        <v>0</v>
-      </c>
-      <c r="G59" s="32">
+      <c r="F59" s="36">
+        <v>0</v>
+      </c>
+      <c r="G59" s="37">
         <v>58</v>
       </c>
-      <c r="H59" s="33" t="s">
+      <c r="H59" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="I59" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J59" s="33" t="s">
+      <c r="I59" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J59" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="K59" s="34" t="s">
+      <c r="K59" s="39" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="30" t="s">
+    <row r="60" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="B60" s="31">
-        <v>11</v>
-      </c>
-      <c r="C60" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D60" s="31">
-        <v>26</v>
-      </c>
-      <c r="E60" s="31">
-        <v>26</v>
-      </c>
-      <c r="F60" s="31">
-        <v>0</v>
-      </c>
-      <c r="G60" s="32">
+      <c r="B60" s="36">
+        <v>12</v>
+      </c>
+      <c r="C60" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D60" s="36">
+        <v>26</v>
+      </c>
+      <c r="E60" s="36">
+        <v>26</v>
+      </c>
+      <c r="F60" s="36">
+        <v>0</v>
+      </c>
+      <c r="G60" s="37">
         <v>59</v>
       </c>
-      <c r="H60" s="47" t="s">
+      <c r="H60" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="I60" s="47" t="s">
+      <c r="I60" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="J60" s="47" t="s">
+      <c r="J60" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="K60" s="34" t="s">
+      <c r="K60" s="39" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="B61" s="31">
-        <v>11</v>
-      </c>
-      <c r="C61" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D61" s="31">
-        <v>22</v>
-      </c>
-      <c r="E61" s="31">
-        <v>22</v>
-      </c>
-      <c r="F61" s="31">
-        <v>0</v>
-      </c>
-      <c r="G61" s="32">
-        <v>60</v>
-      </c>
-      <c r="H61" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I61" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J61" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" s="34" t="s">
+    <row r="61" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" s="36">
+        <v>12</v>
+      </c>
+      <c r="C61" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D61" s="36">
+        <v>26</v>
+      </c>
+      <c r="E61" s="36">
+        <v>26</v>
+      </c>
+      <c r="F61" s="36">
+        <v>0</v>
+      </c>
+      <c r="G61" s="37">
+        <v>61</v>
+      </c>
+      <c r="H61" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I61" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J61" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="K61" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="L61" s="36" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B62" s="31">
-        <v>11</v>
-      </c>
-      <c r="C62" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D62" s="31">
-        <v>26</v>
-      </c>
-      <c r="E62" s="31">
-        <v>26</v>
-      </c>
-      <c r="F62" s="31">
-        <v>0</v>
-      </c>
-      <c r="G62" s="32">
-        <v>61</v>
-      </c>
-      <c r="H62" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="I62" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J62" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="K62" s="34" t="s">
+    </row>
+    <row r="62" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" s="36">
+        <v>12</v>
+      </c>
+      <c r="C62" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D62" s="36">
+        <v>21</v>
+      </c>
+      <c r="E62" s="36">
+        <v>21</v>
+      </c>
+      <c r="F62" s="36">
+        <v>0</v>
+      </c>
+      <c r="G62" s="37">
+        <v>62</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="I62" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="J62" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="K62" s="39" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="B63" s="31">
-        <v>11</v>
-      </c>
-      <c r="C63" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D63" s="31">
-        <v>26</v>
-      </c>
-      <c r="E63" s="31">
-        <v>26</v>
-      </c>
-      <c r="F63" s="31">
-        <v>0</v>
-      </c>
-      <c r="G63" s="32">
-        <v>62</v>
-      </c>
-      <c r="H63" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="I63" s="33" t="s">
+    <row r="63" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="36">
+        <v>12</v>
+      </c>
+      <c r="C63" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D63" s="36">
+        <v>21</v>
+      </c>
+      <c r="E63" s="36">
+        <v>21</v>
+      </c>
+      <c r="F63" s="36">
+        <v>0</v>
+      </c>
+      <c r="G63" s="37">
+        <v>63</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J63" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="K63" s="39" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="36">
+        <v>12</v>
+      </c>
+      <c r="C64" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D64" s="36">
+        <v>27</v>
+      </c>
+      <c r="E64" s="36">
+        <v>27</v>
+      </c>
+      <c r="F64" s="36">
+        <v>0</v>
+      </c>
+      <c r="G64" s="37">
+        <v>64</v>
+      </c>
+      <c r="H64" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I64" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="J63" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="K63" s="34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="B64" s="31">
-        <v>11</v>
-      </c>
-      <c r="C64" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D64" s="31">
-        <v>26</v>
-      </c>
-      <c r="E64" s="31">
-        <v>26</v>
-      </c>
-      <c r="F64" s="31">
-        <v>0</v>
-      </c>
-      <c r="G64" s="32">
-        <v>63</v>
-      </c>
-      <c r="H64" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="I64" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J64" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="K64" s="34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" s="31">
-        <v>11</v>
-      </c>
-      <c r="C65" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D65" s="31">
-        <v>26</v>
-      </c>
-      <c r="E65" s="31">
-        <v>26</v>
-      </c>
-      <c r="F65" s="31">
-        <v>0</v>
-      </c>
-      <c r="G65" s="32">
+      <c r="J64" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" s="43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="36">
+        <v>12</v>
+      </c>
+      <c r="C65" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D65" s="36">
+        <v>21</v>
+      </c>
+      <c r="E65" s="36">
+        <v>21</v>
+      </c>
+      <c r="F65" s="36">
+        <v>0</v>
+      </c>
+      <c r="G65" s="37">
+        <v>65</v>
+      </c>
+      <c r="H65" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H65" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="I65" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="J65" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="K65" s="37" t="s">
+      <c r="I65" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J65" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="39" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B66" s="31">
-        <v>11</v>
-      </c>
-      <c r="C66" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D66" s="31">
-        <v>26</v>
-      </c>
-      <c r="E66" s="31">
-        <v>26</v>
-      </c>
-      <c r="F66" s="31">
-        <v>0</v>
-      </c>
-      <c r="G66" s="32">
-        <v>65</v>
-      </c>
-      <c r="H66" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="I66" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J66" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="K66" s="34" t="s">
+    <row r="66" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="36">
+        <v>12</v>
+      </c>
+      <c r="C66" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D66" s="36">
+        <v>21</v>
+      </c>
+      <c r="E66" s="36">
+        <v>21</v>
+      </c>
+      <c r="F66" s="36">
+        <v>0</v>
+      </c>
+      <c r="G66" s="37">
+        <v>66</v>
+      </c>
+      <c r="H66" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="I66" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J66" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="K66" s="39" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="B67" s="31">
-        <v>11</v>
-      </c>
-      <c r="C67" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D67" s="31">
-        <v>26</v>
-      </c>
-      <c r="E67" s="31">
-        <v>26</v>
-      </c>
-      <c r="F67" s="31">
-        <v>0</v>
-      </c>
-      <c r="G67" s="32">
-        <v>66</v>
-      </c>
-      <c r="H67" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="I67" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J67" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="K67" s="34" t="s">
+    <row r="67" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="36">
+        <v>12</v>
+      </c>
+      <c r="C67" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D67" s="36">
+        <v>21</v>
+      </c>
+      <c r="E67" s="36">
+        <v>21</v>
+      </c>
+      <c r="F67" s="36">
+        <v>0</v>
+      </c>
+      <c r="G67" s="37">
+        <v>67</v>
+      </c>
+      <c r="H67" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I67" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J67" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="K67" s="39" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="B68" s="31">
-        <v>11</v>
-      </c>
-      <c r="C68" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D68" s="31">
-        <v>26</v>
-      </c>
-      <c r="E68" s="31">
-        <v>26</v>
-      </c>
-      <c r="F68" s="31">
-        <v>0</v>
-      </c>
-      <c r="G68" s="32">
-        <v>67</v>
-      </c>
-      <c r="H68" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="I68" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="J68" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="K68" s="34" t="s">
+    <row r="68" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="36">
+        <v>12</v>
+      </c>
+      <c r="C68" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D68" s="36">
+        <v>21</v>
+      </c>
+      <c r="E68" s="36">
+        <v>21</v>
+      </c>
+      <c r="F68" s="36">
+        <v>0</v>
+      </c>
+      <c r="G68" s="37">
+        <v>68</v>
+      </c>
+      <c r="H68" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="I68" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J68" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="K68" s="39" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="B69" s="31">
-        <v>11</v>
-      </c>
-      <c r="C69" s="31">
-        <v>2022</v>
-      </c>
-      <c r="D69" s="31">
-        <v>26</v>
-      </c>
-      <c r="E69" s="31">
-        <v>26</v>
-      </c>
-      <c r="F69" s="31">
-        <v>0</v>
-      </c>
-      <c r="G69" s="32">
-        <v>68</v>
-      </c>
-      <c r="H69" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="I69" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J69" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="K69" s="34" t="s">
-        <v>232</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
-    <sortCondition ref="K2:K69"/>
-    <sortCondition ref="J2:J69"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R68">
+    <sortCondition ref="K2:K68"/>
+    <sortCondition ref="J2:J68"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7011,11 +7026,556 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA386A7-AB9F-4539-B3D3-F6C0B162405F}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.81640625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="9.7265625" customWidth="1"/>
+    <col min="4" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="21.26953125" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" customWidth="1"/>
+    <col min="9" max="9" width="24.453125" customWidth="1"/>
+    <col min="10" max="10" width="27.7265625" customWidth="1"/>
+    <col min="12" max="12" width="22.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+    </row>
+    <row r="2" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="31">
+        <v>12</v>
+      </c>
+      <c r="C2" s="52">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="52">
+        <v>26</v>
+      </c>
+      <c r="E2" s="52">
+        <v>26</v>
+      </c>
+      <c r="F2" s="52">
+        <v>0</v>
+      </c>
+      <c r="G2" s="53">
+        <v>1</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="31">
+        <v>12</v>
+      </c>
+      <c r="C3" s="52">
+        <v>2022</v>
+      </c>
+      <c r="D3" s="52">
+        <v>26</v>
+      </c>
+      <c r="E3" s="52">
+        <v>26</v>
+      </c>
+      <c r="F3" s="52">
+        <v>0</v>
+      </c>
+      <c r="G3" s="53">
+        <v>2</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="31">
+        <v>12</v>
+      </c>
+      <c r="C4" s="52">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="52">
+        <v>26</v>
+      </c>
+      <c r="E4" s="52">
+        <v>26</v>
+      </c>
+      <c r="F4" s="52">
+        <v>0</v>
+      </c>
+      <c r="G4" s="53">
+        <v>3</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="31">
+        <v>12</v>
+      </c>
+      <c r="C5" s="52">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="52">
+        <v>26</v>
+      </c>
+      <c r="E5" s="52">
+        <v>26</v>
+      </c>
+      <c r="F5" s="52">
+        <v>0</v>
+      </c>
+      <c r="G5" s="53">
+        <v>4</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="31">
+        <v>12</v>
+      </c>
+      <c r="C6" s="52">
+        <v>2022</v>
+      </c>
+      <c r="D6" s="52">
+        <v>26</v>
+      </c>
+      <c r="E6" s="52">
+        <v>26</v>
+      </c>
+      <c r="F6" s="52">
+        <v>0</v>
+      </c>
+      <c r="G6" s="53">
+        <v>5</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="31">
+        <v>12</v>
+      </c>
+      <c r="C7" s="52">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="52">
+        <v>26</v>
+      </c>
+      <c r="E7" s="52">
+        <v>26</v>
+      </c>
+      <c r="F7" s="52">
+        <v>0</v>
+      </c>
+      <c r="G7" s="53">
+        <v>6</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="31">
+        <v>12</v>
+      </c>
+      <c r="C8" s="52">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="52">
+        <v>26</v>
+      </c>
+      <c r="E8" s="52">
+        <v>26</v>
+      </c>
+      <c r="F8" s="52">
+        <v>0</v>
+      </c>
+      <c r="G8" s="53">
+        <v>7</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="31">
+        <v>12</v>
+      </c>
+      <c r="C9" s="52">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="52">
+        <v>26</v>
+      </c>
+      <c r="E9" s="52">
+        <v>26</v>
+      </c>
+      <c r="F9" s="52">
+        <v>0</v>
+      </c>
+      <c r="G9" s="53">
+        <v>8</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="31">
+        <v>12</v>
+      </c>
+      <c r="C10" s="52">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="52">
+        <v>26</v>
+      </c>
+      <c r="E10" s="52">
+        <v>26</v>
+      </c>
+      <c r="F10" s="52">
+        <v>0</v>
+      </c>
+      <c r="G10" s="53">
+        <v>9</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="31">
+        <v>12</v>
+      </c>
+      <c r="C11" s="52">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="52">
+        <v>26</v>
+      </c>
+      <c r="E11" s="52">
+        <v>26</v>
+      </c>
+      <c r="F11" s="52">
+        <v>0</v>
+      </c>
+      <c r="G11" s="53">
+        <v>10</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="31">
+        <v>12</v>
+      </c>
+      <c r="C12" s="52">
+        <v>2022</v>
+      </c>
+      <c r="D12" s="52">
+        <v>26</v>
+      </c>
+      <c r="E12" s="52">
+        <v>26</v>
+      </c>
+      <c r="F12" s="52">
+        <v>0</v>
+      </c>
+      <c r="G12" s="53">
+        <v>11</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="31">
+        <v>12</v>
+      </c>
+      <c r="C13" s="52">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="52">
+        <v>26</v>
+      </c>
+      <c r="E13" s="52">
+        <v>26</v>
+      </c>
+      <c r="F13" s="52">
+        <v>0</v>
+      </c>
+      <c r="G13" s="53">
+        <v>12</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="57" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="31">
+        <v>12</v>
+      </c>
+      <c r="C14" s="52">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="52">
+        <v>26</v>
+      </c>
+      <c r="E14" s="52">
+        <v>26</v>
+      </c>
+      <c r="F14" s="52">
+        <v>0</v>
+      </c>
+      <c r="G14" s="53">
+        <v>13</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="31">
+        <v>12</v>
+      </c>
+      <c r="C15" s="52">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="52">
+        <v>26</v>
+      </c>
+      <c r="E15" s="52">
+        <v>26</v>
+      </c>
+      <c r="F15" s="52">
+        <v>0</v>
+      </c>
+      <c r="G15" s="53">
+        <v>14</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4802CEB9-E954-45DE-9902-73EBC6E635B2}">
   <dimension ref="A4:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
